--- a/src_files/data_files/unittypedata_maf2020.xlsx
+++ b/src_files/data_files/unittypedata_maf2020.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DE395C-37B1-4122-B116-521F9629DF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83DC00-0937-45EB-873B-35681F7860CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unittypedata" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unittypedata!$C$1:$AI$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unittypedata!$C$1:$AI$93</definedName>
     <definedName name="Bottom">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="fd">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="Labels">OFFSET(Bottom,0,-1)</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="248">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>unittype</t>
+  </si>
+  <si>
+    <t>steam</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1162,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P76" sqref="P76"/>
+      <selection pane="bottomLeft" activeCell="AE93" sqref="AE93:AF93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2351,9 @@
       <c r="J17" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -4014,6 +4019,9 @@
       </c>
       <c r="J41" t="s">
         <v>75</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="O41" s="11">
         <v>0.89</v>
@@ -4374,7 +4382,9 @@
       <c r="J46" t="s">
         <v>75</v>
       </c>
-      <c r="K46" s="8"/>
+      <c r="K46" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -7454,6 +7464,37 @@
       <c r="D91" t="s">
         <v>232</v>
       </c>
+      <c r="I91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>75</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P91" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6">
+        <v>0</v>
+      </c>
+      <c r="S91" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AE91" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
@@ -7468,6 +7509,37 @@
       <c r="D92" t="s">
         <v>233</v>
       </c>
+      <c r="I92" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>75</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P92" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6">
+        <v>0</v>
+      </c>
+      <c r="S92" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AE92" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
@@ -7482,9 +7554,40 @@
       <c r="D93" t="s">
         <v>188</v>
       </c>
+      <c r="I93" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J93" t="s">
+        <v>75</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P93" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6">
+        <v>0</v>
+      </c>
+      <c r="S93" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AE93" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="6">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:AI89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:AI93" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src_files/data_files/unittypedata_maf2020.xlsx
+++ b/src_files/data_files/unittypedata_maf2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B3FDFF-4FF5-4B4D-9FB0-35CBC7DD3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ED63F8-C02F-47E5-8069-C7065017D442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="unittypedata" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unittypedata!$C$1:$AH$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unittypedata!$C$1:$AJ$93</definedName>
     <definedName name="Bottom">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="fd">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="Labels">OFFSET(Bottom,0,-1)</definedName>
@@ -49,7 +49,7 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,14 +68,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="251">
   <si>
     <t>Generator_ID</t>
   </si>
   <si>
-    <t>efficiency</t>
-  </si>
-  <si>
     <t>vomCosts</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>startColdAfterXhours</t>
   </si>
   <si>
-    <t>minstablegen</t>
-  </si>
-  <si>
     <t>maxRampUp</t>
   </si>
   <si>
@@ -815,6 +809,18 @@
   </si>
   <si>
     <t>ETS_CO2</t>
+  </si>
+  <si>
+    <t>eff00</t>
+  </si>
+  <si>
+    <t>eff01</t>
+  </si>
+  <si>
+    <t>op00</t>
+  </si>
+  <si>
+    <t>op01</t>
   </si>
 </sst>
 </file>
@@ -1223,13 +1229,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AJ93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="S57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="W18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF71" sqref="AF71"/>
+      <selection pane="bottomRight" activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,850 +1250,916 @@
     <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1"/>
-    <col min="25" max="26" width="8.42578125" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" customWidth="1"/>
-    <col min="28" max="30" width="8.42578125" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" customWidth="1"/>
-    <col min="34" max="34" width="10.140625" customWidth="1"/>
-    <col min="1031" max="1031" width="9.140625" customWidth="1"/>
+    <col min="17" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" customWidth="1"/>
+    <col min="28" max="32" width="8.42578125" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" customWidth="1"/>
+    <col min="1033" max="1033" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="J1" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="AI1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="13" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O2" s="1">
         <v>0.33</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="Q2">
+        <v>0.95</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
         <v>12</v>
       </c>
-      <c r="R2" s="1">
+      <c r="U2" s="1">
         <v>12</v>
       </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>3.89</v>
       </c>
-      <c r="T2" s="1">
+      <c r="W2" s="1">
         <v>2000</v>
       </c>
-      <c r="U2" s="1">
+      <c r="X2" s="1">
         <v>3.89</v>
       </c>
-      <c r="V2" s="1">
+      <c r="Y2" s="1">
         <v>2000</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Z2" s="1">
         <v>3.89</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AA2" s="1">
         <v>2000</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AB2" s="1">
         <v>12</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AC2" s="1">
         <v>24</v>
       </c>
-      <c r="AA2">
-        <v>0.95</v>
-      </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>0.05</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>0.05</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O3">
         <v>0.35</v>
       </c>
       <c r="P3">
+        <v>0.35</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>3.3</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>11</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>11</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>69.69</v>
       </c>
-      <c r="U3">
+      <c r="X3">
         <v>5.83</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>93.97</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>2.92</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>49.33</v>
       </c>
-      <c r="Y3">
+      <c r="AB3">
         <v>12</v>
       </c>
-      <c r="Z3">
+      <c r="AC3">
         <v>72</v>
       </c>
-      <c r="AA3">
-        <v>0.5</v>
-      </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>0.02</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>0.05</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O4">
         <v>0.4</v>
       </c>
       <c r="P4">
+        <v>0.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>3.3</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>9</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>9</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>5</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>50.12</v>
       </c>
-      <c r="U4">
+      <c r="X4">
         <v>5.83</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>81.44</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>2.92</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>42.29</v>
       </c>
-      <c r="Y4">
+      <c r="AB4">
         <v>12</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>72</v>
       </c>
-      <c r="AA4">
-        <v>0.5</v>
-      </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>0.02</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>0.05</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2">
         <v>0.46</v>
       </c>
       <c r="P5" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="T5" s="2">
         <v>8</v>
       </c>
-      <c r="R5" s="2">
+      <c r="U5" s="2">
         <v>8</v>
       </c>
-      <c r="S5" s="2">
+      <c r="V5" s="2">
         <v>5</v>
       </c>
-      <c r="T5" s="2">
+      <c r="W5" s="2">
         <v>42.29</v>
       </c>
-      <c r="U5" s="2">
+      <c r="X5" s="2">
         <v>5.83</v>
       </c>
-      <c r="V5" s="2">
+      <c r="Y5" s="2">
         <v>57.17</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Z5" s="2">
         <v>2.92</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AA5" s="2">
         <v>30.54</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AB5" s="2">
         <v>12</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AC5" s="2">
         <v>72</v>
       </c>
-      <c r="AA5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AB5" s="2">
+      <c r="AD5" s="2">
         <v>0.02</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AE5" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O6" s="2">
         <v>0.38</v>
       </c>
       <c r="P6" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
         <v>6.6</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="T6" s="2">
         <v>10</v>
       </c>
-      <c r="R6" s="2">
+      <c r="U6" s="2">
         <v>10</v>
       </c>
-      <c r="S6" s="2">
+      <c r="V6" s="2">
         <v>5</v>
       </c>
-      <c r="T6" s="2">
+      <c r="W6" s="2">
         <v>50.12</v>
       </c>
-      <c r="U6" s="2">
+      <c r="X6" s="2">
         <v>5.83</v>
       </c>
-      <c r="V6" s="2">
+      <c r="Y6" s="2">
         <v>81.44</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Z6" s="2">
         <v>2.92</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AA6" s="2">
         <v>42.29</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AB6" s="2">
         <v>12</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AC6" s="2">
         <v>72</v>
       </c>
-      <c r="AA6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AB6" s="2">
+      <c r="AD6" s="2">
         <v>0.02</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AE6" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O7" s="2">
         <v>0.35</v>
       </c>
       <c r="P7" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>11</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>11</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>5</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>69.69</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>5.83</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>93.97</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>2.92</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>49.33</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>12</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>72</v>
       </c>
-      <c r="AA7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>0.02</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O8" s="2">
         <v>0.4</v>
       </c>
       <c r="P8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="T8" s="2">
         <v>9</v>
       </c>
-      <c r="R8" s="2">
+      <c r="U8" s="2">
         <v>9</v>
       </c>
-      <c r="S8" s="2">
+      <c r="V8" s="2">
         <v>5</v>
       </c>
-      <c r="T8" s="2">
+      <c r="W8" s="2">
         <v>50.12</v>
       </c>
-      <c r="U8" s="2">
+      <c r="X8" s="2">
         <v>5.83</v>
       </c>
-      <c r="V8" s="2">
+      <c r="Y8" s="2">
         <v>81.44</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Z8" s="2">
         <v>2.92</v>
       </c>
-      <c r="X8" s="2">
+      <c r="AA8" s="2">
         <v>42.29</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AB8" s="2">
         <v>12</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AC8" s="2">
         <v>72</v>
       </c>
-      <c r="AA8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AB8" s="2">
+      <c r="AD8" s="2">
         <v>0.02</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AE8" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O9" s="1">
         <v>0.35</v>
       </c>
       <c r="P9" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Q9">
+        <v>0.4</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
         <v>3.3</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9" s="1">
         <v>8</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9" s="1">
         <v>8</v>
       </c>
-      <c r="S9" s="1">
+      <c r="V9" s="1">
         <v>5</v>
       </c>
-      <c r="T9" s="1">
+      <c r="W9" s="1">
         <v>69.69</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9" s="1">
         <v>5.83</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Y9" s="1">
         <v>93.97</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Z9" s="1">
         <v>2.92</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AA9" s="1">
         <v>49.33</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <v>12</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <v>72</v>
       </c>
-      <c r="AA9">
-        <v>0.4</v>
-      </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>0.02</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>0.05</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O10">
         <v>0.4</v>
       </c>
       <c r="P10">
+        <v>0.4</v>
+      </c>
+      <c r="Q10">
+        <v>0.4</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <v>3.3</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>6</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>6</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>5</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>50.12</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>5.83</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
         <v>81.44</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>2.92</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
         <v>42.29</v>
       </c>
-      <c r="Y10">
+      <c r="AB10">
         <v>12</v>
       </c>
-      <c r="Z10">
+      <c r="AC10">
         <v>72</v>
       </c>
-      <c r="AA10">
-        <v>0.4</v>
-      </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>0.02</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>0.05</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O11">
         <v>0.46</v>
       </c>
       <c r="P11">
+        <v>0.46</v>
+      </c>
+      <c r="Q11">
+        <v>0.25</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <v>3.3</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>5</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>5</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>42.29</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>5.83</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>57.17</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <v>2.92</v>
       </c>
-      <c r="X11">
+      <c r="AA11">
         <v>30.54</v>
       </c>
-      <c r="Y11">
+      <c r="AB11">
         <v>12</v>
       </c>
-      <c r="Z11">
+      <c r="AC11">
         <v>72</v>
       </c>
-      <c r="AA11">
-        <v>0.25</v>
-      </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>0.04</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>0.05</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2096,360 +2168,390 @@
         <v>0.38</v>
       </c>
       <c r="P12" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
         <v>6.6</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="T12" s="2">
         <v>7</v>
       </c>
-      <c r="R12" s="2">
+      <c r="U12" s="2">
         <v>7</v>
       </c>
-      <c r="S12" s="2">
+      <c r="V12" s="2">
         <v>5</v>
       </c>
-      <c r="T12" s="2">
+      <c r="W12" s="2">
         <v>50.12</v>
       </c>
-      <c r="U12" s="2">
+      <c r="X12" s="2">
         <v>5.83</v>
       </c>
-      <c r="V12" s="2">
+      <c r="Y12" s="2">
         <v>81.44</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Z12" s="2">
         <v>2.92</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AA12" s="2">
         <v>42.29</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AB12" s="2">
         <v>12</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AC12" s="2">
         <v>72</v>
       </c>
-      <c r="AA12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AB12" s="2">
+      <c r="AD12" s="2">
         <v>0.04</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AE12" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O13">
         <v>0.46</v>
       </c>
       <c r="P13">
+        <v>0.46</v>
+      </c>
+      <c r="Q13">
+        <v>0.25</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>3.3</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>5</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>5</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>5</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>42.29</v>
       </c>
-      <c r="U13">
+      <c r="X13">
         <v>5.83</v>
       </c>
-      <c r="V13">
+      <c r="Y13">
         <v>57.17</v>
       </c>
-      <c r="W13">
+      <c r="Z13">
         <v>2.92</v>
       </c>
-      <c r="X13">
+      <c r="AA13">
         <v>30.54</v>
       </c>
-      <c r="Y13">
+      <c r="AB13">
         <v>12</v>
       </c>
-      <c r="Z13">
+      <c r="AC13">
         <v>72</v>
       </c>
-      <c r="AA13">
-        <v>0.25</v>
-      </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>0.04</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>0.05</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O14" s="3">
         <v>0.35</v>
       </c>
       <c r="P14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
         <v>3.3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="3">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="V14" s="3">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
+      <c r="W14" s="3">
         <v>69.69</v>
       </c>
-      <c r="U14" s="3">
+      <c r="X14" s="3">
         <v>5.83</v>
       </c>
-      <c r="V14" s="3">
+      <c r="Y14" s="3">
         <v>93.97</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Z14" s="3">
         <v>2.92</v>
       </c>
-      <c r="X14" s="3">
+      <c r="AA14" s="3">
         <v>49.33</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AB14" s="3">
         <v>12</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AC14" s="3">
         <v>72</v>
       </c>
-      <c r="AA14" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AB14" s="2">
+      <c r="AD14" s="2">
         <v>0.02</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AE14" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O15" s="2">
         <v>0.4</v>
       </c>
       <c r="P15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="T15" s="2">
         <v>6</v>
       </c>
-      <c r="R15" s="2">
+      <c r="U15" s="2">
         <v>6</v>
       </c>
-      <c r="S15" s="2">
+      <c r="V15" s="2">
         <v>5</v>
       </c>
-      <c r="T15" s="2">
+      <c r="W15" s="2">
         <v>50.12</v>
       </c>
-      <c r="U15" s="2">
+      <c r="X15" s="2">
         <v>5.83</v>
       </c>
-      <c r="V15" s="2">
+      <c r="Y15" s="2">
         <v>81.44</v>
       </c>
-      <c r="W15" s="2">
+      <c r="Z15" s="2">
         <v>2.92</v>
       </c>
-      <c r="X15" s="2">
+      <c r="AA15" s="2">
         <v>42.29</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AB15" s="2">
         <v>12</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AC15" s="2">
         <v>72</v>
       </c>
-      <c r="AA15" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AB15" s="2">
+      <c r="AD15" s="2">
         <v>0.02</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AE15" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O16" s="2">
         <v>0.31</v>
       </c>
       <c r="P16" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="T16" s="2">
         <v>6</v>
       </c>
-      <c r="R16" s="2">
+      <c r="U16" s="2">
         <v>6</v>
       </c>
-      <c r="S16" s="2">
+      <c r="V16" s="2">
         <v>5</v>
       </c>
-      <c r="T16" s="2">
+      <c r="W16" s="2">
         <v>50.12</v>
       </c>
-      <c r="U16" s="2">
+      <c r="X16" s="2">
         <v>5.83</v>
       </c>
-      <c r="V16" s="2">
+      <c r="Y16" s="2">
         <v>81.44</v>
       </c>
-      <c r="W16" s="2">
+      <c r="Z16" s="2">
         <v>2.92</v>
       </c>
-      <c r="X16" s="2">
+      <c r="AA16" s="2">
         <v>42.29</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AB16" s="2">
         <v>12</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AC16" s="2">
         <v>72</v>
       </c>
-      <c r="AA16" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AB16" s="2">
+      <c r="AD16" s="2">
         <v>0.02</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AE16" s="2">
         <v>0.05</v>
       </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2457,789 +2559,855 @@
         <v>0.9</v>
       </c>
       <c r="P17" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
         <v>2</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="T17" s="4">
         <v>3</v>
       </c>
-      <c r="R17" s="4">
+      <c r="U17" s="4">
         <v>3</v>
       </c>
-      <c r="S17" s="4">
+      <c r="V17" s="4">
         <v>1.94</v>
       </c>
-      <c r="T17" s="4">
+      <c r="W17" s="4">
         <v>70</v>
       </c>
-      <c r="U17" s="4">
+      <c r="X17" s="4">
         <v>1.94</v>
       </c>
-      <c r="V17" s="4">
+      <c r="Y17" s="4">
         <v>150</v>
       </c>
-      <c r="W17" s="4">
+      <c r="Z17" s="4">
         <v>1.94</v>
       </c>
-      <c r="X17" s="4">
+      <c r="AA17" s="4">
         <v>40</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="AB17" s="4">
         <v>12</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AC17" s="4">
         <v>24</v>
       </c>
-      <c r="AA17" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="AB17" s="4">
+      <c r="AD17" s="4">
         <v>0.05</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AE17" s="4">
         <v>0.05</v>
       </c>
-      <c r="AD17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="4">
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
         <v>0.5</v>
       </c>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O18" s="8">
         <v>0.89</v>
       </c>
       <c r="P18" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="8">
         <v>2</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="T18" s="8">
         <v>3</v>
       </c>
-      <c r="R18" s="8">
+      <c r="U18" s="8">
         <v>3</v>
       </c>
-      <c r="S18" s="8">
+      <c r="V18" s="8">
         <v>1.94</v>
       </c>
-      <c r="T18" s="8">
+      <c r="W18" s="8">
         <v>70</v>
       </c>
-      <c r="U18" s="8">
+      <c r="X18" s="8">
         <v>1.94</v>
       </c>
-      <c r="V18" s="8">
+      <c r="Y18" s="8">
         <v>150</v>
       </c>
-      <c r="W18" s="8">
+      <c r="Z18" s="8">
         <v>1.94</v>
       </c>
-      <c r="X18" s="8">
+      <c r="AA18" s="8">
         <v>40</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="AB18" s="8">
         <v>12</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="AC18" s="8">
         <v>24</v>
       </c>
-      <c r="AA18" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AB18" s="8">
+      <c r="AD18" s="8">
         <v>0.05</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AE18" s="8">
         <v>0.05</v>
       </c>
-      <c r="AD18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="8">
+      <c r="AF18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="8">
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O19">
         <v>0.36</v>
       </c>
       <c r="P19">
+        <v>0.36</v>
+      </c>
+      <c r="Q19">
+        <v>0.2</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>5</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>5</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>2.11</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>68.13</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>2.69</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
         <v>69.69</v>
       </c>
-      <c r="W19">
+      <c r="Z19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X19">
+      <c r="AA19">
         <v>32.89</v>
       </c>
-      <c r="Y19">
+      <c r="AB19">
         <v>8</v>
       </c>
-      <c r="Z19">
+      <c r="AC19">
         <v>48</v>
       </c>
-      <c r="AA19">
-        <v>0.2</v>
-      </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>0.15</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>0.15</v>
       </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O20">
         <v>0.41</v>
       </c>
       <c r="P20">
+        <v>0.41</v>
+      </c>
+      <c r="Q20">
+        <v>0.2</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>5</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>5</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>2.11</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>45.42</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <v>2.69</v>
       </c>
-      <c r="V20">
+      <c r="Y20">
         <v>58.73</v>
       </c>
-      <c r="W20">
+      <c r="Z20">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X20">
+      <c r="AA20">
         <v>28.19</v>
       </c>
-      <c r="Y20">
+      <c r="AB20">
         <v>8</v>
       </c>
-      <c r="Z20">
+      <c r="AC20">
         <v>48</v>
       </c>
-      <c r="AA20">
-        <v>0.2</v>
-      </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>0.15</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>0.15</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O21">
         <v>0.3</v>
       </c>
       <c r="P21">
+        <v>0.3</v>
+      </c>
+      <c r="Q21">
+        <v>0.2</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>5</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>5</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>2.11</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>45.42</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <v>2.69</v>
       </c>
-      <c r="V21">
+      <c r="Y21">
         <v>58.73</v>
       </c>
-      <c r="W21">
+      <c r="Z21">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X21">
+      <c r="AA21">
         <v>28.19</v>
       </c>
-      <c r="Y21">
+      <c r="AB21">
         <v>8</v>
       </c>
-      <c r="Z21">
+      <c r="AC21">
         <v>48</v>
       </c>
-      <c r="AA21">
-        <v>0.2</v>
-      </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>0.15</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>0.15</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O22">
         <v>0.4</v>
       </c>
       <c r="P22">
+        <v>0.4</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
         <v>1.6</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>2.11</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>72.83</v>
       </c>
-      <c r="U22">
+      <c r="X22">
         <v>2.69</v>
       </c>
-      <c r="V22">
+      <c r="Y22">
         <v>79.09</v>
       </c>
-      <c r="W22">
+      <c r="Z22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X22">
+      <c r="AA22">
         <v>43.85</v>
       </c>
-      <c r="Y22">
+      <c r="AB22">
         <v>8</v>
       </c>
-      <c r="Z22">
+      <c r="AC22">
         <v>48</v>
       </c>
-      <c r="AA22">
-        <v>0.5</v>
-      </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>0.02</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>0.05</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23">
         <v>0.48</v>
       </c>
       <c r="P23">
+        <v>0.48</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
         <v>1.6</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>2.11</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>43.07</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>2.69</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
         <v>61.86</v>
       </c>
-      <c r="W23">
+      <c r="Z23">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X23">
+      <c r="AA23">
         <v>27.41</v>
       </c>
-      <c r="Y23">
+      <c r="AB23">
         <v>8</v>
       </c>
-      <c r="Z23">
+      <c r="AC23">
         <v>48</v>
       </c>
-      <c r="AA23">
-        <v>0.5</v>
-      </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>0.02</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>0.05</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24">
         <v>0.32</v>
       </c>
       <c r="P24">
+        <v>0.32</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
         <v>1.6</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>3</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>3</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>2.11</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>43.07</v>
       </c>
-      <c r="U24">
+      <c r="X24">
         <v>2.69</v>
       </c>
-      <c r="V24">
+      <c r="Y24">
         <v>61.86</v>
       </c>
-      <c r="W24">
+      <c r="Z24">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X24">
+      <c r="AA24">
         <v>27.41</v>
       </c>
-      <c r="Y24">
+      <c r="AB24">
         <v>8</v>
       </c>
-      <c r="Z24">
+      <c r="AC24">
         <v>48</v>
       </c>
-      <c r="AA24">
-        <v>0.5</v>
-      </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>0.02</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>0.05</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25" s="11">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25">
         <v>0.56000000000000005</v>
       </c>
       <c r="P25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q25">
+        <v>0.4</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
         <v>1.6</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>2</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>2</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>2.11</v>
       </c>
-      <c r="T25">
+      <c r="W25">
         <v>25.06</v>
       </c>
-      <c r="U25">
+      <c r="X25">
         <v>2.69</v>
       </c>
-      <c r="V25">
+      <c r="Y25">
         <v>36.020000000000003</v>
       </c>
-      <c r="W25">
+      <c r="Z25">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X25">
+      <c r="AA25">
         <v>21.93</v>
       </c>
-      <c r="Y25">
+      <c r="AB25">
         <v>8</v>
       </c>
-      <c r="Z25">
+      <c r="AC25">
         <v>48</v>
       </c>
-      <c r="AA25">
-        <v>0.4</v>
-      </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>0.04</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>0.05</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O26">
         <v>0.57999999999999996</v>
       </c>
       <c r="P26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q26">
+        <v>0.4</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
         <v>1.6</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <v>2</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>2</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>2.11</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>25.06</v>
       </c>
-      <c r="U26">
+      <c r="X26">
         <v>2.69</v>
       </c>
-      <c r="V26">
+      <c r="Y26">
         <v>36.020000000000003</v>
       </c>
-      <c r="W26">
+      <c r="Z26">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X26">
+      <c r="AA26">
         <v>21.93</v>
       </c>
-      <c r="Y26">
+      <c r="AB26">
         <v>8</v>
       </c>
-      <c r="Z26">
+      <c r="AC26">
         <v>48</v>
       </c>
-      <c r="AA26">
-        <v>0.4</v>
-      </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>0.04</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>0.05</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="11">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O27">
         <v>0.6</v>
       </c>
       <c r="P27">
+        <v>0.6</v>
+      </c>
+      <c r="Q27">
+        <v>0.4</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
         <v>1.6</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>2</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>2</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>2.11</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>25.06</v>
       </c>
-      <c r="U27">
+      <c r="X27">
         <v>2.69</v>
       </c>
-      <c r="V27">
+      <c r="Y27">
         <v>36.020000000000003</v>
       </c>
-      <c r="W27">
+      <c r="Z27">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X27">
+      <c r="AA27">
         <v>21.93</v>
       </c>
-      <c r="Y27">
+      <c r="AB27">
         <v>8</v>
       </c>
-      <c r="Z27">
+      <c r="AC27">
         <v>48</v>
       </c>
-      <c r="AA27">
-        <v>0.4</v>
-      </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>0.04</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>0.05</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B28" s="11">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -3249,1291 +3417,1399 @@
         <v>0.51</v>
       </c>
       <c r="P28">
+        <v>0.51</v>
+      </c>
+      <c r="Q28">
+        <v>0.4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
         <v>3.2</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>4</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>4</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>2.11</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>43.07</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>2.69</v>
       </c>
-      <c r="V28">
+      <c r="Y28">
         <v>61.86</v>
       </c>
-      <c r="W28">
+      <c r="Z28">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X28">
+      <c r="AA28">
         <v>27.41</v>
       </c>
-      <c r="Y28">
+      <c r="AB28">
         <v>8</v>
       </c>
-      <c r="Z28">
+      <c r="AC28">
         <v>48</v>
       </c>
-      <c r="AA28">
-        <v>0.4</v>
-      </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>0.04</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <v>0.05</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="11">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O29">
         <v>0.35</v>
       </c>
       <c r="P29">
+        <v>0.35</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
         <v>1.6</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
         <v>0.06</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>52.47</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V29">
+      <c r="Y29">
         <v>52.47</v>
       </c>
-      <c r="W29">
+      <c r="Z29">
         <v>0.06</v>
       </c>
-      <c r="X29">
+      <c r="AA29">
         <v>30.54</v>
       </c>
-      <c r="Y29">
+      <c r="AB29">
         <v>2</v>
       </c>
-      <c r="Z29">
+      <c r="AC29">
         <v>3</v>
       </c>
-      <c r="AA29">
-        <v>0.5</v>
-      </c>
-      <c r="AB29">
+      <c r="AD29">
         <v>0.08</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <v>0.08</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B30" s="11">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O30">
         <v>0.42</v>
       </c>
       <c r="P30">
+        <v>0.42</v>
+      </c>
+      <c r="Q30">
+        <v>0.4</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
         <v>1.6</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="S30">
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
         <v>0.06</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <v>20.36</v>
       </c>
-      <c r="U30">
+      <c r="X30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
         <v>24.28</v>
       </c>
-      <c r="W30">
+      <c r="Z30">
         <v>0.06</v>
       </c>
-      <c r="X30">
+      <c r="AA30">
         <v>17.23</v>
       </c>
-      <c r="Y30">
+      <c r="AB30">
         <v>2</v>
       </c>
-      <c r="Z30">
+      <c r="AC30">
         <v>3</v>
       </c>
-      <c r="AA30">
-        <v>0.4</v>
-      </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>0.12</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>0.12</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" s="11">
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O31" s="10">
         <v>0.9</v>
       </c>
       <c r="P31" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="10">
         <v>1.6</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="T31" s="10">
         <v>2</v>
       </c>
-      <c r="R31" s="10">
+      <c r="U31" s="10">
         <v>2</v>
       </c>
-      <c r="S31" s="10">
+      <c r="V31" s="10">
         <v>2.11</v>
       </c>
-      <c r="T31" s="10">
+      <c r="W31" s="10">
         <v>25.06</v>
       </c>
-      <c r="U31" s="10">
+      <c r="X31" s="10">
         <v>2.69</v>
       </c>
-      <c r="V31" s="10">
+      <c r="Y31" s="10">
         <v>36.020000000000003</v>
       </c>
-      <c r="W31" s="10">
+      <c r="Z31" s="10">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X31" s="10">
+      <c r="AA31" s="10">
         <v>21.93</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="AB31" s="10">
         <v>8</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="AC31" s="10">
         <v>48</v>
       </c>
-      <c r="AA31" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AB31" s="10">
+      <c r="AD31" s="10">
         <v>0.04</v>
       </c>
-      <c r="AC31" s="10">
+      <c r="AE31" s="10">
         <v>0.05</v>
       </c>
-      <c r="AD31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" s="11">
         <v>1</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O32" s="10">
         <v>0.9</v>
       </c>
       <c r="P32" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32" s="10">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="10">
-        <v>1</v>
-      </c>
-      <c r="R32" s="10">
-        <v>1</v>
-      </c>
-      <c r="S32" s="10">
+      <c r="T32" s="10">
+        <v>1</v>
+      </c>
+      <c r="U32" s="10">
+        <v>1</v>
+      </c>
+      <c r="V32" s="10">
         <v>0.06</v>
       </c>
-      <c r="T32" s="10">
+      <c r="W32" s="10">
         <v>20.36</v>
       </c>
-      <c r="U32" s="10">
+      <c r="X32" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V32" s="10">
+      <c r="Y32" s="10">
         <v>24.28</v>
       </c>
-      <c r="W32" s="10">
+      <c r="Z32" s="10">
         <v>0.06</v>
       </c>
-      <c r="X32" s="10">
+      <c r="AA32" s="10">
         <v>17.23</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="AB32" s="10">
         <v>2</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="AC32" s="10">
         <v>3</v>
       </c>
-      <c r="AA32" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AB32" s="10">
+      <c r="AD32" s="10">
         <v>0.12</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AE32" s="10">
         <v>0.12</v>
       </c>
-      <c r="AD32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="10">
+      <c r="AF32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33" s="11">
         <v>1</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O33" s="8">
         <v>0.9</v>
       </c>
       <c r="P33" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33" s="8">
         <v>2</v>
       </c>
-      <c r="Q33" s="8">
-        <v>1</v>
-      </c>
-      <c r="R33" s="8">
-        <v>1</v>
-      </c>
-      <c r="S33" s="8">
+      <c r="T33" s="8">
+        <v>1</v>
+      </c>
+      <c r="U33" s="8">
+        <v>1</v>
+      </c>
+      <c r="V33" s="8">
         <v>1.94</v>
       </c>
-      <c r="T33" s="8">
+      <c r="W33" s="8">
         <v>15</v>
       </c>
-      <c r="U33" s="8">
+      <c r="X33" s="8">
         <v>1.94</v>
       </c>
-      <c r="V33" s="8">
+      <c r="Y33" s="8">
         <v>15</v>
       </c>
-      <c r="W33" s="8">
+      <c r="Z33" s="8">
         <v>1.94</v>
       </c>
-      <c r="X33" s="8">
+      <c r="AA33" s="8">
         <v>15</v>
       </c>
-      <c r="Y33" s="8">
+      <c r="AB33" s="8">
         <v>12</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="AC33" s="8">
         <v>24</v>
       </c>
-      <c r="AA33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="8">
+      <c r="AD33" s="8">
         <v>0.05</v>
       </c>
-      <c r="AC33" s="8">
+      <c r="AE33" s="8">
         <v>0.05</v>
       </c>
-      <c r="AD33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="11">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O34">
         <v>0.35</v>
       </c>
       <c r="P34">
+        <v>0.35</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34">
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
         <v>0.06</v>
       </c>
-      <c r="T34">
+      <c r="W34">
         <v>36</v>
       </c>
-      <c r="U34">
+      <c r="X34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V34">
+      <c r="Y34">
         <v>38.4</v>
       </c>
-      <c r="W34">
+      <c r="Z34">
         <v>0.06</v>
       </c>
-      <c r="X34">
+      <c r="AA34">
         <v>24</v>
       </c>
-      <c r="Y34">
+      <c r="AB34">
         <v>2</v>
       </c>
-      <c r="Z34">
+      <c r="AC34">
         <v>3</v>
       </c>
-      <c r="AA34">
-        <v>0.5</v>
-      </c>
-      <c r="AB34">
+      <c r="AD34">
         <v>0.08</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <v>0.08</v>
       </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B35" s="11">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O35">
         <v>0.35</v>
       </c>
       <c r="P35">
+        <v>0.35</v>
+      </c>
+      <c r="Q35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
         <v>3.3</v>
       </c>
-      <c r="Q35">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <v>3</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>2.11</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>70</v>
       </c>
-      <c r="U35">
+      <c r="X35">
         <v>2.69</v>
       </c>
-      <c r="V35">
+      <c r="Y35">
         <v>93.97</v>
       </c>
-      <c r="W35">
+      <c r="Z35">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X35">
+      <c r="AA35">
         <v>49.33</v>
       </c>
-      <c r="Y35">
+      <c r="AB35">
         <v>8</v>
       </c>
-      <c r="Z35">
+      <c r="AC35">
         <v>48</v>
       </c>
-      <c r="AA35">
-        <v>0.5</v>
-      </c>
-      <c r="AB35">
+      <c r="AD35">
         <v>0.08</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <v>0.08</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B36" s="11">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O36" s="2">
         <v>0.4</v>
       </c>
       <c r="P36" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="T36" s="2">
         <v>3</v>
       </c>
-      <c r="R36" s="2">
+      <c r="U36" s="2">
         <v>3</v>
       </c>
-      <c r="S36" s="2">
+      <c r="V36" s="2">
         <v>2.11</v>
       </c>
-      <c r="T36" s="2">
+      <c r="W36" s="2">
         <v>50</v>
       </c>
-      <c r="U36" s="2">
+      <c r="X36" s="2">
         <v>2.69</v>
       </c>
-      <c r="V36" s="2">
+      <c r="Y36" s="2">
         <v>81.44</v>
       </c>
-      <c r="W36" s="2">
+      <c r="Z36" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="X36" s="2">
+      <c r="AA36" s="2">
         <v>42.29</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="AB36" s="2">
         <v>8</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AC36" s="2">
         <v>48</v>
       </c>
-      <c r="AA36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AB36" s="2">
+      <c r="AD36" s="2">
         <v>0.08</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AE36" s="2">
         <v>0.08</v>
       </c>
-      <c r="AD36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B37" s="11">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O37" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="P37" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="T37" s="2">
         <v>11</v>
       </c>
-      <c r="R37" s="2">
+      <c r="U37" s="2">
         <v>11</v>
       </c>
-      <c r="S37" s="2">
+      <c r="V37" s="2">
         <v>5</v>
       </c>
-      <c r="T37" s="2">
+      <c r="W37" s="2">
         <v>60</v>
       </c>
-      <c r="U37" s="2">
+      <c r="X37" s="2">
         <v>5.83</v>
       </c>
-      <c r="V37" s="2">
+      <c r="Y37" s="2">
         <v>88</v>
       </c>
-      <c r="W37" s="2">
+      <c r="Z37" s="2">
         <v>2.92</v>
       </c>
-      <c r="X37" s="2">
+      <c r="AA37" s="2">
         <v>46</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="AB37" s="2">
         <v>12</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="AC37" s="2">
         <v>72</v>
       </c>
-      <c r="AA37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AB37" s="2">
+      <c r="AD37" s="2">
         <v>0.08</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AE37" s="2">
         <v>0.08</v>
       </c>
-      <c r="AD37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B38" s="11">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O38" s="2">
         <v>0.39</v>
       </c>
       <c r="P38" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>8</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>8</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>5</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>5.83</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>57.17</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>2.92</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>31</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>12</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>72</v>
       </c>
-      <c r="AA38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>0.08</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>0.08</v>
       </c>
-      <c r="AD38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B39" s="11">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O39">
         <v>0.39</v>
       </c>
       <c r="P39">
+        <v>0.39</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
         <v>3.3</v>
       </c>
-      <c r="Q39">
+      <c r="T39">
         <v>8</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <v>8</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>5</v>
       </c>
-      <c r="T39">
+      <c r="W39">
         <v>42</v>
       </c>
-      <c r="U39">
+      <c r="X39">
         <v>5.83</v>
       </c>
-      <c r="V39">
+      <c r="Y39">
         <v>57.17</v>
       </c>
-      <c r="W39">
+      <c r="Z39">
         <v>2.92</v>
       </c>
-      <c r="X39">
+      <c r="AA39">
         <v>31</v>
       </c>
-      <c r="Y39">
+      <c r="AB39">
         <v>12</v>
       </c>
-      <c r="Z39">
+      <c r="AC39">
         <v>72</v>
       </c>
-      <c r="AA39">
-        <v>0.5</v>
-      </c>
-      <c r="AB39">
+      <c r="AD39">
         <v>0.08</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>0.08</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B40" s="11">
         <v>1</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O40" s="8">
         <v>0.9</v>
       </c>
       <c r="P40" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40" s="8">
         <v>2</v>
       </c>
-      <c r="Q40" s="8">
-        <v>1</v>
-      </c>
-      <c r="R40" s="8">
-        <v>1</v>
-      </c>
-      <c r="S40" s="8">
+      <c r="T40" s="8">
+        <v>1</v>
+      </c>
+      <c r="U40" s="8">
+        <v>1</v>
+      </c>
+      <c r="V40" s="8">
         <v>1.94</v>
       </c>
-      <c r="T40" s="8">
+      <c r="W40" s="8">
         <v>15</v>
       </c>
-      <c r="U40" s="8">
+      <c r="X40" s="8">
         <v>1.94</v>
       </c>
-      <c r="V40" s="8">
+      <c r="Y40" s="8">
         <v>15</v>
       </c>
-      <c r="W40" s="8">
+      <c r="Z40" s="8">
         <v>1.94</v>
       </c>
-      <c r="X40" s="8">
+      <c r="AA40" s="8">
         <v>15</v>
       </c>
-      <c r="Y40" s="8">
+      <c r="AB40" s="8">
         <v>12</v>
       </c>
-      <c r="Z40" s="8">
+      <c r="AC40" s="8">
         <v>24</v>
       </c>
-      <c r="AA40" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="8">
+      <c r="AD40" s="8">
         <v>0.05</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AE40" s="8">
         <v>0.05</v>
       </c>
-      <c r="AD40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B41" s="11">
         <v>1</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O41" s="9">
         <v>0.89</v>
       </c>
       <c r="P41" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41" s="9">
         <v>2</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="T41" s="9">
         <v>3</v>
       </c>
-      <c r="R41" s="9">
+      <c r="U41" s="9">
         <v>3</v>
       </c>
-      <c r="S41" s="9">
+      <c r="V41" s="9">
         <v>1.94</v>
       </c>
-      <c r="T41" s="9">
+      <c r="W41" s="9">
         <v>70</v>
       </c>
-      <c r="U41" s="9">
+      <c r="X41" s="9">
         <v>1.94</v>
       </c>
-      <c r="V41" s="9">
+      <c r="Y41" s="9">
         <v>150</v>
       </c>
-      <c r="W41" s="9">
+      <c r="Z41" s="9">
         <v>1.94</v>
       </c>
-      <c r="X41" s="9">
+      <c r="AA41" s="9">
         <v>40</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="AB41" s="9">
         <v>12</v>
       </c>
-      <c r="Z41" s="9">
+      <c r="AC41" s="9">
         <v>24</v>
       </c>
-      <c r="AA41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="9">
+      <c r="AD41" s="9">
         <v>0.05</v>
       </c>
-      <c r="AC41" s="9">
+      <c r="AE41" s="9">
         <v>0.05</v>
       </c>
-      <c r="AD41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="9">
+      <c r="AF41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B42" s="11">
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O42" s="8">
         <v>0.89</v>
       </c>
       <c r="P42" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42" s="8">
         <v>2</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="T42" s="8">
         <v>3</v>
       </c>
-      <c r="R42" s="8">
+      <c r="U42" s="8">
         <v>3</v>
       </c>
-      <c r="S42" s="8">
+      <c r="V42" s="8">
         <v>1.94</v>
       </c>
-      <c r="T42" s="8">
+      <c r="W42" s="8">
         <v>70</v>
       </c>
-      <c r="U42" s="8">
+      <c r="X42" s="8">
         <v>1.94</v>
       </c>
-      <c r="V42" s="8">
+      <c r="Y42" s="8">
         <v>150</v>
       </c>
-      <c r="W42" s="8">
+      <c r="Z42" s="8">
         <v>1.94</v>
       </c>
-      <c r="X42" s="8">
+      <c r="AA42" s="8">
         <v>40</v>
       </c>
-      <c r="Y42" s="8">
+      <c r="AB42" s="8">
         <v>12</v>
       </c>
-      <c r="Z42" s="8">
+      <c r="AC42" s="8">
         <v>24</v>
       </c>
-      <c r="AA42" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AB42" s="8">
+      <c r="AD42" s="8">
         <v>0.05</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AE42" s="8">
         <v>0.05</v>
       </c>
-      <c r="AD42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="8">
+      <c r="AF42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B43" s="11">
         <v>1</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O43" s="7">
         <v>0.9</v>
       </c>
       <c r="P43" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43" s="7">
         <v>2</v>
       </c>
-      <c r="Q43" s="7">
-        <v>1</v>
-      </c>
-      <c r="R43" s="7">
-        <v>1</v>
-      </c>
-      <c r="S43" s="7">
+      <c r="T43" s="7">
+        <v>1</v>
+      </c>
+      <c r="U43" s="7">
+        <v>1</v>
+      </c>
+      <c r="V43" s="7">
         <v>1.94</v>
       </c>
-      <c r="T43" s="7">
+      <c r="W43" s="7">
         <v>70</v>
       </c>
-      <c r="U43" s="7">
+      <c r="X43" s="7">
         <v>1.94</v>
       </c>
-      <c r="V43" s="7">
+      <c r="Y43" s="7">
         <v>150</v>
       </c>
-      <c r="W43" s="7">
+      <c r="Z43" s="7">
         <v>1.94</v>
       </c>
-      <c r="X43" s="7">
+      <c r="AA43" s="7">
         <v>40</v>
       </c>
-      <c r="Y43" s="7">
+      <c r="AB43" s="7">
         <v>12</v>
       </c>
-      <c r="Z43" s="7">
+      <c r="AC43" s="7">
         <v>24</v>
       </c>
-      <c r="AA43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="7">
+      <c r="AD43" s="7">
         <v>0.05</v>
       </c>
-      <c r="AC43" s="7">
+      <c r="AE43" s="7">
         <v>0.05</v>
       </c>
-      <c r="AD43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B44" s="11">
         <v>1</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O44" s="8">
         <v>0.9</v>
       </c>
       <c r="P44" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44" s="8">
         <v>2</v>
       </c>
-      <c r="Q44" s="8">
-        <v>1</v>
-      </c>
-      <c r="R44" s="8">
-        <v>1</v>
-      </c>
-      <c r="S44" s="8">
+      <c r="T44" s="8">
+        <v>1</v>
+      </c>
+      <c r="U44" s="8">
+        <v>1</v>
+      </c>
+      <c r="V44" s="8">
         <v>1.94</v>
       </c>
-      <c r="T44" s="8">
+      <c r="W44" s="8">
         <v>70</v>
       </c>
-      <c r="U44" s="8">
+      <c r="X44" s="8">
         <v>1.94</v>
       </c>
-      <c r="V44" s="8">
+      <c r="Y44" s="8">
         <v>150</v>
       </c>
-      <c r="W44" s="8">
+      <c r="Z44" s="8">
         <v>1.94</v>
       </c>
-      <c r="X44" s="8">
+      <c r="AA44" s="8">
         <v>40</v>
       </c>
-      <c r="Y44" s="8">
+      <c r="AB44" s="8">
         <v>12</v>
       </c>
-      <c r="Z44" s="8">
+      <c r="AC44" s="8">
         <v>24</v>
       </c>
-      <c r="AA44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="8">
+      <c r="AD44" s="8">
         <v>0.05</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AE44" s="8">
         <v>0.05</v>
       </c>
-      <c r="AD44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B45" s="11">
         <v>1</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O45" s="8">
         <v>0.89</v>
       </c>
       <c r="P45" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45" s="8">
         <v>2</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="T45" s="8">
         <v>3</v>
       </c>
-      <c r="R45" s="8">
+      <c r="U45" s="8">
         <v>3</v>
       </c>
-      <c r="S45" s="8">
+      <c r="V45" s="8">
         <v>1.94</v>
       </c>
-      <c r="T45" s="8">
+      <c r="W45" s="8">
         <v>70</v>
       </c>
-      <c r="U45" s="8">
+      <c r="X45" s="8">
         <v>1.94</v>
       </c>
-      <c r="V45" s="8">
+      <c r="Y45" s="8">
         <v>150</v>
       </c>
-      <c r="W45" s="8">
+      <c r="Z45" s="8">
         <v>1.94</v>
       </c>
-      <c r="X45" s="8">
+      <c r="AA45" s="8">
         <v>40</v>
       </c>
-      <c r="Y45" s="8">
+      <c r="AB45" s="8">
         <v>12</v>
       </c>
-      <c r="Z45" s="8">
+      <c r="AC45" s="8">
         <v>24</v>
       </c>
-      <c r="AA45" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AB45" s="8">
+      <c r="AD45" s="8">
         <v>0.05</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AE45" s="8">
         <v>0.05</v>
       </c>
-      <c r="AD45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="8">
+      <c r="AF45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B46" s="11">
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -4541,13 +4817,13 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -4555,417 +4831,399 @@
         <v>0.9</v>
       </c>
       <c r="P46" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4">
         <v>2</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="T46" s="4">
         <v>3</v>
       </c>
-      <c r="R46" s="4">
+      <c r="U46" s="4">
         <v>3</v>
       </c>
-      <c r="S46" s="4">
+      <c r="V46" s="4">
         <v>1.94</v>
       </c>
-      <c r="T46" s="4">
+      <c r="W46" s="4">
         <v>70</v>
       </c>
-      <c r="U46" s="4">
+      <c r="X46" s="4">
         <v>1.94</v>
       </c>
-      <c r="V46" s="4">
+      <c r="Y46" s="4">
         <v>150</v>
       </c>
-      <c r="W46" s="4">
+      <c r="Z46" s="4">
         <v>1.94</v>
       </c>
-      <c r="X46" s="4">
+      <c r="AA46" s="4">
         <v>40</v>
       </c>
-      <c r="Y46" s="4">
+      <c r="AB46" s="4">
         <v>12</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="AC46" s="4">
         <v>24</v>
       </c>
-      <c r="AA46" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="AB46" s="4">
+      <c r="AD46" s="4">
         <v>0.05</v>
       </c>
-      <c r="AC46" s="4">
+      <c r="AE46" s="4">
         <v>0.05</v>
       </c>
-      <c r="AD46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="4">
+      <c r="AF46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="4">
         <v>0.5</v>
       </c>
-      <c r="AF46" s="4"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH46" s="4"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B47" s="11">
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>73</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>66</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" t="s">
+        <v>73</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>73</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
         <v>188</v>
       </c>
-      <c r="G47" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" t="s">
-        <v>75</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>2</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B48" s="11">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="J50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K50" t="s">
+        <v>73</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
         <v>189</v>
       </c>
-      <c r="G48" t="s">
-        <v>130</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>75</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>2</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B49" s="11">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" t="s">
-        <v>131</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" t="s">
-        <v>75</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B50" s="11">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
         <v>190</v>
       </c>
-      <c r="J50" t="s">
-        <v>71</v>
-      </c>
-      <c r="K50" t="s">
-        <v>75</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" s="11">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" t="s">
-        <v>191</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="J52" t="s">
         <v>73</v>
       </c>
-      <c r="K51" t="s">
-        <v>75</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="11">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" t="s">
-        <v>192</v>
-      </c>
-      <c r="J52" t="s">
-        <v>75</v>
-      </c>
       <c r="K52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O52">
         <v>2.8</v>
       </c>
       <c r="P52">
+        <v>2.8</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
         <v>6</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
       <c r="W52">
         <v>0</v>
       </c>
@@ -4981,53 +5239,50 @@
       <c r="AA52">
         <v>0</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B53" s="11">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O53">
         <v>0.98</v>
       </c>
       <c r="P53">
+        <v>0.98</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
         <v>13</v>
       </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
       <c r="W53">
         <v>0</v>
       </c>
@@ -5043,53 +5298,50 @@
       <c r="AA53">
         <v>0</v>
       </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B54" s="11">
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O54" s="2">
         <v>0.95</v>
       </c>
       <c r="P54" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
       </c>
-      <c r="R54" s="2">
-        <v>0</v>
+      <c r="R54">
+        <v>1</v>
       </c>
       <c r="S54" s="2">
         <v>0</v>
       </c>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
       <c r="W54" s="2">
         <v>0</v>
       </c>
@@ -5105,56 +5357,53 @@
       <c r="AA54" s="2">
         <v>0</v>
       </c>
-      <c r="AD54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="2">
+      <c r="AB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B55" s="11">
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O55" s="4">
         <v>0.95</v>
       </c>
       <c r="P55" s="4">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q55" s="4">
         <v>0</v>
       </c>
-      <c r="R55" s="4">
-        <v>0</v>
+      <c r="R55">
+        <v>1</v>
       </c>
       <c r="S55" s="4">
         <v>0</v>
       </c>
-      <c r="T55" s="4">
-        <v>0</v>
-      </c>
-      <c r="U55" s="4">
-        <v>0</v>
-      </c>
-      <c r="V55" s="4">
-        <v>0</v>
-      </c>
       <c r="W55" s="4">
         <v>0</v>
       </c>
@@ -5170,56 +5419,53 @@
       <c r="AA55" s="4">
         <v>0</v>
       </c>
-      <c r="AD55" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="4">
+      <c r="AB55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B56" s="11">
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O56" s="2">
         <v>0.95</v>
       </c>
       <c r="P56" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
       </c>
-      <c r="R56" s="2">
-        <v>0</v>
+      <c r="R56">
+        <v>1</v>
       </c>
       <c r="S56" s="2">
         <v>0</v>
       </c>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2">
-        <v>0</v>
-      </c>
       <c r="W56" s="2">
         <v>0</v>
       </c>
@@ -5235,53 +5481,50 @@
       <c r="AA56" s="2">
         <v>0</v>
       </c>
-      <c r="AD56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B57" s="11">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O57" s="4">
         <v>0.95</v>
       </c>
       <c r="P57" s="4">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q57" s="4">
         <v>0</v>
       </c>
-      <c r="R57" s="4">
-        <v>0</v>
+      <c r="R57">
+        <v>1</v>
       </c>
       <c r="S57" s="4">
         <v>0</v>
       </c>
-      <c r="T57" s="4">
-        <v>0</v>
-      </c>
-      <c r="U57" s="4">
-        <v>0</v>
-      </c>
-      <c r="V57" s="4">
-        <v>0</v>
-      </c>
       <c r="W57" s="4">
         <v>0</v>
       </c>
@@ -5297,115 +5540,109 @@
       <c r="AA57" s="4">
         <v>0</v>
       </c>
-      <c r="AD57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AB57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B58" s="11">
         <v>1</v>
       </c>
       <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" t="s">
+        <v>73</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" s="11">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
         <v>80</v>
       </c>
-      <c r="D58" t="s">
-        <v>198</v>
-      </c>
-      <c r="J58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K58" t="s">
-        <v>75</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B59" s="11">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>82</v>
-      </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O59">
         <v>0.8</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
       <c r="W59">
         <v>0</v>
       </c>
@@ -5421,53 +5658,50 @@
       <c r="AA59">
         <v>0</v>
       </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B60" s="11">
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O60" s="4">
         <v>1</v>
       </c>
       <c r="P60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="4">
         <v>0</v>
       </c>
-      <c r="R60" s="4">
-        <v>0</v>
+      <c r="R60">
+        <v>1</v>
       </c>
       <c r="S60" s="4">
         <v>0</v>
       </c>
-      <c r="T60" s="4">
-        <v>0</v>
-      </c>
-      <c r="U60" s="4">
-        <v>0</v>
-      </c>
-      <c r="V60" s="4">
-        <v>0</v>
-      </c>
       <c r="W60" s="4">
         <v>0</v>
       </c>
@@ -5483,53 +5717,50 @@
       <c r="AA60" s="4">
         <v>0</v>
       </c>
-      <c r="AD60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B61" s="11">
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O61" s="4">
         <v>0.8</v>
       </c>
       <c r="P61" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q61" s="4">
         <v>0</v>
       </c>
-      <c r="R61" s="4">
-        <v>0</v>
+      <c r="R61">
+        <v>1</v>
       </c>
       <c r="S61" s="4">
         <v>0</v>
       </c>
-      <c r="T61" s="4">
-        <v>0</v>
-      </c>
-      <c r="U61" s="4">
-        <v>0</v>
-      </c>
-      <c r="V61" s="4">
-        <v>0</v>
-      </c>
       <c r="W61" s="4">
         <v>0</v>
       </c>
@@ -5545,53 +5776,50 @@
       <c r="AA61" s="4">
         <v>0</v>
       </c>
-      <c r="AD61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B62" s="11">
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O62" s="2">
         <v>0.75</v>
       </c>
       <c r="P62" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62" s="2">
         <v>9</v>
       </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2">
-        <v>0</v>
-      </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2">
-        <v>0</v>
-      </c>
       <c r="W62" s="2">
         <v>0</v>
       </c>
@@ -5607,53 +5835,50 @@
       <c r="AA62" s="2">
         <v>0</v>
       </c>
-      <c r="AD62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B63" s="11">
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O63" s="4">
         <v>0.7</v>
       </c>
       <c r="P63" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63" s="4">
         <v>9</v>
       </c>
-      <c r="Q63" s="4">
-        <v>0</v>
-      </c>
-      <c r="R63" s="4">
-        <v>0</v>
-      </c>
-      <c r="S63" s="4">
-        <v>0</v>
-      </c>
-      <c r="T63" s="4">
-        <v>0</v>
-      </c>
-      <c r="U63" s="4">
-        <v>0</v>
-      </c>
-      <c r="V63" s="4">
-        <v>0</v>
-      </c>
       <c r="W63" s="4">
         <v>0</v>
       </c>
@@ -5669,158 +5894,158 @@
       <c r="AA63" s="4">
         <v>0</v>
       </c>
-      <c r="AD63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B64" s="11">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O64" s="2">
         <v>0.35</v>
       </c>
       <c r="P64" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="2">
         <v>5</v>
       </c>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2">
+      <c r="W64" s="2">
         <v>15</v>
       </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2">
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
         <v>30</v>
       </c>
-      <c r="W64" s="2">
-        <v>0</v>
-      </c>
-      <c r="X64" s="2">
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
         <v>15</v>
       </c>
-      <c r="Y64" s="2">
+      <c r="AB64" s="2">
         <v>12</v>
       </c>
-      <c r="Z64" s="2">
+      <c r="AC64" s="2">
         <v>12</v>
       </c>
-      <c r="AA64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AD64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B65" s="11">
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O65" s="2">
         <v>0.1</v>
       </c>
       <c r="P65" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65" s="2">
         <v>5000</v>
       </c>
-      <c r="Q65" s="2">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0</v>
-      </c>
-      <c r="S65" s="2">
-        <v>0</v>
-      </c>
-      <c r="T65" s="2">
+      <c r="W65" s="2">
         <v>15</v>
       </c>
-      <c r="U65" s="2">
-        <v>0</v>
-      </c>
-      <c r="V65" s="2">
+      <c r="X65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2">
         <v>30</v>
       </c>
-      <c r="W65" s="2">
-        <v>0</v>
-      </c>
-      <c r="X65" s="2">
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
         <v>15</v>
       </c>
-      <c r="Y65" s="2">
+      <c r="AB65" s="2">
         <v>12</v>
       </c>
-      <c r="Z65" s="2">
+      <c r="AC65" s="2">
         <v>12</v>
       </c>
-      <c r="AA65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AD65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="2">
+      <c r="AF65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B66" s="11">
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O66" s="2">
         <v>1</v>
@@ -5831,20 +6056,11 @@
       <c r="Q66" s="2">
         <v>0</v>
       </c>
-      <c r="R66" s="2">
-        <v>0</v>
+      <c r="R66">
+        <v>1</v>
       </c>
       <c r="S66" s="2">
-        <v>0</v>
-      </c>
-      <c r="T66" s="2">
-        <v>0</v>
-      </c>
-      <c r="U66" s="2">
-        <v>0</v>
-      </c>
-      <c r="V66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="2">
         <v>0</v>
@@ -5861,53 +6077,50 @@
       <c r="AA66" s="2">
         <v>0</v>
       </c>
-      <c r="AD66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B67" s="11">
         <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O67" s="4">
         <v>0.99</v>
       </c>
       <c r="P67" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67" s="4">
         <v>1.7500000000000002E-5</v>
       </c>
-      <c r="Q67" s="4">
-        <v>0</v>
-      </c>
-      <c r="R67" s="4">
-        <v>0</v>
-      </c>
-      <c r="S67" s="4">
-        <v>0</v>
-      </c>
-      <c r="T67" s="4">
-        <v>0</v>
-      </c>
-      <c r="U67" s="4">
-        <v>0</v>
-      </c>
-      <c r="V67" s="4">
-        <v>0</v>
-      </c>
       <c r="W67" s="4">
         <v>0</v>
       </c>
@@ -5923,54 +6136,51 @@
       <c r="AA67" s="4">
         <v>0</v>
       </c>
-      <c r="AD67" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="5"/>
-    </row>
-    <row r="68" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="5"/>
+    </row>
+    <row r="68" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B68" s="11">
         <v>1</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O68" s="4">
         <v>1</v>
       </c>
       <c r="P68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="4">
         <v>0</v>
       </c>
-      <c r="R68" s="4">
-        <v>0</v>
+      <c r="R68">
+        <v>1</v>
       </c>
       <c r="S68" s="4">
         <v>0</v>
       </c>
-      <c r="T68" s="4">
-        <v>0</v>
-      </c>
-      <c r="U68" s="4">
-        <v>0</v>
-      </c>
-      <c r="V68" s="4">
-        <v>0</v>
-      </c>
       <c r="W68" s="4">
         <v>0</v>
       </c>
@@ -5986,56 +6196,53 @@
       <c r="AA68" s="4">
         <v>0</v>
       </c>
-      <c r="AD68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="5">
+      <c r="AB68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="5">
         <v>924</v>
       </c>
     </row>
-    <row r="69" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B69" s="11">
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O69" s="4">
         <v>0.99</v>
       </c>
       <c r="P69" s="4">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="Q69" s="4">
         <v>0</v>
       </c>
-      <c r="R69" s="4">
-        <v>0</v>
+      <c r="R69">
+        <v>1</v>
       </c>
       <c r="S69" s="4">
         <v>0</v>
       </c>
-      <c r="T69" s="4">
-        <v>0</v>
-      </c>
-      <c r="U69" s="4">
-        <v>0</v>
-      </c>
-      <c r="V69" s="4">
-        <v>0</v>
-      </c>
       <c r="W69" s="4">
         <v>0</v>
       </c>
@@ -6051,822 +6258,783 @@
       <c r="AA69" s="4">
         <v>0</v>
       </c>
-      <c r="AD69" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="5"/>
-    </row>
-    <row r="70" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="5"/>
+    </row>
+    <row r="70" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B70" s="11">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D70" t="s">
+      <c r="K70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70" s="4">
+        <v>0</v>
+      </c>
+      <c r="W70" s="4">
+        <v>0</v>
+      </c>
+      <c r="X70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" s="11">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>73</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>500</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="11">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
         <v>210</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O70" s="4">
-        <v>1</v>
-      </c>
-      <c r="P70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="4">
-        <v>0</v>
-      </c>
-      <c r="R70" s="4">
-        <v>0</v>
-      </c>
-      <c r="S70" s="4">
-        <v>0</v>
-      </c>
-      <c r="T70" s="4">
-        <v>0</v>
-      </c>
-      <c r="U70" s="4">
-        <v>0</v>
-      </c>
-      <c r="V70" s="4">
-        <v>0</v>
-      </c>
-      <c r="W70" s="4">
-        <v>0</v>
-      </c>
-      <c r="X70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B71" s="11">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1000</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="11">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>211</v>
       </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>75</v>
-      </c>
-      <c r="K71" s="4" t="s">
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73" s="2">
+        <v>2000</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="X73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="11">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" t="s">
+        <v>73</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
         <v>20</v>
       </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <v>500</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B72" s="11">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" t="s">
-        <v>212</v>
-      </c>
-      <c r="F72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>75</v>
-      </c>
-      <c r="K72" s="4" t="s">
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="11">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="11">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76" s="2">
+        <v>0</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+      <c r="X76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="11">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1</v>
+      </c>
+      <c r="P77" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77" s="2">
+        <v>30</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0</v>
+      </c>
+      <c r="X77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" s="11">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O78" s="2">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+      <c r="X78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" s="11">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" t="s">
+        <v>217</v>
+      </c>
+      <c r="J79" t="s">
+        <v>69</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" s="11">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+      <c r="J80" t="s">
+        <v>69</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>10</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="11">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+      <c r="J81" t="s">
+        <v>69</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
         <v>20</v>
       </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>1000</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B73" s="11">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O73" s="2">
-        <v>1</v>
-      </c>
-      <c r="P73" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>0</v>
-      </c>
-      <c r="R73" s="2">
-        <v>0</v>
-      </c>
-      <c r="S73" s="2">
-        <v>0</v>
-      </c>
-      <c r="T73" s="2">
-        <v>0</v>
-      </c>
-      <c r="U73" s="2">
-        <v>0</v>
-      </c>
-      <c r="V73" s="2">
-        <v>0</v>
-      </c>
-      <c r="W73" s="2">
-        <v>0</v>
-      </c>
-      <c r="X73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74" s="11">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" t="s">
-        <v>75</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>20</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AD74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B75" s="11">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" t="s">
-        <v>215</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" t="s">
-        <v>75</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
-        <v>10</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B76" s="11">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" t="s">
-        <v>216</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O76" s="2">
-        <v>1</v>
-      </c>
-      <c r="P76" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>0</v>
-      </c>
-      <c r="R76" s="2">
-        <v>0</v>
-      </c>
-      <c r="S76" s="2">
-        <v>0</v>
-      </c>
-      <c r="T76" s="2">
-        <v>0</v>
-      </c>
-      <c r="U76" s="2">
-        <v>0</v>
-      </c>
-      <c r="V76" s="2">
-        <v>0</v>
-      </c>
-      <c r="W76" s="2">
-        <v>0</v>
-      </c>
-      <c r="X76" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B77" s="11">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" t="s">
-        <v>217</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O77" s="2">
-        <v>1</v>
-      </c>
-      <c r="P77" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>0</v>
-      </c>
-      <c r="R77" s="2">
-        <v>0</v>
-      </c>
-      <c r="S77" s="2">
-        <v>0</v>
-      </c>
-      <c r="T77" s="2">
-        <v>0</v>
-      </c>
-      <c r="U77" s="2">
-        <v>0</v>
-      </c>
-      <c r="V77" s="2">
-        <v>0</v>
-      </c>
-      <c r="W77" s="2">
-        <v>0</v>
-      </c>
-      <c r="X77" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B78" s="11">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" t="s">
-        <v>218</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O78" s="2">
-        <v>1</v>
-      </c>
-      <c r="P78" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>0</v>
-      </c>
-      <c r="R78" s="2">
-        <v>0</v>
-      </c>
-      <c r="S78" s="2">
-        <v>0</v>
-      </c>
-      <c r="T78" s="2">
-        <v>0</v>
-      </c>
-      <c r="U78" s="2">
-        <v>0</v>
-      </c>
-      <c r="V78" s="2">
-        <v>0</v>
-      </c>
-      <c r="W78" s="2">
-        <v>0</v>
-      </c>
-      <c r="X78" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B79" s="11">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" t="s">
-        <v>219</v>
-      </c>
-      <c r="J79" t="s">
-        <v>71</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B80" s="11">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="11">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>220</v>
       </c>
-      <c r="J80" t="s">
-        <v>71</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>10</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-      <c r="AD80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B81" s="11">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="J82" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D81" t="s">
-        <v>221</v>
-      </c>
-      <c r="J81" t="s">
-        <v>71</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>20</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B82" s="11">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D82" t="s">
-        <v>222</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="K82" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O82" s="2">
         <v>0.95</v>
       </c>
       <c r="P82" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q82" s="2">
         <v>0</v>
       </c>
-      <c r="R82" s="2">
-        <v>0</v>
+      <c r="R82">
+        <v>1</v>
       </c>
       <c r="S82" s="2">
         <v>0</v>
       </c>
-      <c r="T82" s="2">
-        <v>0</v>
-      </c>
-      <c r="U82" s="2">
-        <v>0</v>
-      </c>
-      <c r="V82" s="2">
-        <v>0</v>
-      </c>
       <c r="W82" s="2">
         <v>0</v>
       </c>
@@ -6882,117 +7050,111 @@
       <c r="AA82" s="2">
         <v>0</v>
       </c>
-      <c r="AD82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B83" s="11">
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O83" s="2">
+        <v>1</v>
+      </c>
+      <c r="P83" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="11">
+        <v>1</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D83" t="s">
-        <v>223</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O83" s="2">
-        <v>1</v>
-      </c>
-      <c r="P83" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>0</v>
-      </c>
-      <c r="R83" s="2">
-        <v>0</v>
-      </c>
-      <c r="S83" s="2">
-        <v>0</v>
-      </c>
-      <c r="T83" s="2">
-        <v>0</v>
-      </c>
-      <c r="U83" s="2">
-        <v>0</v>
-      </c>
-      <c r="V83" s="2">
-        <v>0</v>
-      </c>
-      <c r="W83" s="2">
-        <v>0</v>
-      </c>
-      <c r="X83" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="11">
-        <v>1</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" t="s">
-        <v>224</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="K84" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O84" s="7">
         <v>0.99</v>
       </c>
       <c r="P84" s="7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Q84" s="7">
         <v>0</v>
       </c>
-      <c r="R84" s="7">
-        <v>0</v>
+      <c r="R84">
+        <v>1</v>
       </c>
       <c r="S84" s="7">
-        <v>0</v>
-      </c>
-      <c r="T84" s="7">
-        <v>0</v>
-      </c>
-      <c r="U84" s="7">
-        <v>0</v>
-      </c>
-      <c r="V84" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W84" s="7">
         <v>0</v>
@@ -7009,55 +7171,52 @@
       <c r="AA84" s="7">
         <v>0</v>
       </c>
-      <c r="AD84" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="7">
+      <c r="AB84" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B85" s="11">
         <v>1</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O85" s="7">
         <v>0.99</v>
       </c>
       <c r="P85" s="7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Q85" s="7">
         <v>0</v>
       </c>
-      <c r="R85" s="7">
-        <v>0</v>
+      <c r="R85">
+        <v>1</v>
       </c>
       <c r="S85" s="7">
-        <v>0</v>
-      </c>
-      <c r="T85" s="7">
-        <v>0</v>
-      </c>
-      <c r="U85" s="7">
-        <v>0</v>
-      </c>
-      <c r="V85" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85" s="7">
         <v>0</v>
@@ -7074,52 +7233,49 @@
       <c r="AA85" s="7">
         <v>0</v>
       </c>
-      <c r="AD85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B86" s="11">
         <v>1</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O86" s="7">
         <v>0.99</v>
       </c>
       <c r="P86" s="7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Q86" s="7">
         <v>0</v>
       </c>
-      <c r="R86" s="7">
-        <v>0</v>
+      <c r="R86">
+        <v>1</v>
       </c>
       <c r="S86" s="7">
-        <v>0</v>
-      </c>
-      <c r="T86" s="7">
-        <v>0</v>
-      </c>
-      <c r="U86" s="7">
-        <v>0</v>
-      </c>
-      <c r="V86" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W86" s="7">
         <v>0</v>
@@ -7136,55 +7292,52 @@
       <c r="AA86" s="7">
         <v>0</v>
       </c>
-      <c r="AD86" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="7">
+      <c r="AB86" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B87" s="11">
         <v>1</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O87" s="7">
         <v>0.99</v>
       </c>
       <c r="P87" s="7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Q87" s="7">
         <v>0</v>
       </c>
-      <c r="R87" s="7">
-        <v>0</v>
+      <c r="R87">
+        <v>1</v>
       </c>
       <c r="S87" s="7">
-        <v>0</v>
-      </c>
-      <c r="T87" s="7">
-        <v>0</v>
-      </c>
-      <c r="U87" s="7">
-        <v>0</v>
-      </c>
-      <c r="V87" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W87" s="7">
         <v>0</v>
@@ -7201,52 +7354,49 @@
       <c r="AA87" s="7">
         <v>0</v>
       </c>
-      <c r="AD87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB87" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B88" s="11">
         <v>1</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>226</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D88" t="s">
-        <v>228</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="K88" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O88" s="7">
         <v>0.99</v>
       </c>
       <c r="P88" s="7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Q88" s="7">
         <v>0</v>
       </c>
-      <c r="R88" s="7">
-        <v>0</v>
+      <c r="R88">
+        <v>1</v>
       </c>
       <c r="S88" s="7">
-        <v>0</v>
-      </c>
-      <c r="T88" s="7">
-        <v>0</v>
-      </c>
-      <c r="U88" s="7">
-        <v>0</v>
-      </c>
-      <c r="V88" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W88" s="7">
         <v>0</v>
@@ -7263,55 +7413,52 @@
       <c r="AA88" s="7">
         <v>0</v>
       </c>
-      <c r="AD88" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG88" s="7">
+      <c r="AB88" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="7">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B89" s="11">
         <v>1</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O89" s="7">
         <v>0.99</v>
       </c>
       <c r="P89" s="7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Q89" s="7">
         <v>0</v>
       </c>
-      <c r="R89" s="7">
-        <v>0</v>
+      <c r="R89">
+        <v>1</v>
       </c>
       <c r="S89" s="7">
-        <v>0</v>
-      </c>
-      <c r="T89" s="7">
-        <v>0</v>
-      </c>
-      <c r="U89" s="7">
-        <v>0</v>
-      </c>
-      <c r="V89" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W89" s="7">
         <v>0</v>
@@ -7328,57 +7475,75 @@
       <c r="AA89" s="7">
         <v>0</v>
       </c>
-      <c r="AD89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AB89" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B90" s="11">
         <v>1</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" t="s">
+        <v>228</v>
+      </c>
+      <c r="G90" t="s">
+        <v>137</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="O90" s="7">
+        <v>1</v>
+      </c>
+      <c r="P90" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="11">
+        <v>1</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D90" t="s">
-        <v>230</v>
-      </c>
-      <c r="G90" t="s">
-        <v>139</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B91" s="11">
-        <v>1</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I91" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -7386,46 +7551,53 @@
         <v>0.9</v>
       </c>
       <c r="P91" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91" s="4">
         <v>2</v>
       </c>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4">
-        <v>0</v>
-      </c>
-      <c r="S91" s="4">
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4">
         <v>0.5</v>
       </c>
-      <c r="AD91" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE91" s="4">
+      <c r="AF91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B92" s="11">
         <v>1</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I92" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -7433,43 +7605,50 @@
         <v>0.9</v>
       </c>
       <c r="P92" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92" s="4">
         <v>2</v>
       </c>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4">
-        <v>0</v>
-      </c>
-      <c r="S92" s="4">
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4">
         <v>0.5</v>
       </c>
-      <c r="AD92" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE92" s="4">
+      <c r="AF92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B93" s="11">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K93" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -7477,24 +7656,31 @@
         <v>0.9</v>
       </c>
       <c r="P93" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93" s="4">
         <v>2</v>
       </c>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4">
-        <v>0</v>
-      </c>
-      <c r="S93" s="4">
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4">
         <v>0.5</v>
       </c>
-      <c r="AD93" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE93" s="4">
+      <c r="AF93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="4">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:AH93" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:AJ93" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src_files/data_files/unittypedata_maf2020.xlsx
+++ b/src_files/data_files/unittypedata_maf2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ED63F8-C02F-47E5-8069-C7065017D442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD50CD52-3A50-4BAA-BE14-8A8A424C2B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1232,10 +1232,10 @@
   <dimension ref="A1:AJ93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ25" sqref="AJ25"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src_files/data_files/unittypedata_maf2020.xlsx
+++ b/src_files/data_files/unittypedata_maf2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD50CD52-3A50-4BAA-BE14-8A8A424C2B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B654C-8B08-42AC-8356-4EE9813F3A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="unittypedata" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unittypedata!$C$1:$AJ$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unittypedata!$C$1:$AL$93</definedName>
     <definedName name="Bottom">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="fd">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="Labels">OFFSET(Bottom,0,-1)</definedName>
@@ -49,7 +49,7 @@
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="253">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -821,6 +821,12 @@
   </si>
   <si>
     <t>op01</t>
+  </si>
+  <si>
+    <t>rampUpCost</t>
+  </si>
+  <si>
+    <t>vomCosts_input1</t>
   </si>
 </sst>
 </file>
@@ -1229,13 +1235,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ93"/>
+  <dimension ref="A1:AL93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="W21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="AJ46" sqref="AJ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,22 +1257,23 @@
     <col min="13" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" customWidth="1"/>
-    <col min="28" max="32" width="8.42578125" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" customWidth="1"/>
-    <col min="1033" max="1033" width="9.140625" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" customWidth="1"/>
+    <col min="29" max="33" width="8.42578125" customWidth="1"/>
+    <col min="36" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="15.85546875" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" customWidth="1"/>
+    <col min="1035" max="1035" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>134</v>
       </c>
@@ -1325,58 +1332,64 @@
         <v>1</v>
       </c>
       <c r="T1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>234</v>
       </c>
@@ -1410,47 +1423,48 @@
       <c r="S2" s="1">
         <v>1</v>
       </c>
-      <c r="T2" s="1">
-        <v>12</v>
-      </c>
+      <c r="T2" s="1"/>
       <c r="U2" s="1">
         <v>12</v>
       </c>
       <c r="V2" s="1">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1">
         <v>3.89</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>2000</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>3.89</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="AB2" s="1">
         <v>2000</v>
       </c>
-      <c r="Z2" s="1">
-        <v>3.89</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>12</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>24</v>
-      </c>
-      <c r="AD2">
-        <v>0.05</v>
       </c>
       <c r="AE2">
         <v>0.05</v>
       </c>
       <c r="AF2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>234</v>
       </c>
@@ -1487,47 +1501,47 @@
       <c r="S3">
         <v>3.3</v>
       </c>
-      <c r="T3">
-        <v>11</v>
-      </c>
       <c r="U3">
         <v>11</v>
       </c>
       <c r="V3">
+        <v>11</v>
+      </c>
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>69.69</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>5.83</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>93.97</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>2.92</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>49.33</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>12</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>72</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.02</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.05</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ3">
+        <v>93.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>234</v>
       </c>
@@ -1564,47 +1578,47 @@
       <c r="S4">
         <v>3.3</v>
       </c>
-      <c r="T4">
-        <v>9</v>
-      </c>
       <c r="U4">
         <v>9</v>
       </c>
       <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
         <v>5</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>50.12</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5.83</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>81.44</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2.92</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>42.29</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>12</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>72</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.02</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.05</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ4">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>234</v>
       </c>
@@ -1641,47 +1655,47 @@
       <c r="S5" s="2">
         <v>3.3</v>
       </c>
-      <c r="T5" s="2">
-        <v>8</v>
-      </c>
       <c r="U5" s="2">
         <v>8</v>
       </c>
       <c r="V5" s="2">
+        <v>8</v>
+      </c>
+      <c r="W5" s="2">
         <v>5</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>42.29</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <v>57.17</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AA5" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <v>30.54</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AC5" s="2">
         <v>12</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>72</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>0.02</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AF5" s="2">
         <v>0.05</v>
       </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="2">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>234</v>
       </c>
@@ -1715,47 +1729,47 @@
       <c r="S6" s="2">
         <v>6.6</v>
       </c>
-      <c r="T6" s="2">
-        <v>10</v>
-      </c>
       <c r="U6" s="2">
         <v>10</v>
       </c>
       <c r="V6" s="2">
+        <v>10</v>
+      </c>
+      <c r="W6" s="2">
         <v>5</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <v>50.12</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <v>81.44</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AA6" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>42.29</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AC6" s="2">
         <v>12</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>72</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AE6" s="2">
         <v>0.02</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AF6" s="2">
         <v>0.05</v>
       </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="2">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>234</v>
       </c>
@@ -1790,47 +1804,47 @@
       <c r="S7" s="2">
         <v>3.3</v>
       </c>
-      <c r="T7" s="2">
-        <v>11</v>
-      </c>
       <c r="U7" s="2">
         <v>11</v>
       </c>
       <c r="V7" s="2">
+        <v>11</v>
+      </c>
+      <c r="W7" s="2">
         <v>5</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>69.69</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>93.97</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>49.33</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>12</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>72</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>0.02</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>0.05</v>
       </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="2">
+        <v>93.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>234</v>
       </c>
@@ -1865,47 +1879,47 @@
       <c r="S8" s="2">
         <v>3.3</v>
       </c>
-      <c r="T8" s="2">
-        <v>9</v>
-      </c>
       <c r="U8" s="2">
         <v>9</v>
       </c>
       <c r="V8" s="2">
+        <v>9</v>
+      </c>
+      <c r="W8" s="2">
         <v>5</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <v>50.12</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <v>81.44</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AA8" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>42.29</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AC8" s="2">
         <v>12</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>72</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AE8" s="2">
         <v>0.02</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AF8" s="2">
         <v>0.05</v>
       </c>
-      <c r="AF8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="2">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>234</v>
       </c>
@@ -1942,47 +1956,48 @@
       <c r="S9" s="1">
         <v>3.3</v>
       </c>
-      <c r="T9" s="1">
-        <v>8</v>
-      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="1">
         <v>8</v>
       </c>
       <c r="V9" s="1">
+        <v>8</v>
+      </c>
+      <c r="W9" s="1">
         <v>5</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>69.69</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>5.83</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>93.97</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>2.92</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>49.33</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>12</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>72</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.02</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.05</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="1">
+        <v>93.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>234</v>
       </c>
@@ -2019,47 +2034,47 @@
       <c r="S10">
         <v>3.3</v>
       </c>
-      <c r="T10">
-        <v>6</v>
-      </c>
       <c r="U10">
         <v>6</v>
       </c>
       <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
         <v>5</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>50.12</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>5.83</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>81.44</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2.92</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>42.29</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>12</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>72</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.02</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.05</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>234</v>
       </c>
@@ -2096,9 +2111,6 @@
       <c r="S11">
         <v>3.3</v>
       </c>
-      <c r="T11">
-        <v>5</v>
-      </c>
       <c r="U11">
         <v>5</v>
       </c>
@@ -2106,37 +2118,40 @@
         <v>5</v>
       </c>
       <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
         <v>42.29</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5.83</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>57.17</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>2.92</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>30.54</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>12</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>72</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.04</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>0.05</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>234</v>
       </c>
@@ -2179,47 +2194,47 @@
       <c r="S12" s="2">
         <v>6.6</v>
       </c>
-      <c r="T12" s="2">
-        <v>7</v>
-      </c>
       <c r="U12" s="2">
         <v>7</v>
       </c>
       <c r="V12" s="2">
+        <v>7</v>
+      </c>
+      <c r="W12" s="2">
         <v>5</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <v>50.12</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <v>81.44</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <v>42.29</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AC12" s="2">
         <v>12</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AD12" s="2">
         <v>72</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AE12" s="2">
         <v>0.04</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AF12" s="2">
         <v>0.05</v>
       </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="2">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>234</v>
       </c>
@@ -2256,9 +2271,6 @@
       <c r="S13">
         <v>3.3</v>
       </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
       <c r="U13">
         <v>5</v>
       </c>
@@ -2266,37 +2278,40 @@
         <v>5</v>
       </c>
       <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
         <v>42.29</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>5.83</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>57.17</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>2.92</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>30.54</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>12</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>72</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.04</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>0.05</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ13">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>234</v>
       </c>
@@ -2333,47 +2348,48 @@
       <c r="S14" s="3">
         <v>3.3</v>
       </c>
-      <c r="T14" s="3">
-        <v>8</v>
-      </c>
+      <c r="T14" s="3"/>
       <c r="U14" s="3">
         <v>8</v>
       </c>
       <c r="V14" s="3">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>5</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>69.69</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5.83</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>93.97</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2.92</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>49.33</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>12</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>72</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AE14" s="2">
         <v>0.02</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AF14" s="2">
         <v>0.05</v>
       </c>
-      <c r="AF14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="3">
+        <v>93.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>234</v>
       </c>
@@ -2410,47 +2426,47 @@
       <c r="S15" s="2">
         <v>3.3</v>
       </c>
-      <c r="T15" s="2">
-        <v>6</v>
-      </c>
       <c r="U15" s="2">
         <v>6</v>
       </c>
       <c r="V15" s="2">
+        <v>6</v>
+      </c>
+      <c r="W15" s="2">
         <v>5</v>
       </c>
-      <c r="W15" s="2">
+      <c r="X15" s="2">
         <v>50.12</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Z15" s="2">
         <v>81.44</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AA15" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AB15" s="2">
         <v>42.29</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AC15" s="2">
         <v>12</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AD15" s="2">
         <v>72</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AE15" s="2">
         <v>0.02</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AF15" s="2">
         <v>0.05</v>
       </c>
-      <c r="AF15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="2">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>234</v>
       </c>
@@ -2484,47 +2500,47 @@
       <c r="S16" s="2">
         <v>3.3</v>
       </c>
-      <c r="T16" s="2">
-        <v>6</v>
-      </c>
       <c r="U16" s="2">
         <v>6</v>
       </c>
       <c r="V16" s="2">
+        <v>6</v>
+      </c>
+      <c r="W16" s="2">
         <v>5</v>
       </c>
-      <c r="W16" s="2">
+      <c r="X16" s="2">
         <v>50.12</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Z16" s="2">
         <v>81.44</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AB16" s="2">
         <v>42.29</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AC16" s="2">
         <v>12</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AD16" s="2">
         <v>72</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AE16" s="2">
         <v>0.02</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AF16" s="2">
         <v>0.05</v>
       </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="2">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>234</v>
       </c>
@@ -2570,51 +2586,53 @@
       <c r="S17" s="4">
         <v>2</v>
       </c>
-      <c r="T17" s="4">
-        <v>3</v>
-      </c>
+      <c r="T17" s="4"/>
       <c r="U17" s="4">
         <v>3</v>
       </c>
       <c r="V17" s="4">
+        <v>3</v>
+      </c>
+      <c r="W17" s="4">
         <v>1.94</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>70</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>1.94</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Z17" s="4">
         <v>150</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AA17" s="4">
         <v>1.94</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AB17" s="4">
         <v>40</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AC17" s="4">
         <v>12</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AD17" s="4">
         <v>24</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>0.05</v>
       </c>
       <c r="AE17" s="4">
         <v>0.05</v>
       </c>
       <c r="AF17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4">
         <v>0.5</v>
       </c>
-      <c r="AH17" s="4"/>
-    </row>
-    <row r="18" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>234</v>
       </c>
@@ -2654,50 +2672,50 @@
       <c r="S18" s="8">
         <v>2</v>
       </c>
-      <c r="T18" s="8">
-        <v>3</v>
-      </c>
       <c r="U18" s="8">
         <v>3</v>
       </c>
       <c r="V18" s="8">
+        <v>3</v>
+      </c>
+      <c r="W18" s="8">
         <v>1.94</v>
       </c>
-      <c r="W18" s="8">
+      <c r="X18" s="8">
         <v>70</v>
       </c>
-      <c r="X18" s="8">
+      <c r="Y18" s="8">
         <v>1.94</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Z18" s="8">
         <v>150</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="AA18" s="8">
         <v>1.94</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AB18" s="8">
         <v>40</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AC18" s="8">
         <v>12</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AD18" s="8">
         <v>24</v>
-      </c>
-      <c r="AD18" s="8">
-        <v>0.05</v>
       </c>
       <c r="AE18" s="8">
         <v>0.05</v>
       </c>
       <c r="AF18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH18" s="8">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>234</v>
       </c>
@@ -2734,47 +2752,47 @@
       <c r="S19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T19">
-        <v>5</v>
-      </c>
       <c r="U19">
         <v>5</v>
       </c>
       <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
         <v>2.11</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>68.13</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2.69</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>69.69</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>32.89</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>8</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>48</v>
-      </c>
-      <c r="AD19">
-        <v>0.15</v>
       </c>
       <c r="AE19">
         <v>0.15</v>
       </c>
       <c r="AF19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="AJ19">
+        <v>69.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>234</v>
       </c>
@@ -2811,47 +2829,47 @@
       <c r="S20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T20">
-        <v>5</v>
-      </c>
       <c r="U20">
         <v>5</v>
       </c>
       <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
         <v>2.11</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>45.42</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>2.69</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>58.73</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>28.19</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>8</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>48</v>
-      </c>
-      <c r="AD20">
-        <v>0.15</v>
       </c>
       <c r="AE20">
         <v>0.15</v>
       </c>
       <c r="AF20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="AJ20">
+        <v>58.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>234</v>
       </c>
@@ -2885,47 +2903,47 @@
       <c r="S21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T21">
-        <v>5</v>
-      </c>
       <c r="U21">
         <v>5</v>
       </c>
       <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
         <v>2.11</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>45.42</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2.69</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>58.73</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>28.19</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>8</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>48</v>
-      </c>
-      <c r="AD21">
-        <v>0.15</v>
       </c>
       <c r="AE21">
         <v>0.15</v>
       </c>
       <c r="AF21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+      <c r="AJ21">
+        <v>58.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>234</v>
       </c>
@@ -2962,47 +2980,47 @@
       <c r="S22">
         <v>1.6</v>
       </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
       <c r="U22">
         <v>3</v>
       </c>
       <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
         <v>2.11</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>72.83</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>2.69</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>79.09</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>43.85</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>8</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>48</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.02</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.05</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ22">
+        <v>79.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>234</v>
       </c>
@@ -3039,47 +3057,47 @@
       <c r="S23">
         <v>1.6</v>
       </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
       <c r="U23">
         <v>3</v>
       </c>
       <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
         <v>2.11</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>43.07</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2.69</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>61.86</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>27.41</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>8</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>48</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.02</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.05</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ23">
+        <v>61.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>234</v>
       </c>
@@ -3113,47 +3131,47 @@
       <c r="S24">
         <v>1.6</v>
       </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
       <c r="U24">
         <v>3</v>
       </c>
       <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
         <v>2.11</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>43.07</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>2.69</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>61.86</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>27.41</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>8</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>48</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.02</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.05</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ24">
+        <v>61.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>234</v>
       </c>
@@ -3190,47 +3208,47 @@
       <c r="S25">
         <v>1.6</v>
       </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
       <c r="U25">
         <v>2</v>
       </c>
       <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
         <v>2.11</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>25.06</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2.69</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>36.020000000000003</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>21.93</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>8</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>48</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.04</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.05</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ25">
+        <v>36.020000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>234</v>
       </c>
@@ -3267,47 +3285,47 @@
       <c r="S26">
         <v>1.6</v>
       </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
       <c r="U26">
         <v>2</v>
       </c>
       <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
         <v>2.11</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>25.06</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2.69</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>36.020000000000003</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>21.93</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>8</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>48</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.04</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.05</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ26">
+        <v>36.020000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>234</v>
       </c>
@@ -3344,47 +3362,47 @@
       <c r="S27">
         <v>1.6</v>
       </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
       <c r="U27">
         <v>2</v>
       </c>
       <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
         <v>2.11</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>25.06</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2.69</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>36.020000000000003</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>21.93</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>8</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>48</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.04</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.05</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ27">
+        <v>36.020000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>234</v>
       </c>
@@ -3428,47 +3446,47 @@
       <c r="S28">
         <v>3.2</v>
       </c>
-      <c r="T28">
-        <v>4</v>
-      </c>
       <c r="U28">
         <v>4</v>
       </c>
       <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
         <v>2.11</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>43.07</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>2.69</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>61.86</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>27.41</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>8</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>48</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.04</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.05</v>
       </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ28">
+        <v>61.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>234</v>
       </c>
@@ -3505,47 +3523,47 @@
       <c r="S29">
         <v>1.6</v>
       </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
       <c r="U29">
         <v>1</v>
       </c>
       <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
         <v>0.06</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>52.47</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>52.47</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.06</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>30.54</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>2</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3</v>
-      </c>
-      <c r="AD29">
-        <v>0.08</v>
       </c>
       <c r="AE29">
         <v>0.08</v>
       </c>
       <c r="AF29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="AJ29">
+        <v>52.47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>234</v>
       </c>
@@ -3582,47 +3600,47 @@
       <c r="S30">
         <v>1.6</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
       <c r="U30">
         <v>1</v>
       </c>
       <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
         <v>0.06</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>20.36</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>24.28</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.06</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>17.23</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>3</v>
-      </c>
-      <c r="AD30">
-        <v>0.12</v>
       </c>
       <c r="AE30">
         <v>0.12</v>
       </c>
       <c r="AF30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+      <c r="AJ30">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>234</v>
       </c>
@@ -3662,50 +3680,50 @@
       <c r="S31" s="10">
         <v>1.6</v>
       </c>
-      <c r="T31" s="10">
-        <v>2</v>
-      </c>
       <c r="U31" s="10">
         <v>2</v>
       </c>
       <c r="V31" s="10">
+        <v>2</v>
+      </c>
+      <c r="W31" s="10">
         <v>2.11</v>
       </c>
-      <c r="W31" s="10">
+      <c r="X31" s="10">
         <v>25.06</v>
       </c>
-      <c r="X31" s="10">
+      <c r="Y31" s="10">
         <v>2.69</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Z31" s="10">
         <v>36.020000000000003</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="AA31" s="10">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AB31" s="10">
         <v>21.93</v>
       </c>
-      <c r="AB31" s="10">
+      <c r="AC31" s="10">
         <v>8</v>
       </c>
-      <c r="AC31" s="10">
+      <c r="AD31" s="10">
         <v>48</v>
       </c>
-      <c r="AD31" s="10">
+      <c r="AE31" s="10">
         <v>0.04</v>
       </c>
-      <c r="AE31" s="10">
+      <c r="AF31" s="10">
         <v>0.05</v>
       </c>
-      <c r="AF31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="10">
+        <v>36.020000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>234</v>
       </c>
@@ -3745,50 +3763,50 @@
       <c r="S32" s="10">
         <v>1.6</v>
       </c>
-      <c r="T32" s="10">
-        <v>1</v>
-      </c>
       <c r="U32" s="10">
         <v>1</v>
       </c>
       <c r="V32" s="10">
+        <v>1</v>
+      </c>
+      <c r="W32" s="10">
         <v>0.06</v>
       </c>
-      <c r="W32" s="10">
+      <c r="X32" s="10">
         <v>20.36</v>
       </c>
-      <c r="X32" s="10">
+      <c r="Y32" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="Z32" s="10">
         <v>24.28</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="AA32" s="10">
         <v>0.06</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AB32" s="10">
         <v>17.23</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AC32" s="10">
         <v>2</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AD32" s="10">
         <v>3</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>0.12</v>
       </c>
       <c r="AE32" s="10">
         <v>0.12</v>
       </c>
       <c r="AF32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="AH32" s="10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="10">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>234</v>
       </c>
@@ -3825,47 +3843,44 @@
       <c r="S33" s="8">
         <v>2</v>
       </c>
-      <c r="T33" s="8">
-        <v>1</v>
-      </c>
       <c r="U33" s="8">
         <v>1</v>
       </c>
       <c r="V33" s="8">
+        <v>1</v>
+      </c>
+      <c r="W33" s="8">
         <v>1.94</v>
       </c>
-      <c r="W33" s="8">
+      <c r="X33" s="8">
         <v>15</v>
       </c>
-      <c r="X33" s="8">
+      <c r="Y33" s="8">
         <v>1.94</v>
       </c>
-      <c r="Y33" s="8">
+      <c r="Z33" s="8">
         <v>15</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="AA33" s="8">
         <v>1.94</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AB33" s="8">
         <v>15</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AC33" s="8">
         <v>12</v>
       </c>
-      <c r="AC33" s="8">
+      <c r="AD33" s="8">
         <v>24</v>
-      </c>
-      <c r="AD33" s="8">
-        <v>0.05</v>
       </c>
       <c r="AE33" s="8">
         <v>0.05</v>
       </c>
       <c r="AF33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>234</v>
       </c>
@@ -3902,47 +3917,47 @@
       <c r="S34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
       <c r="U34">
         <v>1</v>
       </c>
       <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
         <v>0.06</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>36</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>38.4</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.06</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>24</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>2</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>3</v>
-      </c>
-      <c r="AD34">
-        <v>0.08</v>
       </c>
       <c r="AE34">
         <v>0.08</v>
       </c>
       <c r="AF34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="AJ34">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>234</v>
       </c>
@@ -3979,47 +3994,47 @@
       <c r="S35">
         <v>3.3</v>
       </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
       <c r="U35">
         <v>3</v>
       </c>
       <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
         <v>2.11</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>70</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>2.69</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>93.97</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>49.33</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>8</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>48</v>
-      </c>
-      <c r="AD35">
-        <v>0.08</v>
       </c>
       <c r="AE35">
         <v>0.08</v>
       </c>
       <c r="AF35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="AJ35">
+        <v>93.97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>234</v>
       </c>
@@ -4056,47 +4071,47 @@
       <c r="S36" s="2">
         <v>3.3</v>
       </c>
-      <c r="T36" s="2">
-        <v>3</v>
-      </c>
       <c r="U36" s="2">
         <v>3</v>
       </c>
       <c r="V36" s="2">
+        <v>3</v>
+      </c>
+      <c r="W36" s="2">
         <v>2.11</v>
       </c>
-      <c r="W36" s="2">
+      <c r="X36" s="2">
         <v>50</v>
       </c>
-      <c r="X36" s="2">
+      <c r="Y36" s="2">
         <v>2.69</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Z36" s="2">
         <v>81.44</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AA36" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2">
         <v>42.29</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AC36" s="2">
         <v>8</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AD36" s="2">
         <v>48</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>0.08</v>
       </c>
       <c r="AE36" s="2">
         <v>0.08</v>
       </c>
       <c r="AF36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>234</v>
       </c>
@@ -4133,47 +4148,47 @@
       <c r="S37" s="2">
         <v>3.3</v>
       </c>
-      <c r="T37" s="2">
-        <v>11</v>
-      </c>
       <c r="U37" s="2">
         <v>11</v>
       </c>
       <c r="V37" s="2">
+        <v>11</v>
+      </c>
+      <c r="W37" s="2">
         <v>5</v>
       </c>
-      <c r="W37" s="2">
+      <c r="X37" s="2">
         <v>60</v>
       </c>
-      <c r="X37" s="2">
+      <c r="Y37" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="Z37" s="2">
         <v>88</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="AA37" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AB37" s="2">
         <v>46</v>
       </c>
-      <c r="AB37" s="2">
+      <c r="AC37" s="2">
         <v>12</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AD37" s="2">
         <v>72</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>0.08</v>
       </c>
       <c r="AE37" s="2">
         <v>0.08</v>
       </c>
       <c r="AF37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>234</v>
       </c>
@@ -4210,47 +4225,47 @@
       <c r="S38" s="2">
         <v>3.3</v>
       </c>
-      <c r="T38" s="2">
-        <v>8</v>
-      </c>
       <c r="U38" s="2">
         <v>8</v>
       </c>
       <c r="V38" s="2">
+        <v>8</v>
+      </c>
+      <c r="W38" s="2">
         <v>5</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>5.83</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>57.17</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>2.92</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>31</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>12</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>72</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>0.08</v>
       </c>
       <c r="AE38" s="2">
         <v>0.08</v>
       </c>
       <c r="AF38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>234</v>
       </c>
@@ -4287,47 +4302,47 @@
       <c r="S39">
         <v>3.3</v>
       </c>
-      <c r="T39">
-        <v>8</v>
-      </c>
       <c r="U39">
         <v>8</v>
       </c>
       <c r="V39">
+        <v>8</v>
+      </c>
+      <c r="W39">
         <v>5</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>42</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>5.83</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>57.17</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>2.92</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>31</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>12</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>72</v>
-      </c>
-      <c r="AD39">
-        <v>0.08</v>
       </c>
       <c r="AE39">
         <v>0.08</v>
       </c>
       <c r="AF39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+      <c r="AJ39">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>234</v>
       </c>
@@ -4364,47 +4379,44 @@
       <c r="S40" s="8">
         <v>2</v>
       </c>
-      <c r="T40" s="8">
-        <v>1</v>
-      </c>
       <c r="U40" s="8">
         <v>1</v>
       </c>
       <c r="V40" s="8">
+        <v>1</v>
+      </c>
+      <c r="W40" s="8">
         <v>1.94</v>
       </c>
-      <c r="W40" s="8">
+      <c r="X40" s="8">
         <v>15</v>
       </c>
-      <c r="X40" s="8">
+      <c r="Y40" s="8">
         <v>1.94</v>
       </c>
-      <c r="Y40" s="8">
+      <c r="Z40" s="8">
         <v>15</v>
       </c>
-      <c r="Z40" s="8">
+      <c r="AA40" s="8">
         <v>1.94</v>
       </c>
-      <c r="AA40" s="8">
+      <c r="AB40" s="8">
         <v>15</v>
       </c>
-      <c r="AB40" s="8">
+      <c r="AC40" s="8">
         <v>12</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AD40" s="8">
         <v>24</v>
-      </c>
-      <c r="AD40" s="8">
-        <v>0.05</v>
       </c>
       <c r="AE40" s="8">
         <v>0.05</v>
       </c>
       <c r="AF40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>234</v>
       </c>
@@ -4441,50 +4453,50 @@
       <c r="S41" s="9">
         <v>2</v>
       </c>
-      <c r="T41" s="9">
-        <v>3</v>
-      </c>
       <c r="U41" s="9">
         <v>3</v>
       </c>
       <c r="V41" s="9">
+        <v>3</v>
+      </c>
+      <c r="W41" s="9">
         <v>1.94</v>
       </c>
-      <c r="W41" s="9">
+      <c r="X41" s="9">
         <v>70</v>
       </c>
-      <c r="X41" s="9">
+      <c r="Y41" s="9">
         <v>1.94</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="Z41" s="9">
         <v>150</v>
       </c>
-      <c r="Z41" s="9">
+      <c r="AA41" s="9">
         <v>1.94</v>
       </c>
-      <c r="AA41" s="9">
+      <c r="AB41" s="9">
         <v>40</v>
       </c>
-      <c r="AB41" s="9">
+      <c r="AC41" s="9">
         <v>12</v>
       </c>
-      <c r="AC41" s="9">
+      <c r="AD41" s="9">
         <v>24</v>
-      </c>
-      <c r="AD41" s="9">
-        <v>0.05</v>
       </c>
       <c r="AE41" s="9">
         <v>0.05</v>
       </c>
       <c r="AF41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="AH41" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ41" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>234</v>
       </c>
@@ -4524,50 +4536,50 @@
       <c r="S42" s="8">
         <v>2</v>
       </c>
-      <c r="T42" s="8">
-        <v>3</v>
-      </c>
       <c r="U42" s="8">
         <v>3</v>
       </c>
       <c r="V42" s="8">
+        <v>3</v>
+      </c>
+      <c r="W42" s="8">
         <v>1.94</v>
       </c>
-      <c r="W42" s="8">
+      <c r="X42" s="8">
         <v>70</v>
       </c>
-      <c r="X42" s="8">
+      <c r="Y42" s="8">
         <v>1.94</v>
       </c>
-      <c r="Y42" s="8">
+      <c r="Z42" s="8">
         <v>150</v>
       </c>
-      <c r="Z42" s="8">
+      <c r="AA42" s="8">
         <v>1.94</v>
       </c>
-      <c r="AA42" s="8">
+      <c r="AB42" s="8">
         <v>40</v>
       </c>
-      <c r="AB42" s="8">
+      <c r="AC42" s="8">
         <v>12</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AD42" s="8">
         <v>24</v>
-      </c>
-      <c r="AD42" s="8">
-        <v>0.05</v>
       </c>
       <c r="AE42" s="8">
         <v>0.05</v>
       </c>
       <c r="AF42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH42" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ42" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>234</v>
       </c>
@@ -4604,47 +4616,44 @@
       <c r="S43" s="7">
         <v>2</v>
       </c>
-      <c r="T43" s="7">
-        <v>1</v>
-      </c>
       <c r="U43" s="7">
         <v>1</v>
       </c>
       <c r="V43" s="7">
+        <v>1</v>
+      </c>
+      <c r="W43" s="7">
         <v>1.94</v>
       </c>
-      <c r="W43" s="7">
+      <c r="X43" s="7">
         <v>70</v>
       </c>
-      <c r="X43" s="7">
+      <c r="Y43" s="7">
         <v>1.94</v>
       </c>
-      <c r="Y43" s="7">
+      <c r="Z43" s="7">
         <v>150</v>
       </c>
-      <c r="Z43" s="7">
+      <c r="AA43" s="7">
         <v>1.94</v>
       </c>
-      <c r="AA43" s="7">
+      <c r="AB43" s="7">
         <v>40</v>
       </c>
-      <c r="AB43" s="7">
+      <c r="AC43" s="7">
         <v>12</v>
       </c>
-      <c r="AC43" s="7">
+      <c r="AD43" s="7">
         <v>24</v>
-      </c>
-      <c r="AD43" s="7">
-        <v>0.05</v>
       </c>
       <c r="AE43" s="7">
         <v>0.05</v>
       </c>
       <c r="AF43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>234</v>
       </c>
@@ -4678,47 +4687,44 @@
       <c r="S44" s="8">
         <v>2</v>
       </c>
-      <c r="T44" s="8">
-        <v>1</v>
-      </c>
       <c r="U44" s="8">
         <v>1</v>
       </c>
       <c r="V44" s="8">
+        <v>1</v>
+      </c>
+      <c r="W44" s="8">
         <v>1.94</v>
       </c>
-      <c r="W44" s="8">
+      <c r="X44" s="8">
         <v>70</v>
       </c>
-      <c r="X44" s="8">
+      <c r="Y44" s="8">
         <v>1.94</v>
       </c>
-      <c r="Y44" s="8">
+      <c r="Z44" s="8">
         <v>150</v>
       </c>
-      <c r="Z44" s="8">
+      <c r="AA44" s="8">
         <v>1.94</v>
       </c>
-      <c r="AA44" s="8">
+      <c r="AB44" s="8">
         <v>40</v>
       </c>
-      <c r="AB44" s="8">
+      <c r="AC44" s="8">
         <v>12</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AD44" s="8">
         <v>24</v>
-      </c>
-      <c r="AD44" s="8">
-        <v>0.05</v>
       </c>
       <c r="AE44" s="8">
         <v>0.05</v>
       </c>
       <c r="AF44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>234</v>
       </c>
@@ -4755,50 +4761,50 @@
       <c r="S45" s="8">
         <v>2</v>
       </c>
-      <c r="T45" s="8">
-        <v>3</v>
-      </c>
       <c r="U45" s="8">
         <v>3</v>
       </c>
       <c r="V45" s="8">
+        <v>3</v>
+      </c>
+      <c r="W45" s="8">
         <v>1.94</v>
       </c>
-      <c r="W45" s="8">
+      <c r="X45" s="8">
         <v>70</v>
       </c>
-      <c r="X45" s="8">
+      <c r="Y45" s="8">
         <v>1.94</v>
       </c>
-      <c r="Y45" s="8">
+      <c r="Z45" s="8">
         <v>150</v>
       </c>
-      <c r="Z45" s="8">
+      <c r="AA45" s="8">
         <v>1.94</v>
       </c>
-      <c r="AA45" s="8">
+      <c r="AB45" s="8">
         <v>40</v>
       </c>
-      <c r="AB45" s="8">
+      <c r="AC45" s="8">
         <v>12</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AD45" s="8">
         <v>24</v>
-      </c>
-      <c r="AD45" s="8">
-        <v>0.05</v>
       </c>
       <c r="AE45" s="8">
         <v>0.05</v>
       </c>
       <c r="AF45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH45" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AJ45" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>234</v>
       </c>
@@ -4842,51 +4848,53 @@
       <c r="S46" s="4">
         <v>2</v>
       </c>
-      <c r="T46" s="4">
-        <v>3</v>
-      </c>
+      <c r="T46" s="4"/>
       <c r="U46" s="4">
         <v>3</v>
       </c>
       <c r="V46" s="4">
+        <v>3</v>
+      </c>
+      <c r="W46" s="4">
         <v>1.94</v>
       </c>
-      <c r="W46" s="4">
+      <c r="X46" s="4">
         <v>70</v>
       </c>
-      <c r="X46" s="4">
+      <c r="Y46" s="4">
         <v>1.94</v>
       </c>
-      <c r="Y46" s="4">
+      <c r="Z46" s="4">
         <v>150</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="AA46" s="4">
         <v>1.94</v>
       </c>
-      <c r="AA46" s="4">
+      <c r="AB46" s="4">
         <v>40</v>
       </c>
-      <c r="AB46" s="4">
+      <c r="AC46" s="4">
         <v>12</v>
       </c>
-      <c r="AC46" s="4">
+      <c r="AD46" s="4">
         <v>24</v>
-      </c>
-      <c r="AD46" s="4">
-        <v>0.05</v>
       </c>
       <c r="AE46" s="4">
         <v>0.05</v>
       </c>
       <c r="AF46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4">
         <v>0.5</v>
       </c>
-      <c r="AH46" s="4"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>234</v>
       </c>
@@ -4923,9 +4931,6 @@
       <c r="S47">
         <v>2</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
       <c r="X47">
         <v>0</v>
       </c>
@@ -4944,11 +4949,14 @@
       <c r="AC47">
         <v>0</v>
       </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>234</v>
       </c>
@@ -4985,9 +4993,6 @@
       <c r="S48">
         <v>2</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
       <c r="X48">
         <v>0</v>
       </c>
@@ -5006,11 +5011,14 @@
       <c r="AC48">
         <v>0</v>
       </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>234</v>
       </c>
@@ -5047,9 +5055,6 @@
       <c r="S49">
         <v>0</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
       <c r="X49">
         <v>0</v>
       </c>
@@ -5068,11 +5073,14 @@
       <c r="AC49">
         <v>0</v>
       </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>234</v>
       </c>
@@ -5092,10 +5100,10 @@
         <v>73</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -5104,10 +5112,7 @@
         <v>1</v>
       </c>
       <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -5127,11 +5132,14 @@
       <c r="AC50">
         <v>0</v>
       </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>234</v>
       </c>
@@ -5151,10 +5159,10 @@
         <v>73</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -5163,10 +5171,7 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5186,11 +5191,14 @@
       <c r="AC51">
         <v>0</v>
       </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>234</v>
       </c>
@@ -5224,9 +5232,6 @@
       <c r="S52">
         <v>6</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
       <c r="X52">
         <v>0</v>
       </c>
@@ -5245,11 +5250,14 @@
       <c r="AC52">
         <v>0</v>
       </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>234</v>
       </c>
@@ -5283,9 +5291,6 @@
       <c r="S53">
         <v>13</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
       <c r="X53">
         <v>0</v>
       </c>
@@ -5304,11 +5309,14 @@
       <c r="AC53">
         <v>0</v>
       </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>234</v>
       </c>
@@ -5342,9 +5350,6 @@
       <c r="S54" s="2">
         <v>0</v>
       </c>
-      <c r="W54" s="2">
-        <v>0</v>
-      </c>
       <c r="X54" s="2">
         <v>0</v>
       </c>
@@ -5363,14 +5368,17 @@
       <c r="AC54" s="2">
         <v>0</v>
       </c>
-      <c r="AF54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="2">
+      <c r="AD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>234</v>
       </c>
@@ -5404,9 +5412,6 @@
       <c r="S55" s="4">
         <v>0</v>
       </c>
-      <c r="W55" s="4">
-        <v>0</v>
-      </c>
       <c r="X55" s="4">
         <v>0</v>
       </c>
@@ -5425,14 +5430,17 @@
       <c r="AC55" s="4">
         <v>0</v>
       </c>
-      <c r="AF55" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="4">
+      <c r="AD55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>234</v>
       </c>
@@ -5466,9 +5474,6 @@
       <c r="S56" s="2">
         <v>0</v>
       </c>
-      <c r="W56" s="2">
-        <v>0</v>
-      </c>
       <c r="X56" s="2">
         <v>0</v>
       </c>
@@ -5487,11 +5492,14 @@
       <c r="AC56" s="2">
         <v>0</v>
       </c>
-      <c r="AF56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>234</v>
       </c>
@@ -5525,9 +5533,6 @@
       <c r="S57" s="4">
         <v>0</v>
       </c>
-      <c r="W57" s="4">
-        <v>0</v>
-      </c>
       <c r="X57" s="4">
         <v>0</v>
       </c>
@@ -5546,11 +5551,14 @@
       <c r="AC57" s="4">
         <v>0</v>
       </c>
-      <c r="AF57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>234</v>
       </c>
@@ -5584,9 +5592,6 @@
       <c r="S58">
         <v>0</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
       <c r="X58">
         <v>0</v>
       </c>
@@ -5605,11 +5610,14 @@
       <c r="AC58">
         <v>0</v>
       </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>234</v>
       </c>
@@ -5643,9 +5651,6 @@
       <c r="S59">
         <v>0</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
       <c r="X59">
         <v>0</v>
       </c>
@@ -5664,11 +5669,14 @@
       <c r="AC59">
         <v>0</v>
       </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>234</v>
       </c>
@@ -5702,9 +5710,6 @@
       <c r="S60" s="4">
         <v>0</v>
       </c>
-      <c r="W60" s="4">
-        <v>0</v>
-      </c>
       <c r="X60" s="4">
         <v>0</v>
       </c>
@@ -5723,11 +5728,14 @@
       <c r="AC60" s="4">
         <v>0</v>
       </c>
-      <c r="AF60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>234</v>
       </c>
@@ -5761,9 +5769,6 @@
       <c r="S61" s="4">
         <v>0</v>
       </c>
-      <c r="W61" s="4">
-        <v>0</v>
-      </c>
       <c r="X61" s="4">
         <v>0</v>
       </c>
@@ -5782,11 +5787,14 @@
       <c r="AC61" s="4">
         <v>0</v>
       </c>
-      <c r="AF61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>234</v>
       </c>
@@ -5820,9 +5828,6 @@
       <c r="S62" s="2">
         <v>9</v>
       </c>
-      <c r="W62" s="2">
-        <v>0</v>
-      </c>
       <c r="X62" s="2">
         <v>0</v>
       </c>
@@ -5841,11 +5846,14 @@
       <c r="AC62" s="2">
         <v>0</v>
       </c>
-      <c r="AF62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>234</v>
       </c>
@@ -5879,9 +5887,6 @@
       <c r="S63" s="4">
         <v>9</v>
       </c>
-      <c r="W63" s="4">
-        <v>0</v>
-      </c>
       <c r="X63" s="4">
         <v>0</v>
       </c>
@@ -5900,11 +5905,14 @@
       <c r="AC63" s="4">
         <v>0</v>
       </c>
-      <c r="AF63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>234</v>
       </c>
@@ -5938,32 +5946,32 @@
       <c r="S64" s="2">
         <v>5</v>
       </c>
-      <c r="W64" s="2">
+      <c r="X64" s="2">
         <v>15</v>
       </c>
-      <c r="X64" s="2">
-        <v>0</v>
-      </c>
       <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
         <v>30</v>
       </c>
-      <c r="Z64" s="2">
-        <v>0</v>
-      </c>
       <c r="AA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
         <v>15</v>
-      </c>
-      <c r="AB64" s="2">
-        <v>12</v>
       </c>
       <c r="AC64" s="2">
         <v>12</v>
       </c>
-      <c r="AF64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD64" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ64" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>234</v>
       </c>
@@ -6000,35 +6008,35 @@
       <c r="S65" s="2">
         <v>5000</v>
       </c>
-      <c r="W65" s="2">
+      <c r="X65" s="2">
         <v>15</v>
       </c>
-      <c r="X65" s="2">
-        <v>0</v>
-      </c>
       <c r="Y65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2">
         <v>30</v>
       </c>
-      <c r="Z65" s="2">
-        <v>0</v>
-      </c>
       <c r="AA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
         <v>15</v>
-      </c>
-      <c r="AB65" s="2">
-        <v>12</v>
       </c>
       <c r="AC65" s="2">
         <v>12</v>
       </c>
-      <c r="AF65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="2">
+      <c r="AD65" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ65" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK65" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>234</v>
       </c>
@@ -6062,9 +6070,6 @@
       <c r="S66" s="2">
         <v>1</v>
       </c>
-      <c r="W66" s="2">
-        <v>0</v>
-      </c>
       <c r="X66" s="2">
         <v>0</v>
       </c>
@@ -6083,11 +6088,14 @@
       <c r="AC66" s="2">
         <v>0</v>
       </c>
-      <c r="AF66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>234</v>
       </c>
@@ -6119,10 +6127,7 @@
         <v>1</v>
       </c>
       <c r="S67" s="4">
-        <v>1.7500000000000002E-5</v>
-      </c>
-      <c r="W67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67" s="4">
         <v>0</v>
@@ -6142,12 +6147,15 @@
       <c r="AC67" s="4">
         <v>0</v>
       </c>
-      <c r="AF67" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="5"/>
-    </row>
-    <row r="68" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="5"/>
+    </row>
+    <row r="68" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>234</v>
       </c>
@@ -6181,9 +6189,6 @@
       <c r="S68" s="4">
         <v>0</v>
       </c>
-      <c r="W68" s="4">
-        <v>0</v>
-      </c>
       <c r="X68" s="4">
         <v>0</v>
       </c>
@@ -6202,14 +6207,17 @@
       <c r="AC68" s="4">
         <v>0</v>
       </c>
-      <c r="AF68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="5">
+      <c r="AD68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="5">
         <v>924</v>
       </c>
     </row>
-    <row r="69" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>234</v>
       </c>
@@ -6243,9 +6251,6 @@
       <c r="S69" s="4">
         <v>0</v>
       </c>
-      <c r="W69" s="4">
-        <v>0</v>
-      </c>
       <c r="X69" s="4">
         <v>0</v>
       </c>
@@ -6264,12 +6269,15 @@
       <c r="AC69" s="4">
         <v>0</v>
       </c>
-      <c r="AF69" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="5"/>
-    </row>
-    <row r="70" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="5"/>
+    </row>
+    <row r="70" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>234</v>
       </c>
@@ -6303,9 +6311,6 @@
       <c r="S70" s="4">
         <v>0</v>
       </c>
-      <c r="W70" s="4">
-        <v>0</v>
-      </c>
       <c r="X70" s="4">
         <v>0</v>
       </c>
@@ -6324,14 +6329,17 @@
       <c r="AC70" s="4">
         <v>0</v>
       </c>
-      <c r="AF70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="5">
+      <c r="AD70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>234</v>
       </c>
@@ -6344,14 +6352,14 @@
       <c r="D71" t="s">
         <v>209</v>
       </c>
-      <c r="F71" t="b">
+      <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
         <v>73</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -6368,9 +6376,6 @@
       <c r="S71">
         <v>500</v>
       </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
       <c r="X71">
         <v>0</v>
       </c>
@@ -6389,11 +6394,14 @@
       <c r="AC71">
         <v>0</v>
       </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>234</v>
       </c>
@@ -6406,14 +6414,14 @@
       <c r="D72" t="s">
         <v>210</v>
       </c>
-      <c r="F72" t="b">
+      <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
         <v>73</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -6430,9 +6438,6 @@
       <c r="S72">
         <v>1000</v>
       </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
       <c r="X72">
         <v>0</v>
       </c>
@@ -6451,11 +6456,14 @@
       <c r="AC72">
         <v>0</v>
       </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>234</v>
       </c>
@@ -6468,14 +6476,14 @@
       <c r="D73" t="s">
         <v>211</v>
       </c>
-      <c r="F73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" s="2" t="s">
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
         <v>73</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="O73" s="2">
         <v>1</v>
@@ -6492,9 +6500,6 @@
       <c r="S73" s="2">
         <v>2000</v>
       </c>
-      <c r="W73" s="2">
-        <v>0</v>
-      </c>
       <c r="X73" s="2">
         <v>0</v>
       </c>
@@ -6513,11 +6518,14 @@
       <c r="AC73" s="2">
         <v>0</v>
       </c>
-      <c r="AF73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>234</v>
       </c>
@@ -6530,15 +6538,15 @@
       <c r="D74" t="s">
         <v>212</v>
       </c>
-      <c r="E74" t="b">
+      <c r="F74" t="b">
         <v>1</v>
       </c>
       <c r="J74" t="s">
+        <v>73</v>
+      </c>
+      <c r="K74" t="s">
         <v>18</v>
       </c>
-      <c r="K74" t="s">
-        <v>73</v>
-      </c>
       <c r="O74">
         <v>1</v>
       </c>
@@ -6551,12 +6559,9 @@
       <c r="R74">
         <v>1</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>20</v>
       </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
       <c r="X74">
         <v>0</v>
       </c>
@@ -6575,11 +6580,14 @@
       <c r="AC74">
         <v>0</v>
       </c>
-      <c r="AF74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>234</v>
       </c>
@@ -6592,15 +6600,15 @@
       <c r="D75" t="s">
         <v>213</v>
       </c>
-      <c r="E75" t="b">
+      <c r="F75" t="b">
         <v>1</v>
       </c>
       <c r="J75" t="s">
+        <v>73</v>
+      </c>
+      <c r="K75" t="s">
         <v>18</v>
       </c>
-      <c r="K75" t="s">
-        <v>73</v>
-      </c>
       <c r="O75">
         <v>1</v>
       </c>
@@ -6613,12 +6621,9 @@
       <c r="R75">
         <v>1</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>10</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
       <c r="X75">
         <v>0</v>
       </c>
@@ -6637,11 +6642,14 @@
       <c r="AC75">
         <v>0</v>
       </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>234</v>
       </c>
@@ -6675,9 +6683,6 @@
       <c r="S76" s="2">
         <v>0</v>
       </c>
-      <c r="W76" s="2">
-        <v>0</v>
-      </c>
       <c r="X76" s="2">
         <v>0</v>
       </c>
@@ -6696,14 +6701,17 @@
       <c r="AC76" s="2">
         <v>0</v>
       </c>
-      <c r="AF76" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="2">
+      <c r="AD76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>234</v>
       </c>
@@ -6737,9 +6745,6 @@
       <c r="S77" s="2">
         <v>30</v>
       </c>
-      <c r="W77" s="2">
-        <v>0</v>
-      </c>
       <c r="X77" s="2">
         <v>0</v>
       </c>
@@ -6758,14 +6763,17 @@
       <c r="AC77" s="2">
         <v>0</v>
       </c>
-      <c r="AF77" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI77" s="2">
+      <c r="AD77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>234</v>
       </c>
@@ -6799,9 +6807,6 @@
       <c r="S78" s="2">
         <v>0</v>
       </c>
-      <c r="W78" s="2">
-        <v>0</v>
-      </c>
       <c r="X78" s="2">
         <v>0</v>
       </c>
@@ -6820,11 +6825,14 @@
       <c r="AC78" s="2">
         <v>0</v>
       </c>
-      <c r="AF78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>234</v>
       </c>
@@ -6858,9 +6866,6 @@
       <c r="S79">
         <v>1</v>
       </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
       <c r="X79">
         <v>0</v>
       </c>
@@ -6879,11 +6884,14 @@
       <c r="AC79">
         <v>0</v>
       </c>
-      <c r="AF79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>234</v>
       </c>
@@ -6917,9 +6925,6 @@
       <c r="S80">
         <v>10</v>
       </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
       <c r="X80">
         <v>0</v>
       </c>
@@ -6938,11 +6943,14 @@
       <c r="AC80">
         <v>0</v>
       </c>
-      <c r="AF80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>234</v>
       </c>
@@ -6976,9 +6984,6 @@
       <c r="S81">
         <v>20</v>
       </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
       <c r="X81">
         <v>0</v>
       </c>
@@ -6997,11 +7002,14 @@
       <c r="AC81">
         <v>0</v>
       </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>234</v>
       </c>
@@ -7035,9 +7043,6 @@
       <c r="S82" s="2">
         <v>0</v>
       </c>
-      <c r="W82" s="2">
-        <v>0</v>
-      </c>
       <c r="X82" s="2">
         <v>0</v>
       </c>
@@ -7056,11 +7061,14 @@
       <c r="AC82" s="2">
         <v>0</v>
       </c>
-      <c r="AF82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>234</v>
       </c>
@@ -7094,9 +7102,6 @@
       <c r="S83" s="2">
         <v>0</v>
       </c>
-      <c r="W83" s="2">
-        <v>0</v>
-      </c>
       <c r="X83" s="2">
         <v>0</v>
       </c>
@@ -7115,14 +7120,17 @@
       <c r="AC83" s="2">
         <v>0</v>
       </c>
-      <c r="AF83" s="2">
+      <c r="AD83" s="2">
         <v>0</v>
       </c>
       <c r="AJ83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>234</v>
       </c>
@@ -7156,9 +7164,6 @@
       <c r="S84" s="7">
         <v>1</v>
       </c>
-      <c r="W84" s="7">
-        <v>0</v>
-      </c>
       <c r="X84" s="7">
         <v>0</v>
       </c>
@@ -7177,14 +7182,17 @@
       <c r="AC84" s="7">
         <v>0</v>
       </c>
-      <c r="AF84" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="7">
+      <c r="AD84" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>234</v>
       </c>
@@ -7218,9 +7226,6 @@
       <c r="S85" s="7">
         <v>1</v>
       </c>
-      <c r="W85" s="7">
-        <v>0</v>
-      </c>
       <c r="X85" s="7">
         <v>0</v>
       </c>
@@ -7239,11 +7244,14 @@
       <c r="AC85" s="7">
         <v>0</v>
       </c>
-      <c r="AF85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>234</v>
       </c>
@@ -7277,9 +7285,6 @@
       <c r="S86" s="7">
         <v>1</v>
       </c>
-      <c r="W86" s="7">
-        <v>0</v>
-      </c>
       <c r="X86" s="7">
         <v>0</v>
       </c>
@@ -7298,14 +7303,17 @@
       <c r="AC86" s="7">
         <v>0</v>
       </c>
-      <c r="AF86" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI86" s="7">
+      <c r="AD86" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>234</v>
       </c>
@@ -7339,9 +7347,6 @@
       <c r="S87" s="7">
         <v>1</v>
       </c>
-      <c r="W87" s="7">
-        <v>0</v>
-      </c>
       <c r="X87" s="7">
         <v>0</v>
       </c>
@@ -7360,11 +7365,14 @@
       <c r="AC87" s="7">
         <v>0</v>
       </c>
-      <c r="AF87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD87" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>234</v>
       </c>
@@ -7398,9 +7406,6 @@
       <c r="S88" s="7">
         <v>1</v>
       </c>
-      <c r="W88" s="7">
-        <v>0</v>
-      </c>
       <c r="X88" s="7">
         <v>0</v>
       </c>
@@ -7419,14 +7424,17 @@
       <c r="AC88" s="7">
         <v>0</v>
       </c>
-      <c r="AF88" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI88" s="7">
+      <c r="AD88" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="7">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>234</v>
       </c>
@@ -7460,9 +7468,6 @@
       <c r="S89" s="7">
         <v>1</v>
       </c>
-      <c r="W89" s="7">
-        <v>0</v>
-      </c>
       <c r="X89" s="7">
         <v>0</v>
       </c>
@@ -7481,11 +7486,14 @@
       <c r="AC89" s="7">
         <v>0</v>
       </c>
-      <c r="AF89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AD89" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>234</v>
       </c>
@@ -7520,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>234</v>
       </c>
@@ -7564,17 +7572,15 @@
       </c>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AF91" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG91" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="AG91" s="4"/>
+      <c r="AH91" s="4"/>
+      <c r="AJ91" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>234</v>
       </c>
@@ -7618,17 +7624,15 @@
       </c>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AF92" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG92" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="AG92" s="4"/>
+      <c r="AH92" s="4"/>
+      <c r="AJ92" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>234</v>
       </c>
@@ -7669,18 +7673,16 @@
       </c>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AF93" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG93" s="4">
-        <v>0.5</v>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="AG93" s="4"/>
+      <c r="AH93" s="4"/>
+      <c r="AJ93" s="7">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:AJ93" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:AL93" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src_files/data_files/unittypedata_maf2020.xlsx
+++ b/src_files/data_files/unittypedata_maf2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\NEBB-alt\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6EA627-E830-4095-86EF-6369DE239074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EE439F-6967-4F92-9563-DAFA8192602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unittypedata" sheetId="1" r:id="rId1"/>
@@ -1214,10 +1214,10 @@
   <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Y53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG73" sqref="AG73"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,8 +4151,8 @@
       <c r="I37" t="s">
         <v>234</v>
       </c>
-      <c r="J37" t="s">
-        <v>19</v>
+      <c r="J37" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K37" t="s">
         <v>71</v>
@@ -4332,7 +4332,7 @@
         <v>234</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
@@ -4512,7 +4512,7 @@
         <v>234</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
@@ -5234,76 +5234,93 @@
       <c r="B50" s="11">
         <v>1</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>104</v>
+      <c r="C50" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="P50" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" t="s">
+        <v>234</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0.4</v>
       </c>
       <c r="R50">
         <v>1</v>
       </c>
-      <c r="S50" s="7">
-        <v>1</v>
-      </c>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
+      <c r="S50" s="4">
+        <v>2</v>
+      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4">
+        <v>3</v>
+      </c>
+      <c r="V50" s="4">
+        <v>3</v>
+      </c>
+      <c r="W50" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="X50" s="4">
+        <v>70</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>40</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>24</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AF50" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>-0.16666666666666699</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>95</v>
+      </c>
+      <c r="AL50" s="2"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
@@ -5312,78 +5329,90 @@
       <c r="B51" s="11">
         <v>1</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>105</v>
+      <c r="C51" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="P51" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>0.4</v>
       </c>
       <c r="R51">
         <v>1</v>
       </c>
-      <c r="S51" s="7">
-        <v>1</v>
-      </c>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
-      <c r="AJ51" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="7">
-        <v>100</v>
-      </c>
-      <c r="AL51" s="7"/>
+      <c r="S51" s="4">
+        <v>2</v>
+      </c>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4">
+        <v>3</v>
+      </c>
+      <c r="V51" s="4">
+        <v>3</v>
+      </c>
+      <c r="W51" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="X51" s="4">
+        <v>70</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>40</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>24</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AF51" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>-0.16666666666666699</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>85</v>
+      </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
@@ -5392,75 +5421,76 @@
       <c r="B52" s="11">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
-        <v>45</v>
+      <c r="C52" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
-      </c>
-      <c r="I52" t="s">
-        <v>234</v>
-      </c>
-      <c r="J52" t="s">
-        <v>45</v>
-      </c>
-      <c r="K52" t="s">
-        <v>71</v>
-      </c>
-      <c r="O52">
-        <v>0.35</v>
-      </c>
-      <c r="P52">
-        <v>0.35</v>
-      </c>
-      <c r="Q52">
-        <v>0.5</v>
+        <v>215</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
-      <c r="S52">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>0.06</v>
-      </c>
-      <c r="X52">
-        <v>36</v>
-      </c>
-      <c r="Y52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z52">
-        <v>38.4</v>
-      </c>
-      <c r="AA52">
-        <v>0.06</v>
-      </c>
-      <c r="AB52">
-        <v>24</v>
-      </c>
-      <c r="AC52">
-        <v>2</v>
-      </c>
-      <c r="AD52">
-        <v>3</v>
-      </c>
-      <c r="AE52">
-        <v>0.08</v>
-      </c>
-      <c r="AF52">
-        <v>0.08</v>
-      </c>
-      <c r="AJ52">
-        <v>38.4</v>
-      </c>
+      <c r="S52" s="7">
+        <v>1</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
     </row>
     <row r="53" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
@@ -5469,72 +5499,78 @@
       <c r="B53" s="11">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>31</v>
+      <c r="C53" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" t="s">
-        <v>71</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0.5</v>
+        <v>214</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0</v>
       </c>
       <c r="R53">
         <v>1</v>
       </c>
-      <c r="S53" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="U53" s="2">
-        <v>10</v>
-      </c>
-      <c r="V53" s="2">
-        <v>10</v>
-      </c>
-      <c r="W53" s="2">
-        <v>5</v>
-      </c>
-      <c r="X53" s="2">
-        <v>50.12</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>5.83</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>81.44</v>
-      </c>
-      <c r="AA53" s="2">
-        <v>2.92</v>
-      </c>
-      <c r="AB53" s="2">
-        <v>42.29</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>12</v>
-      </c>
-      <c r="AD53" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE53" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="AF53" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="AJ53" s="2">
-        <v>81.44</v>
-      </c>
+      <c r="S53" s="7">
+        <v>1</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="7">
+        <v>100</v>
+      </c>
+      <c r="AL53" s="7"/>
     </row>
     <row r="54" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -5543,88 +5579,88 @@
       <c r="B54" s="11">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>30</v>
+      <c r="C54" t="s">
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
       <c r="I54" t="s">
         <v>234</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>27</v>
+      <c r="J54" t="s">
+        <v>45</v>
       </c>
       <c r="K54" t="s">
         <v>71</v>
       </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="Q54" s="2">
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54">
+        <v>0.35</v>
+      </c>
+      <c r="P54">
+        <v>0.35</v>
+      </c>
+      <c r="Q54">
         <v>0.5</v>
       </c>
       <c r="R54">
         <v>1</v>
       </c>
-      <c r="S54" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2">
-        <v>8</v>
-      </c>
-      <c r="V54" s="2">
-        <v>8</v>
-      </c>
-      <c r="W54" s="2">
-        <v>5</v>
-      </c>
-      <c r="X54" s="2">
-        <v>42.29</v>
-      </c>
-      <c r="Y54" s="2">
-        <v>5.83</v>
-      </c>
-      <c r="Z54" s="2">
-        <v>57.17</v>
-      </c>
-      <c r="AA54" s="2">
-        <v>2.92</v>
-      </c>
-      <c r="AB54" s="2">
-        <v>30.54</v>
-      </c>
-      <c r="AC54" s="2">
-        <v>12</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE54" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="AF54" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2">
-        <v>57.17</v>
-      </c>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
+      <c r="S54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T54"/>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>0.06</v>
+      </c>
+      <c r="X54">
+        <v>36</v>
+      </c>
+      <c r="Y54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z54">
+        <v>38.4</v>
+      </c>
+      <c r="AA54">
+        <v>0.06</v>
+      </c>
+      <c r="AB54">
+        <v>24</v>
+      </c>
+      <c r="AC54">
+        <v>2</v>
+      </c>
+      <c r="AD54">
+        <v>3</v>
+      </c>
+      <c r="AE54">
+        <v>0.08</v>
+      </c>
+      <c r="AF54">
+        <v>0.08</v>
+      </c>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54">
+        <v>38.4</v>
+      </c>
+      <c r="AK54"/>
+      <c r="AL54"/>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
@@ -5633,88 +5669,72 @@
       <c r="B55" s="11">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
-        <v>28</v>
+      <c r="C55" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55" t="s">
-        <v>234</v>
-      </c>
-      <c r="J55" t="s">
+        <v>138</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K55" t="s">
         <v>71</v>
       </c>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55">
-        <v>0.35</v>
-      </c>
-      <c r="P55">
-        <v>0.35</v>
-      </c>
-      <c r="Q55">
+      <c r="O55" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="Q55" s="2">
         <v>0.5</v>
       </c>
       <c r="R55">
         <v>1</v>
       </c>
-      <c r="S55">
-        <v>3.3</v>
-      </c>
-      <c r="T55"/>
-      <c r="U55">
-        <v>11</v>
-      </c>
-      <c r="V55">
-        <v>11</v>
-      </c>
-      <c r="W55">
+      <c r="S55" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="U55" s="2">
+        <v>10</v>
+      </c>
+      <c r="V55" s="2">
+        <v>10</v>
+      </c>
+      <c r="W55" s="2">
         <v>5</v>
       </c>
-      <c r="X55">
-        <v>69.69</v>
-      </c>
-      <c r="Y55">
+      <c r="X55" s="2">
+        <v>50.12</v>
+      </c>
+      <c r="Y55" s="2">
         <v>5.83</v>
       </c>
-      <c r="Z55">
-        <v>93.97</v>
-      </c>
-      <c r="AA55">
+      <c r="Z55" s="2">
+        <v>81.44</v>
+      </c>
+      <c r="AA55" s="2">
         <v>2.92</v>
       </c>
-      <c r="AB55">
-        <v>49.33</v>
-      </c>
-      <c r="AC55">
+      <c r="AB55" s="2">
+        <v>42.29</v>
+      </c>
+      <c r="AC55" s="2">
         <v>12</v>
       </c>
-      <c r="AD55">
+      <c r="AD55" s="2">
         <v>72</v>
       </c>
-      <c r="AE55">
+      <c r="AE55" s="2">
         <v>0.02</v>
       </c>
-      <c r="AF55">
+      <c r="AF55" s="2">
         <v>0.05</v>
       </c>
-      <c r="AG55"/>
-      <c r="AH55"/>
-      <c r="AI55"/>
-      <c r="AJ55">
-        <v>93.97</v>
-      </c>
-      <c r="AK55"/>
-      <c r="AL55"/>
+      <c r="AJ55" s="2">
+        <v>81.44</v>
+      </c>
     </row>
     <row r="56" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -5724,18 +5744,20 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="19"/>
+      <c r="I56" t="s">
+        <v>234</v>
+      </c>
       <c r="J56" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="K56" t="s">
         <v>71</v>
@@ -5744,10 +5766,10 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="P56" s="2">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="Q56" s="2">
         <v>0.5</v>
@@ -5760,28 +5782,28 @@
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V56" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W56" s="2">
         <v>5</v>
       </c>
       <c r="X56" s="2">
-        <v>69.69</v>
+        <v>42.29</v>
       </c>
       <c r="Y56" s="2">
         <v>5.83</v>
       </c>
       <c r="Z56" s="2">
-        <v>93.97</v>
+        <v>57.17</v>
       </c>
       <c r="AA56" s="2">
         <v>2.92</v>
       </c>
       <c r="AB56" s="2">
-        <v>49.33</v>
+        <v>30.54</v>
       </c>
       <c r="AC56" s="2">
         <v>12</v>
@@ -5799,7 +5821,7 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2">
-        <v>93.97</v>
+        <v>57.17</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
@@ -5812,10 +5834,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I57" t="s">
         <v>234</v>
@@ -5827,10 +5849,10 @@
         <v>71</v>
       </c>
       <c r="O57">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="P57">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="Q57">
         <v>0.5</v>
@@ -5842,28 +5864,28 @@
         <v>3.3</v>
       </c>
       <c r="U57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W57">
         <v>5</v>
       </c>
       <c r="X57">
-        <v>50.12</v>
+        <v>69.69</v>
       </c>
       <c r="Y57">
         <v>5.83</v>
       </c>
       <c r="Z57">
-        <v>81.44</v>
+        <v>93.97</v>
       </c>
       <c r="AA57">
         <v>2.92</v>
       </c>
       <c r="AB57">
-        <v>42.29</v>
+        <v>49.33</v>
       </c>
       <c r="AC57">
         <v>12</v>
@@ -5878,7 +5900,7 @@
         <v>0.05</v>
       </c>
       <c r="AJ57">
-        <v>81.44</v>
+        <v>93.97</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
@@ -5889,10 +5911,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5909,10 +5931,10 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="P58" s="2">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="Q58" s="2">
         <v>0.5</v>
@@ -5925,28 +5947,28 @@
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V58" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W58" s="2">
         <v>5</v>
       </c>
       <c r="X58" s="2">
-        <v>50.12</v>
+        <v>69.69</v>
       </c>
       <c r="Y58" s="2">
         <v>5.83</v>
       </c>
       <c r="Z58" s="2">
-        <v>81.44</v>
+        <v>93.97</v>
       </c>
       <c r="AA58" s="2">
         <v>2.92</v>
       </c>
       <c r="AB58" s="2">
-        <v>42.29</v>
+        <v>49.33</v>
       </c>
       <c r="AC58" s="2">
         <v>12</v>
@@ -5964,7 +5986,7 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2">
-        <v>81.44</v>
+        <v>93.97</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
@@ -5976,58 +5998,88 @@
       <c r="B59" s="11">
         <v>1</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>113</v>
+      <c r="C59" t="s">
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O59" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="P59" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" t="s">
+        <v>234</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59">
+        <v>0.4</v>
+      </c>
+      <c r="P59">
+        <v>0.4</v>
+      </c>
+      <c r="Q59">
+        <v>0.5</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
-      <c r="S59" s="4">
-        <v>1</v>
-      </c>
-      <c r="X59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="5"/>
+      <c r="S59">
+        <v>3.3</v>
+      </c>
+      <c r="T59"/>
+      <c r="U59">
+        <v>9</v>
+      </c>
+      <c r="V59">
+        <v>9</v>
+      </c>
+      <c r="W59">
+        <v>5</v>
+      </c>
+      <c r="X59">
+        <v>50.12</v>
+      </c>
+      <c r="Y59">
+        <v>5.83</v>
+      </c>
+      <c r="Z59">
+        <v>81.44</v>
+      </c>
+      <c r="AA59">
+        <v>2.92</v>
+      </c>
+      <c r="AB59">
+        <v>42.29</v>
+      </c>
+      <c r="AC59">
+        <v>12</v>
+      </c>
+      <c r="AD59">
+        <v>72</v>
+      </c>
+      <c r="AE59">
+        <v>0.02</v>
+      </c>
+      <c r="AF59">
+        <v>0.05</v>
+      </c>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59">
+        <v>81.44</v>
+      </c>
+      <c r="AK59"/>
+      <c r="AL59"/>
     </row>
     <row r="60" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -6036,60 +6088,86 @@
       <c r="B60" s="11">
         <v>1</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>114</v>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O60" s="4">
-        <v>1</v>
-      </c>
-      <c r="P60" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="4">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" t="s">
+        <v>71</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.5</v>
       </c>
       <c r="R60">
         <v>1</v>
       </c>
-      <c r="S60" s="4">
-        <v>0</v>
-      </c>
-      <c r="X60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="5">
-        <v>924</v>
-      </c>
+      <c r="S60" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2">
+        <v>9</v>
+      </c>
+      <c r="V60" s="2">
+        <v>9</v>
+      </c>
+      <c r="W60" s="2">
+        <v>5</v>
+      </c>
+      <c r="X60" s="2">
+        <v>50.12</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>81.44</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>42.29</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2">
+        <v>81.44</v>
+      </c>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
     </row>
     <row r="61" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -6098,60 +6176,76 @@
       <c r="B61" s="11">
         <v>1</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>89</v>
+      <c r="C61" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O61" s="2">
-        <v>1</v>
-      </c>
-      <c r="P61" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="2">
+        <v>195</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="Q61" s="4">
         <v>0</v>
       </c>
       <c r="R61">
         <v>1</v>
       </c>
-      <c r="S61" s="2">
-        <v>0</v>
-      </c>
-      <c r="X61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="2">
-        <v>4</v>
-      </c>
+      <c r="S61" s="4">
+        <v>1</v>
+      </c>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="4"/>
     </row>
     <row r="62" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
@@ -6160,78 +6254,60 @@
       <c r="B62" s="11">
         <v>1</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>91</v>
+      <c r="C62" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2">
-        <v>1</v>
-      </c>
-      <c r="P62" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="2">
+        <v>196</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O62" s="4">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="4">
         <v>0</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
-      <c r="S62" s="2">
-        <v>30</v>
-      </c>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="2"/>
-      <c r="AF62" s="2"/>
-      <c r="AG62" s="2"/>
-      <c r="AH62" s="2"/>
-      <c r="AI62" s="2"/>
-      <c r="AJ62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK62" s="2">
-        <v>4</v>
-      </c>
-      <c r="AL62" s="2"/>
+      <c r="S62" s="4">
+        <v>0</v>
+      </c>
+      <c r="X62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="5">
+        <v>924</v>
+      </c>
     </row>
     <row r="63" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
@@ -6240,86 +6316,60 @@
       <c r="B63" s="11">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
-        <v>17</v>
+      <c r="C63" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" t="s">
+        <v>204</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="Q63">
-        <v>0.95</v>
+      <c r="O63" s="2">
+        <v>1</v>
+      </c>
+      <c r="P63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
       </c>
       <c r="R63">
         <v>1</v>
       </c>
-      <c r="S63" s="1">
-        <v>1</v>
-      </c>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1">
-        <v>12</v>
-      </c>
-      <c r="V63" s="1">
-        <v>12</v>
-      </c>
-      <c r="W63" s="1">
-        <v>3.89</v>
-      </c>
-      <c r="X63" s="1">
-        <v>2000</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>3.89</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>3.89</v>
-      </c>
-      <c r="AB63" s="1">
-        <v>2000</v>
-      </c>
-      <c r="AC63" s="1">
-        <v>12</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>24</v>
-      </c>
-      <c r="AE63">
-        <v>0.05</v>
-      </c>
-      <c r="AF63">
-        <v>0.05</v>
-      </c>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63" s="1">
-        <v>100</v>
-      </c>
-      <c r="AK63"/>
-      <c r="AL63"/>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
@@ -6328,78 +6378,60 @@
       <c r="B64" s="11">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
-        <v>64</v>
+      <c r="C64" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64" t="s">
-        <v>124</v>
-      </c>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64">
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2">
         <v>0</v>
       </c>
       <c r="R64">
         <v>1</v>
       </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64"/>
-      <c r="AF64"/>
-      <c r="AG64"/>
-      <c r="AH64"/>
-      <c r="AI64"/>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
-      <c r="AK64"/>
-      <c r="AL64"/>
+      <c r="S64" s="2">
+        <v>30</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -6408,86 +6440,86 @@
       <c r="B65" s="11">
         <v>1</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>54</v>
+      <c r="C65" t="s">
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" t="s">
-        <v>234</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>46</v>
+        <v>139</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65" t="s">
+        <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>223</v>
-      </c>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="P65" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q65" s="8">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="Q65">
+        <v>0.95</v>
       </c>
       <c r="R65">
         <v>1</v>
       </c>
-      <c r="S65" s="8">
-        <v>2</v>
-      </c>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8">
-        <v>1</v>
-      </c>
-      <c r="V65" s="8">
-        <v>1</v>
-      </c>
-      <c r="W65" s="8">
-        <v>1.94</v>
-      </c>
-      <c r="X65" s="8">
-        <v>15</v>
-      </c>
-      <c r="Y65" s="8">
-        <v>1.94</v>
-      </c>
-      <c r="Z65" s="8">
-        <v>15</v>
-      </c>
-      <c r="AA65" s="8">
-        <v>1.94</v>
-      </c>
-      <c r="AB65" s="8">
-        <v>15</v>
-      </c>
-      <c r="AC65" s="8">
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1">
         <v>12</v>
       </c>
-      <c r="AD65" s="8">
+      <c r="V65" s="1">
+        <v>12</v>
+      </c>
+      <c r="W65" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="X65" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD65" s="1">
         <v>24</v>
       </c>
-      <c r="AE65" s="8">
+      <c r="AE65">
         <v>0.05</v>
       </c>
-      <c r="AF65" s="8">
+      <c r="AF65">
         <v>0.05</v>
       </c>
-      <c r="AG65" s="8"/>
-      <c r="AH65" s="8"/>
-      <c r="AI65" s="8"/>
-      <c r="AJ65" s="8"/>
-      <c r="AK65" s="8"/>
-      <c r="AL65" s="8"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65" s="1">
+        <v>105</v>
+      </c>
+      <c r="AK65"/>
+      <c r="AL65"/>
     </row>
     <row r="66" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
@@ -6496,88 +6528,78 @@
       <c r="B66" s="11">
         <v>1</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>51</v>
+      <c r="C66" t="s">
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" t="s">
-        <v>234</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>49</v>
+        <v>177</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="K66" t="s">
         <v>71</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="P66" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>0.5</v>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
       </c>
       <c r="R66">
         <v>1</v>
       </c>
-      <c r="S66" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2">
-        <v>8</v>
-      </c>
-      <c r="V66" s="2">
-        <v>8</v>
-      </c>
-      <c r="W66" s="2">
-        <v>5</v>
-      </c>
-      <c r="X66" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>5.83</v>
-      </c>
-      <c r="Z66" s="2">
-        <v>57.17</v>
-      </c>
-      <c r="AA66" s="2">
-        <v>2.92</v>
-      </c>
-      <c r="AB66" s="2">
-        <v>31</v>
-      </c>
-      <c r="AC66" s="2">
-        <v>12</v>
-      </c>
-      <c r="AD66" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE66" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="AF66" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2">
-        <v>57.17</v>
-      </c>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66"/>
+      <c r="AL66"/>
     </row>
     <row r="67" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
@@ -6586,88 +6608,86 @@
       <c r="B67" s="11">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
-        <v>52</v>
+      <c r="C67" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
+        <v>171</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
       <c r="I67" t="s">
         <v>234</v>
       </c>
-      <c r="J67" t="s">
-        <v>49</v>
+      <c r="J67" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="K67" t="s">
-        <v>71</v>
-      </c>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67">
-        <v>0.39</v>
-      </c>
-      <c r="P67">
-        <v>0.39</v>
-      </c>
-      <c r="Q67">
-        <v>0.5</v>
+        <v>223</v>
+      </c>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P67" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>0</v>
       </c>
       <c r="R67">
         <v>1</v>
       </c>
-      <c r="S67">
-        <v>3.3</v>
-      </c>
-      <c r="T67"/>
-      <c r="U67">
-        <v>8</v>
-      </c>
-      <c r="V67">
-        <v>8</v>
-      </c>
-      <c r="W67">
-        <v>5</v>
-      </c>
-      <c r="X67">
-        <v>42</v>
-      </c>
-      <c r="Y67">
-        <v>5.83</v>
-      </c>
-      <c r="Z67">
-        <v>57.17</v>
-      </c>
-      <c r="AA67">
-        <v>2.92</v>
-      </c>
-      <c r="AB67">
-        <v>31</v>
-      </c>
-      <c r="AC67">
+      <c r="S67" s="8">
+        <v>2</v>
+      </c>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8">
+        <v>1</v>
+      </c>
+      <c r="V67" s="8">
+        <v>1</v>
+      </c>
+      <c r="W67" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="X67" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y67" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="Z67" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA67" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="AB67" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC67" s="8">
         <v>12</v>
       </c>
-      <c r="AD67">
-        <v>72</v>
-      </c>
-      <c r="AE67">
-        <v>0.08</v>
-      </c>
-      <c r="AF67">
-        <v>0.08</v>
-      </c>
-      <c r="AG67"/>
-      <c r="AH67"/>
-      <c r="AI67"/>
-      <c r="AJ67">
-        <v>57.17</v>
-      </c>
-      <c r="AK67"/>
-      <c r="AL67"/>
+      <c r="AD67" s="8">
+        <v>24</v>
+      </c>
+      <c r="AE67" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF67" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
     </row>
     <row r="68" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -6677,10 +6697,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6699,10 +6719,10 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="P68" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="Q68" s="2">
         <v>0.5</v>
@@ -6715,28 +6735,28 @@
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V68" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W68" s="2">
         <v>5</v>
       </c>
       <c r="X68" s="2">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Y68" s="2">
         <v>5.83</v>
       </c>
       <c r="Z68" s="2">
-        <v>88</v>
+        <v>57.17</v>
       </c>
       <c r="AA68" s="2">
         <v>2.92</v>
       </c>
       <c r="AB68" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AC68" s="2">
         <v>12</v>
@@ -6754,7 +6774,7 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2">
-        <v>88</v>
+        <v>57.17</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
@@ -6767,20 +6787,20 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="G69" t="s">
-        <v>123</v>
-      </c>
+      <c r="G69"/>
       <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69" s="8" t="s">
-        <v>18</v>
+      <c r="I69" t="s">
+        <v>234</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K69" t="s">
         <v>71</v>
@@ -6789,55 +6809,65 @@
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
         <v>1</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
+      <c r="U69">
+        <v>8</v>
+      </c>
+      <c r="V69">
+        <v>8</v>
+      </c>
+      <c r="W69">
+        <v>5</v>
+      </c>
       <c r="X69">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>5.83</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>57.17</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69"/>
-      <c r="AF69"/>
+        <v>72</v>
+      </c>
+      <c r="AE69">
+        <v>0.08</v>
+      </c>
+      <c r="AF69">
+        <v>0.08</v>
+      </c>
       <c r="AG69"/>
       <c r="AH69"/>
       <c r="AI69"/>
       <c r="AJ69">
-        <v>0</v>
+        <v>57.17</v>
       </c>
       <c r="AK69"/>
-      <c r="AL69" s="2"/>
+      <c r="AL69"/>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
@@ -6846,92 +6876,87 @@
       <c r="B70" s="11">
         <v>1</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>241</v>
+      <c r="C70" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>243</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" t="s">
         <v>234</v>
       </c>
-      <c r="J70" s="6" t="s">
-        <v>19</v>
+      <c r="J70" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K70" t="s">
         <v>71</v>
       </c>
-      <c r="L70" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="P70" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="Q70" s="4">
-        <v>0.4</v>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0.5</v>
       </c>
       <c r="R70">
         <v>1</v>
       </c>
-      <c r="S70" s="4">
-        <v>2</v>
-      </c>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4">
-        <v>3</v>
-      </c>
-      <c r="V70" s="4">
-        <v>3</v>
-      </c>
-      <c r="W70" s="4">
-        <v>1.94</v>
-      </c>
-      <c r="X70" s="4">
-        <v>70</v>
-      </c>
-      <c r="Y70" s="4">
-        <v>1.94</v>
-      </c>
-      <c r="Z70" s="4">
-        <v>150</v>
-      </c>
-      <c r="AA70" s="4">
-        <v>1.94</v>
-      </c>
-      <c r="AB70" s="4">
-        <v>40</v>
-      </c>
-      <c r="AC70" s="4">
+      <c r="S70" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2">
+        <v>11</v>
+      </c>
+      <c r="V70" s="2">
+        <v>11</v>
+      </c>
+      <c r="W70" s="2">
+        <v>5</v>
+      </c>
+      <c r="X70" s="2">
+        <v>60</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>88</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC70" s="2">
         <v>12</v>
       </c>
-      <c r="AD70" s="4">
-        <v>24</v>
-      </c>
-      <c r="AE70" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="AF70" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="AG70" s="4"/>
-      <c r="AH70" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AI70" s="4">
-        <v>-0.16666666666666699</v>
-      </c>
-      <c r="AJ70" s="4">
-        <v>150</v>
-      </c>
+      <c r="AD70" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE70" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AF70" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2">
+        <v>88</v>
+      </c>
+      <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" s="4"/>
       <c r="AN70" s="4"/>
@@ -6944,90 +6969,61 @@
       <c r="B71" s="11">
         <v>1</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>242</v>
+      <c r="C71" t="s">
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6" t="s">
-        <v>56</v>
+        <v>176</v>
+      </c>
+      <c r="G71" t="s">
+        <v>123</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="K71" t="s">
         <v>71</v>
       </c>
-      <c r="L71" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="P71" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="Q71" s="4">
-        <v>0.4</v>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
       </c>
       <c r="R71">
         <v>1</v>
       </c>
-      <c r="S71" s="4">
+      <c r="S71">
         <v>2</v>
       </c>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4">
-        <v>3</v>
-      </c>
-      <c r="V71" s="4">
-        <v>3</v>
-      </c>
-      <c r="W71" s="4">
-        <v>1.94</v>
-      </c>
-      <c r="X71" s="4">
-        <v>70</v>
-      </c>
-      <c r="Y71" s="4">
-        <v>1.94</v>
-      </c>
-      <c r="Z71" s="4">
-        <v>150</v>
-      </c>
-      <c r="AA71" s="4">
-        <v>1.94</v>
-      </c>
-      <c r="AB71" s="4">
-        <v>40</v>
-      </c>
-      <c r="AC71" s="4">
-        <v>12</v>
-      </c>
-      <c r="AD71" s="4">
-        <v>24</v>
-      </c>
-      <c r="AE71" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="AF71" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="AG71" s="4"/>
-      <c r="AH71" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AI71" s="4">
-        <v>-0.16666666666666699</v>
-      </c>
-      <c r="AJ71" s="4">
-        <v>90</v>
-      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="2"/>
     </row>
     <row r="72" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">

--- a/src_files/data_files/unittypedata_maf2020.xlsx
+++ b/src_files/data_files/unittypedata_maf2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FAF529-82EE-4310-A6DF-4326D3204489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB18BE-219C-4102-A336-1C202D1802F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unittypedata" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SecondQ">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="ThirdQ">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="251">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -803,6 +803,24 @@
   </si>
   <si>
     <t>industryNonResCHP</t>
+  </si>
+  <si>
+    <t>Industry gas CHP</t>
+  </si>
+  <si>
+    <t>industryGasCHP</t>
+  </si>
+  <si>
+    <t>Oil shale CHP</t>
+  </si>
+  <si>
+    <t>oilshaleCHP</t>
+  </si>
+  <si>
+    <t>Efficiency from https://doi.org/10.3390/en16020603</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -1211,13 +1229,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Y77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ8"/>
+      <selection pane="bottomRight" activeCell="AM93" sqref="AM93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1267,7 @@
     <col min="1035" max="1035" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>130</v>
       </c>
@@ -1364,8 +1382,11 @@
       <c r="AL1" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM1" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>222</v>
       </c>
@@ -1443,7 +1464,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>222</v>
       </c>
@@ -1521,7 +1542,7 @@
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>222</v>
       </c>
@@ -1601,7 +1622,7 @@
       </c>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>222</v>
       </c>
@@ -1681,7 +1702,7 @@
       </c>
       <c r="AL5" s="4"/>
     </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>222</v>
       </c>
@@ -1773,7 +1794,7 @@
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>222</v>
       </c>
@@ -1859,7 +1880,7 @@
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
     </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>222</v>
       </c>
@@ -1953,7 +1974,7 @@
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>222</v>
       </c>
@@ -2015,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>222</v>
       </c>
@@ -2077,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>222</v>
       </c>
@@ -2157,7 +2178,7 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
     </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>222</v>
       </c>
@@ -2237,7 +2258,7 @@
       <c r="AK12"/>
       <c r="AL12"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>222</v>
       </c>
@@ -2299,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>222</v>
       </c>
@@ -2377,7 +2398,7 @@
       <c r="AK14"/>
       <c r="AL14"/>
     </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>222</v>
       </c>
@@ -2455,7 +2476,7 @@
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
     </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>222</v>
       </c>
@@ -7689,7 +7710,7 @@
       <c r="AK80"/>
       <c r="AL80"/>
     </row>
-    <row r="81" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>222</v>
       </c>
@@ -7748,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>222</v>
       </c>
@@ -7810,7 +7831,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>222</v>
       </c>
@@ -7888,7 +7909,7 @@
       <c r="AK83" s="5"/>
       <c r="AL83" s="4"/>
     </row>
-    <row r="84" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>222</v>
       </c>
@@ -7968,7 +7989,7 @@
       </c>
       <c r="AL84" s="4"/>
     </row>
-    <row r="85" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>222</v>
       </c>
@@ -8048,7 +8069,7 @@
       <c r="AK85"/>
       <c r="AL85"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>222</v>
       </c>
@@ -8083,7 +8104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>222</v>
       </c>
@@ -8161,7 +8182,7 @@
       <c r="AK87" s="2"/>
       <c r="AL87" s="2"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>222</v>
       </c>
@@ -8255,7 +8276,7 @@
       <c r="AK88" s="8"/>
       <c r="AL88" s="8"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>222</v>
       </c>
@@ -8342,6 +8363,190 @@
       <c r="AJ89" s="7"/>
       <c r="AK89" s="7"/>
       <c r="AL89" s="7"/>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="11">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" t="s">
+        <v>234</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K90" t="s">
+        <v>71</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90" s="4">
+        <v>2</v>
+      </c>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4">
+        <v>3</v>
+      </c>
+      <c r="V90" s="4">
+        <v>3</v>
+      </c>
+      <c r="W90" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="X90" s="4">
+        <v>70</v>
+      </c>
+      <c r="Y90" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="Z90" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="AB90" s="4">
+        <v>40</v>
+      </c>
+      <c r="AC90" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD90" s="4">
+        <v>24</v>
+      </c>
+      <c r="AE90" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AF90" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="AG90" s="4"/>
+      <c r="AH90" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AI90" s="4">
+        <v>-0.16666666666666699</v>
+      </c>
+      <c r="AJ90" s="4">
+        <v>95</v>
+      </c>
+      <c r="AL90" s="2"/>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" t="s">
+        <v>248</v>
+      </c>
+      <c r="I91" t="s">
+        <v>234</v>
+      </c>
+      <c r="J91" t="s">
+        <v>49</v>
+      </c>
+      <c r="K91" t="s">
+        <v>71</v>
+      </c>
+      <c r="L91" t="s">
+        <v>223</v>
+      </c>
+      <c r="O91">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P91">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q91">
+        <v>0.5</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>3.3</v>
+      </c>
+      <c r="U91">
+        <v>8</v>
+      </c>
+      <c r="V91">
+        <v>8</v>
+      </c>
+      <c r="W91">
+        <v>5</v>
+      </c>
+      <c r="X91">
+        <v>42</v>
+      </c>
+      <c r="Y91">
+        <v>5.83</v>
+      </c>
+      <c r="Z91">
+        <v>57.17</v>
+      </c>
+      <c r="AA91">
+        <v>2.92</v>
+      </c>
+      <c r="AB91">
+        <v>31</v>
+      </c>
+      <c r="AC91">
+        <v>12</v>
+      </c>
+      <c r="AD91">
+        <v>72</v>
+      </c>
+      <c r="AE91">
+        <v>0.08</v>
+      </c>
+      <c r="AF91">
+        <v>0.08</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0.87</v>
+      </c>
+      <c r="AJ91">
+        <v>57.17</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:AL89" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/src_files/data_files/unittypedata_maf2020.xlsx
+++ b/src_files/data_files/unittypedata_maf2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backbone\backbone\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB18BE-219C-4102-A336-1C202D1802F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CFB30-A4DF-4939-B223-EB56201DAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="SecondQ">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="ThirdQ">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1232,10 +1232,10 @@
   <dimension ref="A1:AO91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Y77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="Y29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM93" sqref="AM93"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.25">

--- a/src_files/data_files/unittypedata_maf2020.xlsx
+++ b/src_files/data_files/unittypedata_maf2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backbone\backbone\north_european_model\src_files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CFB30-A4DF-4939-B223-EB56201DAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4683C163-31C7-4DB3-B103-BBEB8CB2A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="unittypedata" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unittypedata!$C$1:$AL$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unittypedata!$C$1:$AK$89</definedName>
     <definedName name="Bottom">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="fd">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
     <definedName name="Labels">OFFSET(Bottom,0,-1)</definedName>
@@ -68,759 +68,756 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="250">
+  <si>
+    <t>vomCosts</t>
+  </si>
+  <si>
+    <t>minOperationHours</t>
+  </si>
+  <si>
+    <t>minShutDownHours</t>
+  </si>
+  <si>
+    <t>startfuelConsWarm</t>
+  </si>
+  <si>
+    <t>startCostWarm</t>
+  </si>
+  <si>
+    <t>startFuelConsCold</t>
+  </si>
+  <si>
+    <t>startCostCold</t>
+  </si>
+  <si>
+    <t>startFuelConsHot</t>
+  </si>
+  <si>
+    <t>startCostHot</t>
+  </si>
+  <si>
+    <t>startWarmAfterXHours</t>
+  </si>
+  <si>
+    <t>startColdAfterXhours</t>
+  </si>
+  <si>
+    <t>maxRampUp</t>
+  </si>
+  <si>
+    <t>maxRampDown</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>useTimeseriesAvailability</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hard coal</t>
+  </si>
+  <si>
+    <t>Hard coal old 1</t>
+  </si>
+  <si>
+    <t>Hard coal old 2</t>
+  </si>
+  <si>
+    <t>Hard coal new</t>
+  </si>
+  <si>
+    <t>Hard coal CCS</t>
+  </si>
+  <si>
+    <t>Hard coal new Bio</t>
+  </si>
+  <si>
+    <t>Hard coal old 1 Bio</t>
+  </si>
+  <si>
+    <t>Hard coal old 2 Bio</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Lignite old 1</t>
+  </si>
+  <si>
+    <t>Lignite old 2</t>
+  </si>
+  <si>
+    <t>Lignite new</t>
+  </si>
+  <si>
+    <t>Lignite CCS</t>
+  </si>
+  <si>
+    <t>Lignite old 1 Bio</t>
+  </si>
+  <si>
+    <t>Lignite old 2 Bio</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Gas conventional old 1</t>
+  </si>
+  <si>
+    <t>Gas conventional old 2</t>
+  </si>
+  <si>
+    <t>Gas CCGT old 1</t>
+  </si>
+  <si>
+    <t>Gas CCGT old 2</t>
+  </si>
+  <si>
+    <t>Gas CCGT present 1</t>
+  </si>
+  <si>
+    <t>Gas CCGT present 2</t>
+  </si>
+  <si>
+    <t>Gas CCGT new</t>
+  </si>
+  <si>
+    <t>Gas CCGT CCS</t>
+  </si>
+  <si>
+    <t>Gas OCGT old</t>
+  </si>
+  <si>
+    <t>Gas OCGT new</t>
+  </si>
+  <si>
+    <t>Light oil</t>
+  </si>
+  <si>
+    <t>Heavy oil</t>
+  </si>
+  <si>
+    <t>Heavy oil old 1</t>
+  </si>
+  <si>
+    <t>Heavy oil old 2</t>
+  </si>
+  <si>
+    <t>Oil shale</t>
+  </si>
+  <si>
+    <t>Oil shale old</t>
+  </si>
+  <si>
+    <t>Oil shale new</t>
+  </si>
+  <si>
+    <t>Oil shale new Bio</t>
+  </si>
+  <si>
+    <t>Gas CCGT CHP</t>
+  </si>
+  <si>
+    <t>Oil HOB</t>
+  </si>
+  <si>
+    <t>Gas HOB</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Bio HOB</t>
+  </si>
+  <si>
+    <t>Bio CHP</t>
+  </si>
+  <si>
+    <t>Coal CHP</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>Waste CHP</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>psOpen</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>Run-of-River</t>
+  </si>
+  <si>
+    <t>ror</t>
+  </si>
+  <si>
+    <t>Ground source heat pump</t>
+  </si>
+  <si>
+    <t>elec</t>
+  </si>
+  <si>
+    <t>Electric boiler</t>
+  </si>
+  <si>
+    <t>Battery discharger</t>
+  </si>
+  <si>
+    <t>batterystor</t>
+  </si>
+  <si>
+    <t>Battery charger</t>
+  </si>
+  <si>
+    <t>PS Closed turbine</t>
+  </si>
+  <si>
+    <t>psClosed</t>
+  </si>
+  <si>
+    <t>PS Closed pump</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Hydrogen OCGT</t>
+  </si>
+  <si>
+    <t>Hydrogen storage dimensioner</t>
+  </si>
+  <si>
+    <t>DR cutoff tier 1</t>
+  </si>
+  <si>
+    <t>DR cutoff tier 2</t>
+  </si>
+  <si>
+    <t>DR cutoff tier 3</t>
+  </si>
+  <si>
+    <t>Hydrogen processor</t>
+  </si>
+  <si>
+    <t>Hydrogencommod</t>
+  </si>
+  <si>
+    <t>DR upwards 1</t>
+  </si>
+  <si>
+    <t>DR upwards 2</t>
+  </si>
+  <si>
+    <t>Lower reservoir turbine</t>
+  </si>
+  <si>
+    <t>lowerreservoir</t>
+  </si>
+  <si>
+    <t>Lower reservoir turbine peaker</t>
+  </si>
+  <si>
+    <t>Upper reservoir turbine</t>
+  </si>
+  <si>
+    <t>Reservoir tier 1</t>
+  </si>
+  <si>
+    <t>Reservoir tier 2</t>
+  </si>
+  <si>
+    <t>Reservoir tier 3</t>
+  </si>
+  <si>
+    <t>EV smart discharger</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>EV smart charger</t>
+  </si>
+  <si>
+    <t>Heat storage discharger</t>
+  </si>
+  <si>
+    <t>heatsto</t>
+  </si>
+  <si>
+    <t>Heat storage charger</t>
+  </si>
+  <si>
+    <t>Reservoir</t>
+  </si>
+  <si>
+    <t>Electrolysis</t>
+  </si>
+  <si>
+    <t>Large heat storage charger</t>
+  </si>
+  <si>
+    <t>Large heat storage discharger</t>
+  </si>
+  <si>
+    <t>Seasonal heat storage charger</t>
+  </si>
+  <si>
+    <t>Seasonal heat storage discharger</t>
+  </si>
+  <si>
+    <t>largeheatsto</t>
+  </si>
+  <si>
+    <t>seasonheatsto</t>
+  </si>
+  <si>
+    <t>Gas OCGT CHP</t>
+  </si>
+  <si>
+    <t>Waste HOB</t>
+  </si>
+  <si>
+    <t>Electrolyser</t>
+  </si>
+  <si>
+    <t>Long-term hydrogen storage charger</t>
+  </si>
+  <si>
+    <t>Long-term hydrogen storage discharger</t>
+  </si>
+  <si>
+    <t>Short-term hydrogen storage charger</t>
+  </si>
+  <si>
+    <t>Short-term hydrogen storage discharger</t>
+  </si>
+  <si>
+    <t>hydrogenstoLT</t>
+  </si>
+  <si>
+    <t>hydrogenstoST</t>
+  </si>
+  <si>
+    <t>PS Open turbine</t>
+  </si>
+  <si>
+    <t>PS Open pump</t>
+  </si>
+  <si>
+    <t>Battery discharger 4h</t>
+  </si>
+  <si>
+    <t>Battery charger 4h</t>
+  </si>
+  <si>
+    <t>onshore</t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>isSource</t>
+  </si>
+  <si>
+    <t>isSink</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>grid_output1</t>
+  </si>
+  <si>
+    <t>grid_output2</t>
+  </si>
+  <si>
+    <t>conversionCoeff_output2</t>
+  </si>
+  <si>
+    <t>grid_output3</t>
+  </si>
+  <si>
+    <t>ligniteCCS</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>ligniteOld1</t>
+  </si>
+  <si>
+    <t>ligniteOld2</t>
+  </si>
+  <si>
+    <t>ligniteNew</t>
+  </si>
+  <si>
+    <t>ligniteOld1Bio</t>
+  </si>
+  <si>
+    <t>ligniteOld2Bio</t>
+  </si>
+  <si>
+    <t>hardcoalOld1</t>
+  </si>
+  <si>
+    <t>hardcoalOld2</t>
+  </si>
+  <si>
+    <t>hardcoalNew</t>
+  </si>
+  <si>
+    <t>hardcoalNewBio</t>
+  </si>
+  <si>
+    <t>hardcoalOldBio</t>
+  </si>
+  <si>
+    <t>hardcoalOld2Bio</t>
+  </si>
+  <si>
+    <t>CHPcoal</t>
+  </si>
+  <si>
+    <t>gasOld1</t>
+  </si>
+  <si>
+    <t>gasOld2</t>
+  </si>
+  <si>
+    <t>gasCCGTOld1</t>
+  </si>
+  <si>
+    <t>gasCCGTOld2</t>
+  </si>
+  <si>
+    <t>gasCCGTpresent1</t>
+  </si>
+  <si>
+    <t>gasCCGTpresent2</t>
+  </si>
+  <si>
+    <t>gasCCGTNew</t>
+  </si>
+  <si>
+    <t>gasCCGTCCS</t>
+  </si>
+  <si>
+    <t>gasOCGTold</t>
+  </si>
+  <si>
+    <t>gasOCGTnew</t>
+  </si>
+  <si>
+    <t>CCGTCHPgas</t>
+  </si>
+  <si>
+    <t>OCGTCHPgas</t>
+  </si>
+  <si>
+    <t>HOBgas</t>
+  </si>
+  <si>
+    <t>LFO</t>
+  </si>
+  <si>
+    <t>HFOOld1</t>
+  </si>
+  <si>
+    <t>HFOOld2</t>
+  </si>
+  <si>
+    <t>oilShaleOld</t>
+  </si>
+  <si>
+    <t>oilshaleNew</t>
+  </si>
+  <si>
+    <t>oilshaleNewBio</t>
+  </si>
+  <si>
+    <t>HOBoil</t>
+  </si>
+  <si>
+    <t>CHPwaste</t>
+  </si>
+  <si>
+    <t>HOBwaste</t>
+  </si>
+  <si>
+    <t>HOBbio</t>
+  </si>
+  <si>
+    <t>CHPbio</t>
+  </si>
+  <si>
+    <t>windOnshore</t>
+  </si>
+  <si>
+    <t>windOffshore</t>
+  </si>
+  <si>
+    <t>reservoirTurbine</t>
+  </si>
+  <si>
+    <t>rorTurbine</t>
+  </si>
+  <si>
+    <t>GSHP</t>
+  </si>
+  <si>
+    <t>EBoil</t>
+  </si>
+  <si>
+    <t>Batterydisch</t>
+  </si>
+  <si>
+    <t>Batterydisch4h</t>
+  </si>
+  <si>
+    <t>Batterychar</t>
+  </si>
+  <si>
+    <t>Batterychar4h</t>
+  </si>
+  <si>
+    <t>psclosedturbine</t>
+  </si>
+  <si>
+    <t>psclosedpump</t>
+  </si>
+  <si>
+    <t>psopenturbine</t>
+  </si>
+  <si>
+    <t>psopenpump</t>
+  </si>
+  <si>
+    <t>elysis</t>
+  </si>
+  <si>
+    <t>P2H</t>
+  </si>
+  <si>
+    <t>hydrogenOCGT</t>
+  </si>
+  <si>
+    <t>hydrogenStorageDim</t>
+  </si>
+  <si>
+    <t>hydrogenProcessor</t>
+  </si>
+  <si>
+    <t>LongH2storeIn</t>
+  </si>
+  <si>
+    <t>LongH2storeOut</t>
+  </si>
+  <si>
+    <t>ShortH2storeIn</t>
+  </si>
+  <si>
+    <t>ShortH2storeOut</t>
+  </si>
+  <si>
+    <t>DRcutofftier1</t>
+  </si>
+  <si>
+    <t>DRcutofftier2</t>
+  </si>
+  <si>
+    <t>DRcutofftier3</t>
+  </si>
+  <si>
+    <t>DRupwards1</t>
+  </si>
+  <si>
+    <t>DRupwards2</t>
+  </si>
+  <si>
+    <t>reservoirTurbineLowerP1</t>
+  </si>
+  <si>
+    <t>reservoirTurbineLowerP2</t>
+  </si>
+  <si>
+    <t>reservoirTurbineUpper</t>
+  </si>
+  <si>
+    <t>reservoirTurbineP1</t>
+  </si>
+  <si>
+    <t>reservoirTurbineP2</t>
+  </si>
+  <si>
+    <t>reservoirTurbineP3</t>
+  </si>
+  <si>
+    <t>EVsmartdisc</t>
+  </si>
+  <si>
+    <t>EVsmartcha</t>
+  </si>
+  <si>
+    <t>HeatstorDischarger</t>
+  </si>
+  <si>
+    <t>HeatstorCharger</t>
+  </si>
+  <si>
+    <t>LargeHeatstodischarger</t>
+  </si>
+  <si>
+    <t>LargeHeatstocharger</t>
+  </si>
+  <si>
+    <t>SeasonHeatstodischarger</t>
+  </si>
+  <si>
+    <t>SeasonHeatstocharger</t>
+  </si>
+  <si>
+    <t>solarThermal</t>
+  </si>
+  <si>
+    <t>hardcoalCCS</t>
+  </si>
+  <si>
+    <t>LP/MIP</t>
+  </si>
+  <si>
+    <t>grid_input1</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>dheat</t>
+  </si>
+  <si>
+    <t>upperLimitCapacityRatio_input1</t>
+  </si>
+  <si>
+    <t>Gas conventional old 2 Bio</t>
+  </si>
+  <si>
+    <t>gasOld2Bio</t>
+  </si>
+  <si>
+    <t>Heavy oil old 1 Bio</t>
+  </si>
+  <si>
+    <t>heavyOilOldBio</t>
+  </si>
+  <si>
+    <t>Gas CCGT old 2 Bio</t>
+  </si>
+  <si>
+    <t>gasCCGTOld2Bio</t>
+  </si>
+  <si>
+    <t>unittype</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>emission_group1</t>
+  </si>
+  <si>
+    <t>eff00</t>
+  </si>
+  <si>
+    <t>eff01</t>
+  </si>
+  <si>
+    <t>op00</t>
+  </si>
+  <si>
+    <t>op01</t>
+  </si>
+  <si>
+    <t>rampUpCost</t>
+  </si>
+  <si>
+    <t>vomCosts_input1</t>
+  </si>
+  <si>
+    <t>Industry non-renewable CHP</t>
+  </si>
+  <si>
+    <t>Industry renewable CHP</t>
+  </si>
+  <si>
+    <t>industryResCHP</t>
+  </si>
+  <si>
+    <t>industryNonResCHP</t>
+  </si>
+  <si>
+    <t>Industry gas CHP</t>
+  </si>
+  <si>
+    <t>industryGasCHP</t>
+  </si>
+  <si>
+    <t>Oil shale CHP</t>
+  </si>
+  <si>
+    <t>oilshaleCHP</t>
+  </si>
+  <si>
+    <t>Efficiency from https://doi.org/10.3390/en16020603</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
   <si>
     <t>Generator_ID</t>
   </si>
   <si>
-    <t>vomCosts</t>
-  </si>
-  <si>
-    <t>minOperationHours</t>
-  </si>
-  <si>
-    <t>minShutDownHours</t>
-  </si>
-  <si>
-    <t>startfuelConsWarm</t>
-  </si>
-  <si>
-    <t>startCostWarm</t>
-  </si>
-  <si>
-    <t>startFuelConsCold</t>
-  </si>
-  <si>
-    <t>startCostCold</t>
-  </si>
-  <si>
-    <t>startFuelConsHot</t>
-  </si>
-  <si>
-    <t>startCostHot</t>
-  </si>
-  <si>
-    <t>startWarmAfterXHours</t>
-  </si>
-  <si>
-    <t>startColdAfterXhours</t>
-  </si>
-  <si>
-    <t>maxRampUp</t>
-  </si>
-  <si>
-    <t>maxRampDown</t>
-  </si>
-  <si>
-    <t>unitSize</t>
-  </si>
-  <si>
-    <t>cb</t>
-  </si>
-  <si>
-    <t>useTimeseriesAvailability</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Hard coal</t>
-  </si>
-  <si>
-    <t>Hard coal old 1</t>
-  </si>
-  <si>
-    <t>Hard coal old 2</t>
-  </si>
-  <si>
-    <t>Hard coal new</t>
-  </si>
-  <si>
-    <t>Hard coal CCS</t>
-  </si>
-  <si>
-    <t>Hard coal new Bio</t>
-  </si>
-  <si>
-    <t>Hard coal old 1 Bio</t>
-  </si>
-  <si>
-    <t>Hard coal old 2 Bio</t>
-  </si>
-  <si>
-    <t>Lignite</t>
-  </si>
-  <si>
-    <t>Lignite old 1</t>
-  </si>
-  <si>
-    <t>Lignite old 2</t>
-  </si>
-  <si>
-    <t>Lignite new</t>
-  </si>
-  <si>
-    <t>Lignite CCS</t>
-  </si>
-  <si>
-    <t>Lignite old 1 Bio</t>
-  </si>
-  <si>
-    <t>Lignite old 2 Bio</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Gas conventional old 1</t>
-  </si>
-  <si>
-    <t>Gas conventional old 2</t>
-  </si>
-  <si>
-    <t>Gas CCGT old 1</t>
-  </si>
-  <si>
-    <t>Gas CCGT old 2</t>
-  </si>
-  <si>
-    <t>Gas CCGT present 1</t>
-  </si>
-  <si>
-    <t>Gas CCGT present 2</t>
-  </si>
-  <si>
-    <t>Gas CCGT new</t>
-  </si>
-  <si>
-    <t>Gas CCGT CCS</t>
-  </si>
-  <si>
-    <t>Gas OCGT old</t>
-  </si>
-  <si>
-    <t>Gas OCGT new</t>
-  </si>
-  <si>
-    <t>Light oil</t>
-  </si>
-  <si>
-    <t>Heavy oil</t>
-  </si>
-  <si>
-    <t>Heavy oil old 1</t>
-  </si>
-  <si>
-    <t>Heavy oil old 2</t>
-  </si>
-  <si>
-    <t>Oil shale</t>
-  </si>
-  <si>
-    <t>Oil shale old</t>
-  </si>
-  <si>
-    <t>Oil shale new</t>
-  </si>
-  <si>
-    <t>Oil shale new Bio</t>
-  </si>
-  <si>
-    <t>Gas CCGT CHP</t>
-  </si>
-  <si>
-    <t>Oil HOB</t>
-  </si>
-  <si>
-    <t>Gas HOB</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Bio HOB</t>
-  </si>
-  <si>
-    <t>Bio CHP</t>
-  </si>
-  <si>
-    <t>Coal CHP</t>
-  </si>
-  <si>
-    <t>MSW</t>
-  </si>
-  <si>
-    <t>Waste CHP</t>
-  </si>
-  <si>
-    <t>Onshore Wind</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>Offshore Wind</t>
-  </si>
-  <si>
-    <t>Solar PV</t>
-  </si>
-  <si>
-    <t>psOpen</t>
-  </si>
-  <si>
-    <t>reservoir</t>
-  </si>
-  <si>
-    <t>Run-of-River</t>
-  </si>
-  <si>
-    <t>ror</t>
-  </si>
-  <si>
-    <t>Ground source heat pump</t>
-  </si>
-  <si>
-    <t>elec</t>
-  </si>
-  <si>
-    <t>Electric boiler</t>
-  </si>
-  <si>
-    <t>Battery discharger</t>
-  </si>
-  <si>
-    <t>batterystor</t>
-  </si>
-  <si>
-    <t>Battery charger</t>
-  </si>
-  <si>
-    <t>PS Closed turbine</t>
-  </si>
-  <si>
-    <t>psClosed</t>
-  </si>
-  <si>
-    <t>PS Closed pump</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Hydrogen OCGT</t>
-  </si>
-  <si>
-    <t>Hydrogen storage dimensioner</t>
-  </si>
-  <si>
-    <t>DR cutoff tier 1</t>
-  </si>
-  <si>
-    <t>DR cutoff tier 2</t>
-  </si>
-  <si>
-    <t>DR cutoff tier 3</t>
-  </si>
-  <si>
-    <t>Hydrogen processor</t>
-  </si>
-  <si>
-    <t>Hydrogencommod</t>
-  </si>
-  <si>
-    <t>DR upwards 1</t>
-  </si>
-  <si>
-    <t>DR upwards 2</t>
-  </si>
-  <si>
-    <t>Lower reservoir turbine</t>
-  </si>
-  <si>
-    <t>lowerreservoir</t>
-  </si>
-  <si>
-    <t>Lower reservoir turbine peaker</t>
-  </si>
-  <si>
-    <t>Upper reservoir turbine</t>
-  </si>
-  <si>
-    <t>Reservoir tier 1</t>
-  </si>
-  <si>
-    <t>Reservoir tier 2</t>
-  </si>
-  <si>
-    <t>Reservoir tier 3</t>
-  </si>
-  <si>
-    <t>EV smart discharger</t>
-  </si>
-  <si>
-    <t>ev</t>
-  </si>
-  <si>
-    <t>EV smart charger</t>
-  </si>
-  <si>
-    <t>Heat storage discharger</t>
-  </si>
-  <si>
-    <t>heatsto</t>
-  </si>
-  <si>
-    <t>Heat storage charger</t>
-  </si>
-  <si>
-    <t>Reservoir</t>
-  </si>
-  <si>
-    <t>Electrolysis</t>
-  </si>
-  <si>
-    <t>Large heat storage charger</t>
-  </si>
-  <si>
-    <t>Large heat storage discharger</t>
-  </si>
-  <si>
-    <t>Seasonal heat storage charger</t>
-  </si>
-  <si>
-    <t>Seasonal heat storage discharger</t>
-  </si>
-  <si>
-    <t>largeheatsto</t>
-  </si>
-  <si>
-    <t>seasonheatsto</t>
-  </si>
-  <si>
-    <t>Gas OCGT CHP</t>
-  </si>
-  <si>
-    <t>Waste HOB</t>
-  </si>
-  <si>
-    <t>Electrolyser</t>
-  </si>
-  <si>
-    <t>Long-term hydrogen storage charger</t>
-  </si>
-  <si>
-    <t>Long-term hydrogen storage discharger</t>
-  </si>
-  <si>
-    <t>Short-term hydrogen storage charger</t>
-  </si>
-  <si>
-    <t>Short-term hydrogen storage discharger</t>
-  </si>
-  <si>
-    <t>hydrogenstoLT</t>
-  </si>
-  <si>
-    <t>hydrogenstoST</t>
-  </si>
-  <si>
-    <t>PS Open turbine</t>
-  </si>
-  <si>
-    <t>PS Open pump</t>
-  </si>
-  <si>
-    <t>Battery discharger 4h</t>
-  </si>
-  <si>
-    <t>Battery charger 4h</t>
-  </si>
-  <si>
-    <t>onshore</t>
-  </si>
-  <si>
-    <t>offshore</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>isSource</t>
-  </si>
-  <si>
-    <t>isSink</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Solar Thermal</t>
-  </si>
-  <si>
-    <t>solar thermal</t>
-  </si>
-  <si>
-    <t>grid_output1</t>
-  </si>
-  <si>
-    <t>grid_output2</t>
-  </si>
-  <si>
-    <t>conversionCoeff_output2</t>
-  </si>
-  <si>
-    <t>grid_output3</t>
-  </si>
-  <si>
-    <t>ligniteCCS</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>ligniteOld1</t>
-  </si>
-  <si>
-    <t>ligniteOld2</t>
-  </si>
-  <si>
-    <t>ligniteNew</t>
-  </si>
-  <si>
-    <t>ligniteOld1Bio</t>
-  </si>
-  <si>
-    <t>ligniteOld2Bio</t>
-  </si>
-  <si>
-    <t>hardcoalOld1</t>
-  </si>
-  <si>
-    <t>hardcoalOld2</t>
-  </si>
-  <si>
-    <t>hardcoalNew</t>
-  </si>
-  <si>
-    <t>hardcoalNewBio</t>
-  </si>
-  <si>
-    <t>hardcoalOldBio</t>
-  </si>
-  <si>
-    <t>hardcoalOld2Bio</t>
-  </si>
-  <si>
-    <t>CHPcoal</t>
-  </si>
-  <si>
-    <t>gasOld1</t>
-  </si>
-  <si>
-    <t>gasOld2</t>
-  </si>
-  <si>
-    <t>gasCCGTOld1</t>
-  </si>
-  <si>
-    <t>gasCCGTOld2</t>
-  </si>
-  <si>
-    <t>gasCCGTpresent1</t>
-  </si>
-  <si>
-    <t>gasCCGTpresent2</t>
-  </si>
-  <si>
-    <t>gasCCGTNew</t>
-  </si>
-  <si>
-    <t>gasCCGTCCS</t>
-  </si>
-  <si>
-    <t>gasOCGTold</t>
-  </si>
-  <si>
-    <t>gasOCGTnew</t>
-  </si>
-  <si>
-    <t>CCGTCHPgas</t>
-  </si>
-  <si>
-    <t>OCGTCHPgas</t>
-  </si>
-  <si>
-    <t>HOBgas</t>
-  </si>
-  <si>
-    <t>LFO</t>
-  </si>
-  <si>
-    <t>HFOOld1</t>
-  </si>
-  <si>
-    <t>HFOOld2</t>
-  </si>
-  <si>
-    <t>oilShaleOld</t>
-  </si>
-  <si>
-    <t>oilshaleNew</t>
-  </si>
-  <si>
-    <t>oilshaleNewBio</t>
-  </si>
-  <si>
-    <t>HOBoil</t>
-  </si>
-  <si>
-    <t>CHPwaste</t>
-  </si>
-  <si>
-    <t>HOBwaste</t>
-  </si>
-  <si>
-    <t>HOBbio</t>
-  </si>
-  <si>
-    <t>CHPbio</t>
-  </si>
-  <si>
-    <t>windOnshore</t>
-  </si>
-  <si>
-    <t>windOffshore</t>
-  </si>
-  <si>
-    <t>reservoirTurbine</t>
-  </si>
-  <si>
-    <t>rorTurbine</t>
-  </si>
-  <si>
-    <t>GSHP</t>
-  </si>
-  <si>
-    <t>EBoil</t>
-  </si>
-  <si>
-    <t>Batterydisch</t>
-  </si>
-  <si>
-    <t>Batterydisch4h</t>
-  </si>
-  <si>
-    <t>Batterychar</t>
-  </si>
-  <si>
-    <t>Batterychar4h</t>
-  </si>
-  <si>
-    <t>psclosedturbine</t>
-  </si>
-  <si>
-    <t>psclosedpump</t>
-  </si>
-  <si>
-    <t>psopenturbine</t>
-  </si>
-  <si>
-    <t>psopenpump</t>
-  </si>
-  <si>
-    <t>elysis</t>
-  </si>
-  <si>
-    <t>P2H</t>
-  </si>
-  <si>
-    <t>hydrogenOCGT</t>
-  </si>
-  <si>
-    <t>hydrogenStorageDim</t>
-  </si>
-  <si>
-    <t>hydrogenProcessor</t>
-  </si>
-  <si>
-    <t>LongH2storeIn</t>
-  </si>
-  <si>
-    <t>LongH2storeOut</t>
-  </si>
-  <si>
-    <t>ShortH2storeIn</t>
-  </si>
-  <si>
-    <t>ShortH2storeOut</t>
-  </si>
-  <si>
-    <t>DRcutofftier1</t>
-  </si>
-  <si>
-    <t>DRcutofftier2</t>
-  </si>
-  <si>
-    <t>DRcutofftier3</t>
-  </si>
-  <si>
-    <t>DRupwards1</t>
-  </si>
-  <si>
-    <t>DRupwards2</t>
-  </si>
-  <si>
-    <t>reservoirTurbineLowerP1</t>
-  </si>
-  <si>
-    <t>reservoirTurbineLowerP2</t>
-  </si>
-  <si>
-    <t>reservoirTurbineUpper</t>
-  </si>
-  <si>
-    <t>reservoirTurbineP1</t>
-  </si>
-  <si>
-    <t>reservoirTurbineP2</t>
-  </si>
-  <si>
-    <t>reservoirTurbineP3</t>
-  </si>
-  <si>
-    <t>EVsmartdisc</t>
-  </si>
-  <si>
-    <t>EVsmartcha</t>
-  </si>
-  <si>
-    <t>HeatstorDischarger</t>
-  </si>
-  <si>
-    <t>HeatstorCharger</t>
-  </si>
-  <si>
-    <t>LargeHeatstodischarger</t>
-  </si>
-  <si>
-    <t>LargeHeatstocharger</t>
-  </si>
-  <si>
-    <t>SeasonHeatstodischarger</t>
-  </si>
-  <si>
-    <t>SeasonHeatstocharger</t>
-  </si>
-  <si>
-    <t>solarThermal</t>
-  </si>
-  <si>
-    <t>hardcoalCCS</t>
-  </si>
-  <si>
-    <t>LP/MIP</t>
-  </si>
-  <si>
-    <t>grid_input1</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>dheat</t>
-  </si>
-  <si>
-    <t>upperLimitCapacityRatio_input1</t>
-  </si>
-  <si>
-    <t>Gas conventional old 2 Bio</t>
-  </si>
-  <si>
-    <t>gasOld2Bio</t>
-  </si>
-  <si>
-    <t>Heavy oil old 1 Bio</t>
-  </si>
-  <si>
-    <t>heavyOilOldBio</t>
-  </si>
-  <si>
-    <t>Gas CCGT old 2 Bio</t>
-  </si>
-  <si>
-    <t>gasCCGTOld2Bio</t>
-  </si>
-  <si>
-    <t>unittype</t>
-  </si>
-  <si>
-    <t>steam</t>
-  </si>
-  <si>
-    <t>emission_group1</t>
-  </si>
-  <si>
-    <t>ETS_CO2</t>
-  </si>
-  <si>
-    <t>eff00</t>
-  </si>
-  <si>
-    <t>eff01</t>
-  </si>
-  <si>
-    <t>op00</t>
-  </si>
-  <si>
-    <t>op01</t>
-  </si>
-  <si>
-    <t>rampUpCost</t>
-  </si>
-  <si>
-    <t>vomCosts_input1</t>
-  </si>
-  <si>
-    <t>Industry non-renewable CHP</t>
-  </si>
-  <si>
-    <t>Industry renewable CHP</t>
-  </si>
-  <si>
-    <t>industryResCHP</t>
-  </si>
-  <si>
-    <t>industryNonResCHP</t>
-  </si>
-  <si>
-    <t>Industry gas CHP</t>
-  </si>
-  <si>
-    <t>industryGasCHP</t>
-  </si>
-  <si>
-    <t>Oil shale CHP</t>
-  </si>
-  <si>
-    <t>oilshaleCHP</t>
-  </si>
-  <si>
-    <t>Efficiency from https://doi.org/10.3390/en16020603</t>
-  </si>
-  <si>
-    <t>Note</t>
+    <t>ETS-CO2</t>
   </si>
 </sst>
 </file>
@@ -1229,13 +1226,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO91"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Y29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,144 +1257,141 @@
     <col min="26" max="26" width="14" customWidth="1"/>
     <col min="27" max="27" width="14.7109375" customWidth="1"/>
     <col min="28" max="28" width="14.5703125" customWidth="1"/>
-    <col min="29" max="33" width="8.42578125" customWidth="1"/>
-    <col min="36" max="36" width="14" customWidth="1"/>
-    <col min="37" max="37" width="15.85546875" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" customWidth="1"/>
-    <col min="1035" max="1035" width="9.140625" customWidth="1"/>
+    <col min="29" max="32" width="8.42578125" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="15.85546875" customWidth="1"/>
+    <col min="37" max="37" width="10.140625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="J1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>224</v>
-      </c>
       <c r="AL1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1405,10 +1399,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1457,25 +1451,24 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1483,10 +1476,10 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1535,25 +1528,24 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4">
-        <v>0</v>
-      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1561,10 +1553,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1613,27 +1605,26 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2">
         <v>1.5</v>
       </c>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK4" s="2"/>
+    </row>
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1641,10 +1632,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1693,27 +1684,26 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
       <c r="AJ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="4">
         <v>4</v>
       </c>
-      <c r="AL5" s="4"/>
-    </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK5" s="4"/>
+    </row>
+    <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1721,13 +1711,13 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -1783,29 +1773,28 @@
       <c r="AF6" s="8">
         <v>0.05</v>
       </c>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8">
+      <c r="AG6" s="8">
         <v>0.5</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8">
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8">
         <v>90</v>
       </c>
+      <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-    </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1813,10 +1802,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1878,36 +1867,35 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-    </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1963,38 +1951,37 @@
       <c r="AF8" s="8">
         <v>0.05</v>
       </c>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8">
+      <c r="AG8" s="8">
         <v>0.45</v>
       </c>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8">
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8">
         <v>150</v>
       </c>
+      <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2032,31 +2019,31 @@
       <c r="AD9">
         <v>0</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2094,22 +2081,22 @@
       <c r="AD10">
         <v>0</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2119,10 +2106,10 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2171,25 +2158,24 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-    </row>
-    <row r="12" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="b">
@@ -2199,10 +2185,10 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -2251,34 +2237,33 @@
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12"/>
       <c r="AK12"/>
-      <c r="AL12"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2316,22 +2301,22 @@
       <c r="AD13">
         <v>0</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2339,10 +2324,10 @@
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -2391,25 +2376,24 @@
       <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14"/>
       <c r="AK14"/>
-      <c r="AL14"/>
-    </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2417,10 +2401,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -2469,31 +2453,30 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4">
-        <v>0</v>
-      </c>
+      <c r="AI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-    </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O16" s="2">
         <v>0.75</v>
@@ -2531,22 +2514,22 @@
       <c r="AD16" s="2">
         <v>0</v>
       </c>
-      <c r="AJ16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2554,10 +2537,10 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2606,27 +2589,26 @@
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2634,10 +2616,10 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2686,37 +2668,36 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I19" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -2773,38 +2754,38 @@
       <c r="AF19">
         <v>0.05</v>
       </c>
-      <c r="AJ19">
+      <c r="AI19">
         <v>61.86</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -2860,38 +2841,37 @@
       <c r="AF20" s="10">
         <v>0.05</v>
       </c>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10">
+      <c r="AG20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10">
         <v>36.020000000000003</v>
       </c>
+      <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I21" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O21">
         <v>0.6</v>
@@ -2944,31 +2924,31 @@
       <c r="AF21">
         <v>0.05</v>
       </c>
-      <c r="AJ21">
+      <c r="AI21">
         <v>36.020000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22">
         <v>0.4</v>
@@ -3021,31 +3001,31 @@
       <c r="AF22">
         <v>0.05</v>
       </c>
-      <c r="AJ22">
+      <c r="AI22">
         <v>79.09</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23">
         <v>0.48</v>
@@ -3098,28 +3078,28 @@
       <c r="AF23">
         <v>0.05</v>
       </c>
-      <c r="AJ23">
+      <c r="AI23">
         <v>61.86</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O24">
         <v>0.32</v>
@@ -3172,31 +3152,31 @@
       <c r="AF24">
         <v>0.05</v>
       </c>
-      <c r="AJ24">
+      <c r="AI24">
         <v>61.86</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" s="11">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O25">
         <v>0.56000000000000005</v>
@@ -3249,31 +3229,31 @@
       <c r="AF25">
         <v>0.05</v>
       </c>
-      <c r="AJ25">
+      <c r="AI25">
         <v>36.020000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O26">
         <v>0.57999999999999996</v>
@@ -3326,31 +3306,31 @@
       <c r="AF26">
         <v>0.05</v>
       </c>
-      <c r="AJ26">
+      <c r="AI26">
         <v>36.020000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B27" s="11">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O27">
         <v>0.36</v>
@@ -3403,31 +3383,31 @@
       <c r="AF27">
         <v>0.15</v>
       </c>
-      <c r="AJ27">
+      <c r="AI27">
         <v>69.69</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B28" s="11">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O28">
         <v>0.41</v>
@@ -3480,28 +3460,28 @@
       <c r="AF28">
         <v>0.15</v>
       </c>
-      <c r="AJ28">
+      <c r="AI28">
         <v>58.73</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B29" s="11">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O29">
         <v>0.3</v>
@@ -3554,35 +3534,35 @@
       <c r="AF29">
         <v>0.15</v>
       </c>
-      <c r="AJ29">
+      <c r="AI29">
         <v>58.73</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B30" s="11">
         <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -3644,32 +3624,31 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-    </row>
-    <row r="31" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B31" s="11">
         <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O31" s="10">
         <v>0.9</v>
@@ -3722,38 +3701,38 @@
       <c r="AF31" s="10">
         <v>0.12</v>
       </c>
-      <c r="AH31" s="10">
+      <c r="AG31" s="10">
         <v>0.6</v>
       </c>
-      <c r="AJ31" s="10">
+      <c r="AI31" s="10">
         <v>24.28</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B32" s="11">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -3812,38 +3791,37 @@
       </c>
       <c r="AG32"/>
       <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32">
+      <c r="AI32">
         <v>24.28</v>
       </c>
+      <c r="AJ32"/>
       <c r="AK32"/>
-      <c r="AL32"/>
-    </row>
-    <row r="33" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B33" s="11">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -3902,31 +3880,30 @@
       </c>
       <c r="AG33"/>
       <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33">
+      <c r="AI33">
         <v>52.47</v>
       </c>
+      <c r="AJ33"/>
       <c r="AK33"/>
-      <c r="AL33"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B34" s="11">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O34">
         <v>2.8</v>
@@ -3964,38 +3941,38 @@
       <c r="AD34">
         <v>0</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B35" s="11">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -4055,38 +4032,37 @@
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2">
+      <c r="AI35" s="2">
         <v>81.44</v>
       </c>
+      <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-    </row>
-    <row r="36" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B36" s="11">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -4145,38 +4121,37 @@
       </c>
       <c r="AG36"/>
       <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36">
+      <c r="AI36">
         <v>57.17</v>
       </c>
+      <c r="AJ36"/>
       <c r="AK36"/>
-      <c r="AL36"/>
-    </row>
-    <row r="37" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B37" s="11">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -4235,38 +4210,37 @@
       </c>
       <c r="AG37"/>
       <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37">
+      <c r="AI37">
         <v>57.17</v>
       </c>
+      <c r="AJ37"/>
       <c r="AK37"/>
-      <c r="AL37"/>
-    </row>
-    <row r="38" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B38" s="11">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L38"/>
       <c r="M38"/>
@@ -4325,38 +4299,37 @@
       </c>
       <c r="AG38"/>
       <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38" s="1">
+      <c r="AI38" s="1">
         <v>93.97</v>
       </c>
+      <c r="AJ38"/>
       <c r="AK38"/>
-      <c r="AL38"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B39" s="11">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4415,38 +4388,37 @@
       </c>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="3">
+      <c r="AI39" s="3">
         <v>93.97</v>
       </c>
+      <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-    </row>
-    <row r="40" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B40" s="11">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -4505,38 +4477,37 @@
       </c>
       <c r="AG40"/>
       <c r="AH40"/>
-      <c r="AI40"/>
-      <c r="AJ40">
+      <c r="AI40">
         <v>81.44</v>
       </c>
+      <c r="AJ40"/>
       <c r="AK40"/>
-      <c r="AL40"/>
-    </row>
-    <row r="41" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B41" s="11">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -4595,25 +4566,24 @@
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2">
+      <c r="AI41" s="2">
         <v>81.44</v>
       </c>
+      <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
-    </row>
-    <row r="42" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B42" s="11">
         <v>1</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -4621,10 +4591,10 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -4673,31 +4643,30 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
-      <c r="AJ42" s="7">
-        <v>0</v>
-      </c>
+      <c r="AI42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-    </row>
-    <row r="43" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B43" s="11">
         <v>1</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O43" s="7">
         <v>0.99</v>
@@ -4735,38 +4704,38 @@
       <c r="AD43" s="7">
         <v>0</v>
       </c>
+      <c r="AI43" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B44" s="11">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -4825,25 +4794,24 @@
       </c>
       <c r="AG44"/>
       <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44">
+      <c r="AI44">
         <v>93.97</v>
       </c>
+      <c r="AJ44"/>
       <c r="AK44"/>
-      <c r="AL44"/>
-    </row>
-    <row r="45" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B45" s="11">
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4851,10 +4819,10 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4913,38 +4881,37 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2">
+      <c r="AI45" s="2">
         <v>81.44</v>
       </c>
+      <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B46" s="11">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5003,25 +4970,24 @@
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2">
+      <c r="AI46" s="2">
         <v>81.44</v>
       </c>
+      <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B47" s="11">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -5029,10 +4995,10 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5081,25 +5047,24 @@
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2">
+      <c r="AI47" s="2">
         <v>30</v>
       </c>
+      <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B48" s="11">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5107,10 +5072,10 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5159,25 +5124,24 @@
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B49" s="11">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="b">
@@ -5187,10 +5151,10 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5239,43 +5203,42 @@
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
+      <c r="AI49" s="2">
+        <v>30</v>
+      </c>
       <c r="AJ49" s="2">
-        <v>30</v>
-      </c>
-      <c r="AK49" s="2">
         <v>1000</v>
       </c>
-      <c r="AL49" s="2"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK49" s="2"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B50" s="11">
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" t="s">
         <v>241</v>
-      </c>
-      <c r="D50" t="s">
-        <v>244</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -5331,30 +5294,29 @@
       <c r="AF50" s="4">
         <v>0.05</v>
       </c>
-      <c r="AG50" s="4"/>
+      <c r="AG50" s="4">
+        <v>0.5</v>
+      </c>
       <c r="AH50" s="4">
-        <v>0.5</v>
+        <v>-0.16666666666666699</v>
       </c>
       <c r="AI50" s="4">
-        <v>-0.16666666666666699</v>
-      </c>
-      <c r="AJ50" s="4">
         <v>95</v>
       </c>
-      <c r="AL50" s="2"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK50" s="2"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B51" s="11">
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -5362,13 +5324,13 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -5424,29 +5386,28 @@
       <c r="AF51" s="4">
         <v>0.05</v>
       </c>
-      <c r="AG51" s="4"/>
+      <c r="AG51" s="4">
+        <v>0.5</v>
+      </c>
       <c r="AH51" s="4">
-        <v>0.5</v>
+        <v>-0.16666666666666699</v>
       </c>
       <c r="AI51" s="4">
-        <v>-0.16666666666666699</v>
-      </c>
-      <c r="AJ51" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B52" s="11">
         <v>1</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -5454,10 +5415,10 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -5506,25 +5467,24 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
       <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7">
-        <v>0</v>
-      </c>
+      <c r="AI52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
-    </row>
-    <row r="53" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B53" s="11">
         <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -5532,10 +5492,10 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -5584,40 +5544,39 @@
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
-      <c r="AI53" s="7"/>
+      <c r="AI53" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ53" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="7">
         <v>100</v>
       </c>
-      <c r="AL53" s="7"/>
-    </row>
-    <row r="54" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK53" s="7"/>
+    </row>
+    <row r="54" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B54" s="11">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -5676,31 +5635,30 @@
       </c>
       <c r="AG54"/>
       <c r="AH54"/>
-      <c r="AI54"/>
-      <c r="AJ54">
+      <c r="AI54">
         <v>38.4</v>
       </c>
+      <c r="AJ54"/>
       <c r="AK54"/>
-      <c r="AL54"/>
-    </row>
-    <row r="55" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B55" s="11">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O55" s="2">
         <v>0.38</v>
@@ -5753,35 +5711,35 @@
       <c r="AF55" s="2">
         <v>0.05</v>
       </c>
-      <c r="AJ55" s="2">
+      <c r="AI55" s="2">
         <v>81.44</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B56" s="11">
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -5840,34 +5798,33 @@
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2">
+      <c r="AI56" s="2">
         <v>57.17</v>
       </c>
+      <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B57" s="11">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O57">
         <v>0.35</v>
@@ -5920,22 +5877,22 @@
       <c r="AF57">
         <v>0.05</v>
       </c>
-      <c r="AJ57">
+      <c r="AI57">
         <v>93.97</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B58" s="11">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5943,10 +5900,10 @@
       <c r="H58" s="2"/>
       <c r="I58" s="19"/>
       <c r="J58" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6005,38 +5962,37 @@
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2">
+      <c r="AI58" s="2">
         <v>93.97</v>
       </c>
+      <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-    </row>
-    <row r="59" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B59" s="11">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -6095,25 +6051,24 @@
       </c>
       <c r="AG59"/>
       <c r="AH59"/>
-      <c r="AI59"/>
-      <c r="AJ59">
+      <c r="AI59">
         <v>81.44</v>
       </c>
+      <c r="AJ59"/>
       <c r="AK59"/>
-      <c r="AL59"/>
-    </row>
-    <row r="60" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B60" s="11">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -6121,10 +6076,10 @@
       <c r="H60" s="2"/>
       <c r="I60" s="19"/>
       <c r="J60" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -6183,25 +6138,24 @@
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2">
+      <c r="AI60" s="2">
         <v>81.44</v>
       </c>
+      <c r="AJ60" s="2"/>
       <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-    </row>
-    <row r="61" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B61" s="11">
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -6209,10 +6163,10 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -6261,31 +6215,30 @@
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
       <c r="AH61" s="4"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="5"/>
-      <c r="AL61" s="4"/>
-    </row>
-    <row r="62" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="4"/>
+    </row>
+    <row r="62" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B62" s="11">
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O62" s="4">
         <v>1</v>
@@ -6323,93 +6276,93 @@
       <c r="AD62" s="4">
         <v>0</v>
       </c>
-      <c r="AJ62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK62" s="5">
+      <c r="AI62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="5">
         <v>924</v>
       </c>
     </row>
-    <row r="63" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B63" s="11">
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" t="s">
+        <v>202</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O63" s="2">
+        <v>1</v>
+      </c>
+      <c r="P63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="11">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D63" t="s">
-        <v>204</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O63" s="2">
-        <v>1</v>
-      </c>
-      <c r="P63" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1</v>
-      </c>
-      <c r="S63" s="2">
-        <v>0</v>
-      </c>
-      <c r="X63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK63" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B64" s="11">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O64" s="2">
         <v>1</v>
@@ -6447,25 +6400,25 @@
       <c r="AD64" s="2">
         <v>0</v>
       </c>
+      <c r="AI64" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B65" s="11">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
@@ -6473,10 +6426,10 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -6535,38 +6488,37 @@
       </c>
       <c r="AG65"/>
       <c r="AH65"/>
-      <c r="AI65"/>
-      <c r="AJ65" s="1">
+      <c r="AI65" s="1">
         <v>200</v>
       </c>
+      <c r="AJ65"/>
       <c r="AK65"/>
-      <c r="AL65"/>
-    </row>
-    <row r="66" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B66" s="11">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L66"/>
       <c r="M66"/>
@@ -6615,38 +6567,37 @@
       <c r="AF66"/>
       <c r="AG66"/>
       <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66"/>
       <c r="AK66"/>
-      <c r="AL66"/>
-    </row>
-    <row r="67" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B67" s="11">
         <v>1</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -6708,33 +6659,32 @@
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8"/>
-      <c r="AL67" s="8"/>
-    </row>
-    <row r="68" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B68" s="11">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -6793,38 +6743,37 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2">
+      <c r="AI68" s="2">
         <v>57.17</v>
       </c>
+      <c r="AJ68" s="2"/>
       <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
-    </row>
-    <row r="69" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B69" s="11">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L69"/>
       <c r="M69"/>
@@ -6883,38 +6832,37 @@
       </c>
       <c r="AG69"/>
       <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AJ69">
+      <c r="AI69">
         <v>57.17</v>
       </c>
+      <c r="AJ69"/>
       <c r="AK69"/>
-      <c r="AL69"/>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B70" s="11">
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -6973,37 +6921,36 @@
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="2">
+      <c r="AI70" s="2">
         <v>88</v>
       </c>
+      <c r="AJ70" s="2"/>
       <c r="AK70" s="2"/>
-      <c r="AL70" s="2"/>
+      <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
       <c r="AN70" s="4"/>
-      <c r="AO70" s="4"/>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B71" s="11">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -7041,23 +6988,23 @@
       <c r="AD71">
         <v>0</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
-      <c r="AL71" s="2"/>
-    </row>
-    <row r="72" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AK71" s="2"/>
+    </row>
+    <row r="72" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B72" s="11">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
@@ -7065,10 +7012,10 @@
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
@@ -7117,25 +7064,24 @@
       <c r="AF72"/>
       <c r="AG72"/>
       <c r="AH72"/>
-      <c r="AI72"/>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72"/>
       <c r="AK72"/>
-      <c r="AL72"/>
-    </row>
-    <row r="73" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B73" s="11">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
@@ -7143,10 +7089,10 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7195,25 +7141,24 @@
       <c r="AF73"/>
       <c r="AG73"/>
       <c r="AH73"/>
-      <c r="AI73"/>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73"/>
       <c r="AK73"/>
-      <c r="AL73"/>
-    </row>
-    <row r="74" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B74" s="11">
         <v>1</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -7221,10 +7166,10 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -7273,25 +7218,24 @@
       <c r="AF74" s="4"/>
       <c r="AG74" s="4"/>
       <c r="AH74" s="4"/>
-      <c r="AI74" s="4"/>
-      <c r="AJ74" s="4">
-        <v>0</v>
-      </c>
+      <c r="AI74" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="4"/>
       <c r="AK74" s="4"/>
-      <c r="AL74" s="4"/>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B75" s="11">
         <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -7299,10 +7243,10 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -7351,31 +7295,30 @@
       <c r="AF75" s="4"/>
       <c r="AG75" s="4"/>
       <c r="AH75" s="4"/>
-      <c r="AI75" s="4"/>
-      <c r="AJ75" s="4">
-        <v>0</v>
-      </c>
+      <c r="AI75" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="4"/>
       <c r="AK75" s="4"/>
-      <c r="AL75" s="4"/>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B76" s="11">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O76">
         <v>0.99</v>
@@ -7413,28 +7356,28 @@
       <c r="AD76">
         <v>0</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B77" s="11">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -7472,22 +7415,22 @@
       <c r="AD77">
         <v>0</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B78" s="11">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
@@ -7495,10 +7438,10 @@
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
@@ -7547,25 +7490,24 @@
       <c r="AF78"/>
       <c r="AG78"/>
       <c r="AH78"/>
-      <c r="AI78"/>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78"/>
       <c r="AK78"/>
-      <c r="AL78"/>
-    </row>
-    <row r="79" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B79" s="11">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
@@ -7573,10 +7515,10 @@
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L79"/>
       <c r="M79"/>
@@ -7625,25 +7567,24 @@
       <c r="AF79"/>
       <c r="AG79"/>
       <c r="AH79"/>
-      <c r="AI79"/>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79"/>
       <c r="AK79"/>
-      <c r="AL79"/>
-    </row>
-    <row r="80" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B80" s="11">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
@@ -7651,10 +7592,10 @@
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
+        <v>67</v>
+      </c>
+      <c r="K80" t="s">
         <v>69</v>
-      </c>
-      <c r="K80" t="s">
-        <v>71</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
@@ -7703,31 +7644,30 @@
       <c r="AF80"/>
       <c r="AG80"/>
       <c r="AH80"/>
-      <c r="AI80"/>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80"/>
       <c r="AK80"/>
-      <c r="AL80"/>
-    </row>
-    <row r="81" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B81" s="11">
         <v>1</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O81" s="7">
         <v>0.99</v>
@@ -7765,28 +7705,28 @@
       <c r="AD81" s="7">
         <v>0</v>
       </c>
-      <c r="AJ81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B82" s="11">
         <v>1</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" t="s">
+        <v>214</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D82" t="s">
-        <v>216</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="K82" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O82" s="7">
         <v>0.99</v>
@@ -7824,25 +7764,25 @@
       <c r="AD82" s="7">
         <v>0</v>
       </c>
+      <c r="AI82" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ82" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK82" s="7">
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B83" s="11">
         <v>1</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -7850,10 +7790,10 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -7902,25 +7842,24 @@
       <c r="AF83" s="4"/>
       <c r="AG83" s="4"/>
       <c r="AH83" s="4"/>
-      <c r="AI83" s="4"/>
-      <c r="AJ83" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="4"/>
-    </row>
-    <row r="84" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI83" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="4"/>
+    </row>
+    <row r="84" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B84" s="11">
         <v>1</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -7928,10 +7867,10 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -7980,40 +7919,39 @@
       <c r="AF84" s="4"/>
       <c r="AG84" s="4"/>
       <c r="AH84" s="4"/>
-      <c r="AI84" s="4"/>
-      <c r="AJ84" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK84" s="5">
+      <c r="AI84" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="5">
         <v>24</v>
       </c>
-      <c r="AL84" s="4"/>
-    </row>
-    <row r="85" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK84" s="4"/>
+    </row>
+    <row r="85" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B85" s="11">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -8062,34 +8000,33 @@
       <c r="AF85"/>
       <c r="AG85"/>
       <c r="AH85"/>
-      <c r="AI85"/>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85"/>
       <c r="AK85"/>
-      <c r="AL85"/>
-    </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B86" s="11">
         <v>1</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O86" s="7">
         <v>1</v>
@@ -8104,18 +8041,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B87" s="11">
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -8123,10 +8060,10 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -8175,41 +8112,40 @@
       <c r="AF87" s="2"/>
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
-      <c r="AI87" s="2"/>
-      <c r="AJ87" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
-      <c r="AL87" s="2"/>
-    </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B88" s="11">
         <v>1</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
@@ -8265,42 +8201,41 @@
       <c r="AF88" s="8">
         <v>0.05</v>
       </c>
-      <c r="AG88" s="8"/>
-      <c r="AH88" s="8">
+      <c r="AG88" s="8">
         <v>0.4</v>
       </c>
-      <c r="AI88" s="8"/>
-      <c r="AJ88" s="8">
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8">
         <v>150</v>
       </c>
+      <c r="AJ88" s="8"/>
       <c r="AK88" s="8"/>
-      <c r="AL88" s="8"/>
-    </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B89" s="11">
         <v>1</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -8362,36 +8297,35 @@
       <c r="AI89" s="7"/>
       <c r="AJ89" s="7"/>
       <c r="AK89" s="7"/>
-      <c r="AL89" s="7"/>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B90" s="11">
         <v>1</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -8447,42 +8381,41 @@
       <c r="AF90" s="4">
         <v>0.05</v>
       </c>
-      <c r="AG90" s="4"/>
+      <c r="AG90" s="4">
+        <v>0.5</v>
+      </c>
       <c r="AH90" s="4">
-        <v>0.5</v>
+        <v>-0.16666666666666699</v>
       </c>
       <c r="AI90" s="4">
-        <v>-0.16666666666666699</v>
-      </c>
-      <c r="AJ90" s="4">
         <v>95</v>
       </c>
-      <c r="AL90" s="2"/>
-    </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK90" s="2"/>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I91" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K91" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L91" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O91">
         <v>0.55000000000000004</v>
@@ -8536,21 +8469,18 @@
         <v>0.08</v>
       </c>
       <c r="AG91">
-        <v>0</v>
-      </c>
-      <c r="AH91">
         <v>0.87</v>
       </c>
-      <c r="AJ91">
+      <c r="AI91">
         <v>57.17</v>
       </c>
-      <c r="AM91" t="s">
-        <v>249</v>
+      <c r="AL91" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:AL89" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:AL89">
+  <autoFilter ref="C1:AK89" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:AK89">
       <sortCondition ref="C1:C89"/>
     </sortState>
   </autoFilter>
